--- a/assets/data/MAXQDA24 Code Matrix Browser.xlsx
+++ b/assets/data/MAXQDA24 Code Matrix Browser.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="104" uniqueCount="103">
   <si>
     <t/>
   </si>
@@ -21,13 +21,19 @@
     <t>Input Modalities</t>
   </si>
   <si>
-    <t>Input Modalities &gt; Metadata</t>
+    <t>Input Modalities &gt; Geolocation</t>
+  </si>
+  <si>
+    <t>Input Modalities &gt; Timestamp</t>
+  </si>
+  <si>
+    <t>Input Modalities &gt; Other</t>
   </si>
   <si>
     <t>Input Modalities &gt; Text</t>
   </si>
   <si>
-    <t>Input Modalities &gt; ONLY Image Data</t>
+    <t>Input Modalities &gt; Image</t>
   </si>
   <si>
     <t>Image Representation</t>
@@ -42,25 +48,25 @@
     <t>Image Representation &gt; Unsicher</t>
   </si>
   <si>
-    <t>Summarization_Design_Factors</t>
-  </si>
-  <si>
-    <t>Summarization_Design_Factors &gt; Aggregation</t>
-  </si>
-  <si>
-    <t>Summarization_Design_Factors &gt; Aggregation &gt; Hierachical Clustering</t>
-  </si>
-  <si>
-    <t>Summarization_Design_Factors &gt; Subsampling</t>
-  </si>
-  <si>
-    <t>Summarization_Design_Factors &gt; Filtering</t>
-  </si>
-  <si>
-    <t>Summarization_Design_Factors &gt; Projection</t>
-  </si>
-  <si>
-    <t>Summarization_Design_Factors &gt; unsicher</t>
+    <t>Image Representation &gt; None</t>
+  </si>
+  <si>
+    <t>Summarization</t>
+  </si>
+  <si>
+    <t>Summarization &gt; Aggregation</t>
+  </si>
+  <si>
+    <t>Summarization &gt; Subsampling</t>
+  </si>
+  <si>
+    <t>Summarization &gt; Filtering</t>
+  </si>
+  <si>
+    <t>Summarization &gt; Spatial Arrangement</t>
+  </si>
+  <si>
+    <t>Summarization &gt; unsicher</t>
   </si>
   <si>
     <t>Summarizing Entities</t>
@@ -75,58 +81,88 @@
     <t>Summarizing Entities &gt; Captions and Tags</t>
   </si>
   <si>
-    <t>Summarizing Entities &gt; None / Implicit</t>
-  </si>
-  <si>
     <t>Summarizing Entities &gt; Numerical statistics</t>
   </si>
   <si>
-    <t>Spatial Arrangement</t>
-  </si>
-  <si>
-    <t>Spatial Arrangement &gt; None / fixed</t>
-  </si>
-  <si>
-    <t>Spatial Arrangement &gt; Single Attribute</t>
-  </si>
-  <si>
-    <t>Spatial Arrangement &gt; Two Attributes</t>
-  </si>
-  <si>
-    <t>Spatial Arrangement &gt; More Attributes</t>
-  </si>
-  <si>
-    <t>Spatial Arrangement &gt; Geography</t>
-  </si>
-  <si>
-    <t>Spatial Arrangement &gt; Topology</t>
-  </si>
-  <si>
-    <t>Spatial Arrangement &gt; Unsicher</t>
-  </si>
-  <si>
-    <t>Set size</t>
-  </si>
-  <si>
-    <t>Set size &gt; not really mentioned</t>
-  </si>
-  <si>
-    <t>Set size &gt; Tens</t>
-  </si>
-  <si>
-    <t>Set size &gt; Hundreds</t>
-  </si>
-  <si>
-    <t>Set size &gt; Thousands</t>
-  </si>
-  <si>
-    <t>Set size &gt; Tens of Thousands</t>
-  </si>
-  <si>
-    <t>Set size &gt; Hundreds of Thousands</t>
-  </si>
-  <si>
-    <t>Set size &gt; Millions</t>
+    <t>Summarizing Entities &gt; Unsicher</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; None / fixed Visualization</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Single Attribute</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Two Attributes</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; More Attributes</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Distance</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Geography</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Topology</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Unsicher</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; not specified</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Tens</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Hundreds</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Tens of Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Hundreds of Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Millions or More</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; not specified</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Tens</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Hundreds</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Tens of Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Hundreds of Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Millions or More</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Unsicher</t>
   </si>
   <si>
     <t>Goal</t>
@@ -144,31 +180,37 @@
     <t>Goal &gt; Produce</t>
   </si>
   <si>
-    <t>Goal &gt; Nothing found</t>
-  </si>
-  <si>
-    <t>Interactions_Toward_a_Deeper_Understanding</t>
-  </si>
-  <si>
-    <t>Interactions_Toward_a_Deeper_Understanding &gt; Select</t>
-  </si>
-  <si>
-    <t>Interactions_Toward_a_Deeper_Understanding &gt; Navigate</t>
-  </si>
-  <si>
-    <t>Interactions_Toward_a_Deeper_Understanding &gt; Reconfigure</t>
-  </si>
-  <si>
-    <t>Interactions_Toward_a_Deeper_Understanding &gt; Encode</t>
-  </si>
-  <si>
-    <t>Interactions_Toward_a_Deeper_Understanding &gt; Show Details / Show Context</t>
-  </si>
-  <si>
-    <t>Interactions_Toward_a_Deeper_Understanding &gt; Filter</t>
-  </si>
-  <si>
-    <t>Interactions_Toward_a_Deeper_Understanding &gt; unsicher</t>
+    <t>Goal &gt; Not mentioned / unclear</t>
+  </si>
+  <si>
+    <t>Goal &gt; Unsicher</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Select</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Navigate</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Reconfigure</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Encode</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Show Details / Show Context</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Filter</t>
+  </si>
+  <si>
+    <t>Interactions &gt; unsicher</t>
+  </si>
+  <si>
+    <t>Interactions &gt; None</t>
   </si>
   <si>
     <t>Evaluation</t>
@@ -180,7 +222,7 @@
     <t>Evaluation &gt; None</t>
   </si>
   <si>
-    <t>Evaluation &gt; User Experience and Peformance</t>
+    <t>Evaluation &gt; User Experience and Performance</t>
   </si>
   <si>
     <t>Evaluation &gt; Qualitative Results Inspection (incl Usage Scenario / Use Case)</t>
@@ -192,64 +234,94 @@
     <t>SUM</t>
   </si>
   <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Barthel et al. - 2019 - Real-time visual navigation in huge imag</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Camargo and González - 2016 - Multimodal latent topic analysis f</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Camargo et al. - 2013 - A kernel-based framework for image colle</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Celikkale et al. - 2021 - Generating visual story graphs with ap</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Chavarro et al. - 2013 - Visualizing multimodal image collection</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Crissaff et al. - 2018 - ARIES Enabling visual exploration and o</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Kim and Ko - 2015 - Generating summaries for photographic images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard &gt; 20 Exploratory Richard &gt; Phueaksri et al. - 2023 - An Approach to Generate a Caption for </t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Phueaksri et al. - 2023 - Towards Captioning an Image Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard &gt; 20 Exploratory Richard &gt; Pogorelov et al. - 2017 - ClusterTag Interactive Visualization, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard &gt; 20 Exploratory Richard &gt; Radiano et al. - 2018 - Story Albums Creating Fictional Stories </t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Rudinac et al. - 2013 - Learning crowdsourced user preferences f</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Ryo and Cho - 2014 - A summarized photo visualization system wit</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Seah et al. - 2014 - PRISM Concept-preserving social image searc</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Van Der Corput and Van Wijk - 2017 - Comparing Personal Image Co</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Wang et al. - 2015 - Similarity-based visualization of large ima</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Wu et al. - 2023 - Image Collage on Arbitrary Shape via Shape-Aw</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Yu et al. - 2014 - A joint optimization model for image summariz</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Zahalka et al. - 2021 - II-20 Intelligent and pragmatic analytic</t>
-  </si>
-  <si>
-    <t>Richard &gt; 20 Exploratory Richard &gt; Zheng et al. - 2014 - Album Quickview in Comic-like Layout via Q</t>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Barthel and Hezel - 2017 - Graph navigation for exploring very l</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Barthel et al. - 2019 - Real-time visual navigation in huge imag</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Bäuerle et al. - 2023 - Semantic Hierarchical Exploration of Lar</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Bertucci et al. - 2023 - DendroMap Visual Exploration of Large-S</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Camargo and González - 2016 - Multimodal latent topic analysis f</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Camargo et al. - 2013 - A kernel-based framework for image colle</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Celikkale et al. - 2021 - Generating visual story graphs with ap</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Chavarro et al. - 2013 - Visualizing multimodal image collection</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Crissaff et al. - 2018 - ARIES Enabling visual exploration and o</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Fang et al. - 2018 - Narrative Collage of Image Collections by S</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Gu et al. - 2017 - Visualization and recommendation of large ima</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Han et al. - 2016 - Tree-Based Visualization and Optimization fo</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Kim and Ko - 2015 - Generating summaries for photographic images</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Pan et al. - 2021 - Content-Based Visual Summarization for Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only-Agreed-Upon &gt; 30 Tagged &gt; Phueaksri et al. - 2023 - An Approach to Generate a Caption for </t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Phueaksri et al. - 2023 - Towards Captioning an Image Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only-Agreed-Upon &gt; 30 Tagged &gt; Pogorelov et al. - 2017 - ClusterTag Interactive Visualization, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only-Agreed-Upon &gt; 30 Tagged &gt; Radiano et al. - 2018 - Story Albums Creating Fictional Stories </t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Rayar et al. - 2018 - A Viewable Indexing Structure for the Inte</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Rudinac et al. - 2013 - Learning crowdsourced user preferences f</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Ryo and Cho - 2014 - A summarized photo visualization system wit</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Samani and Moghaddam - 2017 - A knowledge-based semantic approac</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Seah et al. - 2014 - PRISM Concept-preserving social image searc</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Van Der Corput and Van Wijk - 2017 - Comparing Personal Image Co</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Wang et al. - 2015 - Similarity-based visualization of large ima</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Wu et al. - 2023 - Image Collage on Arbitrary Shape via Shape-Aw</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Xie et al. - 2019 - A Semantic-Based Method for Visualizing Larg</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Yu et al. - 2014 - A joint optimization model for image summariz</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Zahalka et al. - 2021 - II-20 Intelligent and pragmatic analytic</t>
+  </si>
+  <si>
+    <t>Only-Agreed-Upon &gt; 30 Tagged &gt; Zheng et al. - 2014 - Album Quickview in Comic-like Layout via Q</t>
   </si>
 </sst>
 </file>
@@ -432,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG22"/>
+  <dimension ref="A1:BU32"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
@@ -440,63 +512,77 @@
   <cols>
     <col min="1" max="1" width="51" customWidth="true"/>
     <col min="2" max="2" width="23" customWidth="true"/>
-    <col min="3" max="3" width="30" customWidth="true"/>
-    <col min="4" max="4" width="26" customWidth="true"/>
-    <col min="5" max="5" width="37" customWidth="true"/>
-    <col min="6" max="6" width="23" customWidth="true"/>
-    <col min="7" max="7" width="51" customWidth="true"/>
-    <col min="8" max="8" width="51" customWidth="true"/>
-    <col min="9" max="9" width="34" customWidth="true"/>
-    <col min="10" max="10" width="31" customWidth="true"/>
-    <col min="11" max="11" width="45" customWidth="true"/>
-    <col min="12" max="12" width="51" customWidth="true"/>
-    <col min="13" max="13" width="45" customWidth="true"/>
-    <col min="14" max="14" width="43" customWidth="true"/>
-    <col min="15" max="15" width="44" customWidth="true"/>
-    <col min="16" max="16" width="42" customWidth="true"/>
-    <col min="17" max="17" width="23" customWidth="true"/>
-    <col min="18" max="18" width="31" customWidth="true"/>
-    <col min="19" max="19" width="47" customWidth="true"/>
-    <col min="20" max="20" width="43" customWidth="true"/>
-    <col min="21" max="21" width="41" customWidth="true"/>
-    <col min="22" max="22" width="46" customWidth="true"/>
-    <col min="23" max="23" width="23" customWidth="true"/>
-    <col min="24" max="24" width="37" customWidth="true"/>
-    <col min="25" max="25" width="41" customWidth="true"/>
-    <col min="26" max="26" width="39" customWidth="true"/>
-    <col min="27" max="27" width="40" customWidth="true"/>
-    <col min="28" max="28" width="34" customWidth="true"/>
-    <col min="29" max="29" width="33" customWidth="true"/>
-    <col min="30" max="30" width="33" customWidth="true"/>
-    <col min="31" max="31" width="23" customWidth="true"/>
-    <col min="32" max="32" width="34" customWidth="true"/>
-    <col min="33" max="33" width="23" customWidth="true"/>
+    <col min="3" max="3" width="33" customWidth="true"/>
+    <col min="4" max="4" width="31" customWidth="true"/>
+    <col min="5" max="5" width="27" customWidth="true"/>
+    <col min="6" max="6" width="26" customWidth="true"/>
+    <col min="7" max="7" width="27" customWidth="true"/>
+    <col min="8" max="8" width="23" customWidth="true"/>
+    <col min="9" max="9" width="51" customWidth="true"/>
+    <col min="10" max="10" width="51" customWidth="true"/>
+    <col min="11" max="11" width="34" customWidth="true"/>
+    <col min="12" max="12" width="30" customWidth="true"/>
+    <col min="13" max="13" width="23" customWidth="true"/>
+    <col min="14" max="14" width="30" customWidth="true"/>
+    <col min="15" max="15" width="30" customWidth="true"/>
+    <col min="16" max="16" width="28" customWidth="true"/>
+    <col min="17" max="17" width="38" customWidth="true"/>
+    <col min="18" max="18" width="27" customWidth="true"/>
+    <col min="19" max="19" width="23" customWidth="true"/>
+    <col min="20" max="20" width="31" customWidth="true"/>
+    <col min="21" max="21" width="47" customWidth="true"/>
+    <col min="22" max="22" width="43" customWidth="true"/>
+    <col min="23" max="23" width="46" customWidth="true"/>
+    <col min="24" max="24" width="34" customWidth="true"/>
+    <col min="25" max="25" width="38" customWidth="true"/>
+    <col min="26" max="26" width="51" customWidth="true"/>
+    <col min="27" max="27" width="51" customWidth="true"/>
+    <col min="28" max="28" width="51" customWidth="true"/>
+    <col min="29" max="29" width="51" customWidth="true"/>
+    <col min="30" max="30" width="49" customWidth="true"/>
+    <col min="31" max="31" width="50" customWidth="true"/>
+    <col min="32" max="32" width="49" customWidth="true"/>
+    <col min="33" max="33" width="49" customWidth="true"/>
     <col min="34" max="34" width="23" customWidth="true"/>
-    <col min="35" max="35" width="23" customWidth="true"/>
-    <col min="36" max="36" width="31" customWidth="true"/>
-    <col min="37" max="37" width="35" customWidth="true"/>
-    <col min="38" max="38" width="23" customWidth="true"/>
-    <col min="39" max="39" width="8" customWidth="true"/>
-    <col min="40" max="40" width="23" customWidth="true"/>
-    <col min="41" max="41" width="23" customWidth="true"/>
+    <col min="35" max="35" width="37" customWidth="true"/>
+    <col min="36" max="36" width="28" customWidth="true"/>
+    <col min="37" max="37" width="32" customWidth="true"/>
+    <col min="38" max="38" width="33" customWidth="true"/>
+    <col min="39" max="39" width="41" customWidth="true"/>
+    <col min="40" max="40" width="45" customWidth="true"/>
+    <col min="41" max="41" width="40" customWidth="true"/>
     <col min="42" max="42" width="23" customWidth="true"/>
-    <col min="43" max="43" width="23" customWidth="true"/>
-    <col min="44" max="44" width="23" customWidth="true"/>
-    <col min="45" max="45" width="45" customWidth="true"/>
-    <col min="46" max="46" width="51" customWidth="true"/>
-    <col min="47" max="47" width="51" customWidth="true"/>
-    <col min="48" max="48" width="51" customWidth="true"/>
-    <col min="49" max="49" width="51" customWidth="true"/>
-    <col min="50" max="50" width="51" customWidth="true"/>
-    <col min="51" max="51" width="51" customWidth="true"/>
-    <col min="52" max="52" width="51" customWidth="true"/>
+    <col min="43" max="43" width="39" customWidth="true"/>
+    <col min="44" max="44" width="30" customWidth="true"/>
+    <col min="45" max="45" width="34" customWidth="true"/>
+    <col min="46" max="46" width="35" customWidth="true"/>
+    <col min="47" max="47" width="43" customWidth="true"/>
+    <col min="48" max="48" width="47" customWidth="true"/>
+    <col min="49" max="49" width="42" customWidth="true"/>
+    <col min="50" max="50" width="34" customWidth="true"/>
+    <col min="51" max="51" width="8" customWidth="true"/>
+    <col min="52" max="52" width="23" customWidth="true"/>
     <col min="53" max="53" width="23" customWidth="true"/>
-    <col min="54" max="54" width="39" customWidth="true"/>
+    <col min="54" max="54" width="23" customWidth="true"/>
     <col min="55" max="55" width="23" customWidth="true"/>
-    <col min="56" max="56" width="46" customWidth="true"/>
-    <col min="57" max="57" width="51" customWidth="true"/>
-    <col min="58" max="58" width="49" customWidth="true"/>
-    <col min="59" max="59" width="8" customWidth="true"/>
+    <col min="56" max="56" width="33" customWidth="true"/>
+    <col min="57" max="57" width="23" customWidth="true"/>
+    <col min="58" max="58" width="23" customWidth="true"/>
+    <col min="59" max="59" width="24" customWidth="true"/>
+    <col min="60" max="60" width="26" customWidth="true"/>
+    <col min="61" max="61" width="29" customWidth="true"/>
+    <col min="62" max="62" width="24" customWidth="true"/>
+    <col min="63" max="63" width="45" customWidth="true"/>
+    <col min="64" max="64" width="24" customWidth="true"/>
+    <col min="65" max="65" width="26" customWidth="true"/>
+    <col min="66" max="66" width="23" customWidth="true"/>
+    <col min="67" max="67" width="23" customWidth="true"/>
+    <col min="68" max="68" width="39" customWidth="true"/>
+    <col min="69" max="69" width="23" customWidth="true"/>
+    <col min="70" max="70" width="47" customWidth="true"/>
+    <col min="71" max="71" width="51" customWidth="true"/>
+    <col min="72" max="72" width="49" customWidth="true"/>
+    <col min="73" max="73" width="8" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -677,10 +763,52 @@
       <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -700,17 +828,17 @@
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
-        <v>1</v>
+      <c r="K2" s="3">
+        <v>0</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
@@ -721,14 +849,14 @@
       <c r="N2" s="4">
         <v>1</v>
       </c>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
       </c>
       <c r="R2" s="3">
         <v>0</v>
@@ -739,8 +867,8 @@
       <c r="T2" s="3">
         <v>0</v>
       </c>
-      <c r="U2" s="3">
-        <v>0</v>
+      <c r="U2" s="4">
+        <v>1</v>
       </c>
       <c r="V2" s="3">
         <v>0</v>
@@ -763,11 +891,11 @@
       <c r="AB2" s="3">
         <v>0</v>
       </c>
-      <c r="AC2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0</v>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>1</v>
       </c>
       <c r="AE2" s="3">
         <v>0</v>
@@ -790,17 +918,17 @@
       <c r="AK2" s="3">
         <v>0</v>
       </c>
-      <c r="AL2" s="4">
-        <v>1</v>
+      <c r="AL2" s="3">
+        <v>0</v>
       </c>
       <c r="AM2" s="3">
         <v>0</v>
       </c>
-      <c r="AN2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>0</v>
+      <c r="AN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>1</v>
       </c>
       <c r="AP2" s="3">
         <v>0</v>
@@ -817,23 +945,23 @@
       <c r="AT2" s="3">
         <v>0</v>
       </c>
-      <c r="AU2" s="4">
-        <v>1</v>
+      <c r="AU2" s="3">
+        <v>0</v>
       </c>
       <c r="AV2" s="3">
         <v>0</v>
       </c>
-      <c r="AW2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="4">
-        <v>1</v>
+      <c r="AW2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>0</v>
       </c>
       <c r="AY2" s="3">
         <v>0</v>
       </c>
-      <c r="AZ2" s="3">
-        <v>0</v>
+      <c r="AZ2" s="4">
+        <v>1</v>
       </c>
       <c r="BA2" s="3">
         <v>0</v>
@@ -841,8 +969,8 @@
       <c r="BB2" s="3">
         <v>0</v>
       </c>
-      <c r="BC2" s="4">
-        <v>1</v>
+      <c r="BC2" s="3">
+        <v>0</v>
       </c>
       <c r="BD2" s="3">
         <v>0</v>
@@ -853,13 +981,55 @@
       <c r="BF2" s="3">
         <v>0</v>
       </c>
-      <c r="BG2" s="5">
-        <v>11</v>
+      <c r="BG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -867,8 +1037,8 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
+      <c r="D3" s="3">
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -876,20 +1046,20 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -900,26 +1070,26 @@
       <c r="N3" s="4">
         <v>1</v>
       </c>
-      <c r="O3" s="4">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
       </c>
       <c r="R3" s="3">
         <v>0</v>
       </c>
-      <c r="S3" s="4">
-        <v>1</v>
+      <c r="S3" s="3">
+        <v>0</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
       </c>
-      <c r="U3" s="3">
-        <v>0</v>
+      <c r="U3" s="4">
+        <v>1</v>
       </c>
       <c r="V3" s="3">
         <v>0</v>
@@ -927,8 +1097,8 @@
       <c r="W3" s="3">
         <v>0</v>
       </c>
-      <c r="X3" s="4">
-        <v>1</v>
+      <c r="X3" s="3">
+        <v>0</v>
       </c>
       <c r="Y3" s="3">
         <v>0</v>
@@ -945,14 +1115,14 @@
       <c r="AC3" s="3">
         <v>0</v>
       </c>
-      <c r="AD3" s="3">
-        <v>0</v>
+      <c r="AD3" s="4">
+        <v>1</v>
       </c>
       <c r="AE3" s="3">
         <v>0</v>
       </c>
-      <c r="AF3" s="4">
-        <v>1</v>
+      <c r="AF3" s="3">
+        <v>0</v>
       </c>
       <c r="AG3" s="3">
         <v>0</v>
@@ -975,11 +1145,11 @@
       <c r="AM3" s="3">
         <v>0</v>
       </c>
-      <c r="AN3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>0</v>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>1</v>
       </c>
       <c r="AP3" s="3">
         <v>0</v>
@@ -1002,8 +1172,8 @@
       <c r="AV3" s="3">
         <v>0</v>
       </c>
-      <c r="AW3" s="3">
-        <v>0</v>
+      <c r="AW3" s="4">
+        <v>1</v>
       </c>
       <c r="AX3" s="3">
         <v>0</v>
@@ -1011,14 +1181,14 @@
       <c r="AY3" s="3">
         <v>0</v>
       </c>
-      <c r="AZ3" s="3">
-        <v>0</v>
+      <c r="AZ3" s="4">
+        <v>1</v>
       </c>
       <c r="BA3" s="3">
         <v>0</v>
       </c>
-      <c r="BB3" s="4">
-        <v>1</v>
+      <c r="BB3" s="3">
+        <v>0</v>
       </c>
       <c r="BC3" s="3">
         <v>0</v>
@@ -1032,13 +1202,55 @@
       <c r="BF3" s="3">
         <v>0</v>
       </c>
-      <c r="BG3" s="5">
-        <v>10</v>
+      <c r="BG3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1046,29 +1258,29 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
-        <v>1</v>
+      <c r="K4" s="3">
+        <v>0</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -1076,35 +1288,35 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
       </c>
       <c r="R4" s="3">
         <v>0</v>
       </c>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
       </c>
-      <c r="W4" s="3">
-        <v>0</v>
+      <c r="W4" s="4">
+        <v>1</v>
       </c>
       <c r="X4" s="3">
         <v>0</v>
@@ -1115,17 +1327,17 @@
       <c r="Z4" s="3">
         <v>0</v>
       </c>
-      <c r="AA4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>0</v>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>1</v>
       </c>
       <c r="AC4" s="3">
         <v>0</v>
       </c>
-      <c r="AD4" s="3">
-        <v>0</v>
+      <c r="AD4" s="4">
+        <v>1</v>
       </c>
       <c r="AE4" s="3">
         <v>0</v>
@@ -1154,11 +1366,11 @@
       <c r="AM4" s="3">
         <v>0</v>
       </c>
-      <c r="AN4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>0</v>
+      <c r="AN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>1</v>
       </c>
       <c r="AP4" s="3">
         <v>0</v>
@@ -1172,38 +1384,38 @@
       <c r="AS4" s="3">
         <v>0</v>
       </c>
-      <c r="AT4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>1</v>
+      <c r="AT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0</v>
       </c>
       <c r="AV4" s="3">
         <v>0</v>
       </c>
-      <c r="AW4" s="3">
-        <v>0</v>
+      <c r="AW4" s="4">
+        <v>1</v>
       </c>
       <c r="AX4" s="3">
         <v>0</v>
       </c>
-      <c r="AY4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="4">
-        <v>1</v>
+      <c r="AY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0</v>
       </c>
       <c r="BC4" s="3">
         <v>0</v>
       </c>
-      <c r="BD4" s="4">
-        <v>1</v>
+      <c r="BD4" s="3">
+        <v>0</v>
       </c>
       <c r="BE4" s="3">
         <v>0</v>
@@ -1211,28 +1423,70 @@
       <c r="BF4" s="3">
         <v>0</v>
       </c>
-      <c r="BG4" s="5">
-        <v>12</v>
+      <c r="BG4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1240,14 +1494,14 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
+      <c r="I5" s="4">
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
+      <c r="K5" s="3">
+        <v>0</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -1258,11 +1512,11 @@
       <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1</v>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
@@ -1273,23 +1527,23 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
       </c>
       <c r="V5" s="3">
         <v>0</v>
       </c>
-      <c r="W5" s="3">
-        <v>0</v>
+      <c r="W5" s="4">
+        <v>1</v>
       </c>
       <c r="X5" s="3">
         <v>0</v>
       </c>
-      <c r="Y5" s="4">
-        <v>1</v>
+      <c r="Y5" s="3">
+        <v>0</v>
       </c>
       <c r="Z5" s="3">
         <v>0</v>
@@ -1297,20 +1551,20 @@
       <c r="AA5" s="3">
         <v>0</v>
       </c>
-      <c r="AB5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>1</v>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
       </c>
       <c r="AD5" s="3">
         <v>0</v>
       </c>
-      <c r="AE5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0</v>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>1</v>
       </c>
       <c r="AG5" s="3">
         <v>0</v>
@@ -1330,8 +1584,8 @@
       <c r="AL5" s="3">
         <v>0</v>
       </c>
-      <c r="AM5" s="3">
-        <v>0</v>
+      <c r="AM5" s="4">
+        <v>1</v>
       </c>
       <c r="AN5" s="3">
         <v>0</v>
@@ -1339,8 +1593,8 @@
       <c r="AO5" s="3">
         <v>0</v>
       </c>
-      <c r="AP5" s="4">
-        <v>1</v>
+      <c r="AP5" s="3">
+        <v>0</v>
       </c>
       <c r="AQ5" s="3">
         <v>0</v>
@@ -1354,8 +1608,8 @@
       <c r="AT5" s="3">
         <v>0</v>
       </c>
-      <c r="AU5" s="3">
-        <v>0</v>
+      <c r="AU5" s="4">
+        <v>1</v>
       </c>
       <c r="AV5" s="3">
         <v>0</v>
@@ -1369,11 +1623,11 @@
       <c r="AY5" s="3">
         <v>0</v>
       </c>
-      <c r="AZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>0</v>
+      <c r="AZ5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="4">
+        <v>1</v>
       </c>
       <c r="BB5" s="3">
         <v>0</v>
@@ -1381,8 +1635,8 @@
       <c r="BC5" s="3">
         <v>0</v>
       </c>
-      <c r="BD5" s="4">
-        <v>1</v>
+      <c r="BD5" s="3">
+        <v>0</v>
       </c>
       <c r="BE5" s="3">
         <v>0</v>
@@ -1390,13 +1644,55 @@
       <c r="BF5" s="3">
         <v>0</v>
       </c>
-      <c r="BG5" s="5">
-        <v>12</v>
+      <c r="BG5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1404,17 +1700,17 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
+      <c r="D6" s="3">
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1422,11 +1718,11 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -1437,11 +1733,11 @@
       <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
@@ -1449,23 +1745,23 @@
       <c r="R6" s="3">
         <v>0</v>
       </c>
-      <c r="S6" s="4">
-        <v>1</v>
+      <c r="S6" s="3">
+        <v>0</v>
       </c>
       <c r="T6" s="3">
         <v>0</v>
       </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
       </c>
       <c r="W6" s="3">
         <v>0</v>
       </c>
-      <c r="X6" s="4">
-        <v>1</v>
+      <c r="X6" s="3">
+        <v>0</v>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
@@ -1473,14 +1769,14 @@
       <c r="Z6" s="3">
         <v>0</v>
       </c>
-      <c r="AA6" s="3">
-        <v>0</v>
+      <c r="AA6" s="4">
+        <v>1</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
       </c>
-      <c r="AC6" s="4">
-        <v>1</v>
+      <c r="AC6" s="3">
+        <v>0</v>
       </c>
       <c r="AD6" s="3">
         <v>0</v>
@@ -1506,14 +1802,14 @@
       <c r="AK6" s="3">
         <v>0</v>
       </c>
-      <c r="AL6" s="3">
-        <v>0</v>
+      <c r="AL6" s="4">
+        <v>1</v>
       </c>
       <c r="AM6" s="3">
         <v>0</v>
       </c>
-      <c r="AN6" s="4">
-        <v>1</v>
+      <c r="AN6" s="3">
+        <v>0</v>
       </c>
       <c r="AO6" s="3">
         <v>0</v>
@@ -1542,20 +1838,20 @@
       <c r="AW6" s="3">
         <v>0</v>
       </c>
-      <c r="AX6" s="4">
-        <v>1</v>
+      <c r="AX6" s="3">
+        <v>0</v>
       </c>
       <c r="AY6" s="3">
         <v>0</v>
       </c>
-      <c r="AZ6" s="4">
-        <v>1</v>
+      <c r="AZ6" s="3">
+        <v>0</v>
       </c>
       <c r="BA6" s="3">
         <v>0</v>
       </c>
-      <c r="BB6" s="3">
-        <v>0</v>
+      <c r="BB6" s="4">
+        <v>1</v>
       </c>
       <c r="BC6" s="3">
         <v>0</v>
@@ -1569,19 +1865,61 @@
       <c r="BF6" s="3">
         <v>0</v>
       </c>
-      <c r="BG6" s="5">
-        <v>11</v>
+      <c r="BG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
+      <c r="C7" s="3">
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1589,11 +1927,11 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -1601,11 +1939,11 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1</v>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -1613,17 +1951,17 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
+      <c r="N7" s="4">
+        <v>1</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
       </c>
       <c r="R7" s="3">
         <v>0</v>
@@ -1634,8 +1972,8 @@
       <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="3">
-        <v>0</v>
+      <c r="U7" s="4">
+        <v>1</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -1643,11 +1981,11 @@
       <c r="W7" s="3">
         <v>0</v>
       </c>
-      <c r="X7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>1</v>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
       </c>
       <c r="Z7" s="3">
         <v>0</v>
@@ -1655,14 +1993,14 @@
       <c r="AA7" s="3">
         <v>0</v>
       </c>
-      <c r="AB7" s="4">
-        <v>1</v>
+      <c r="AB7" s="3">
+        <v>0</v>
       </c>
       <c r="AC7" s="3">
         <v>0</v>
       </c>
-      <c r="AD7" s="3">
-        <v>0</v>
+      <c r="AD7" s="4">
+        <v>1</v>
       </c>
       <c r="AE7" s="3">
         <v>0</v>
@@ -1685,14 +2023,14 @@
       <c r="AK7" s="3">
         <v>0</v>
       </c>
-      <c r="AL7" s="3">
-        <v>0</v>
+      <c r="AL7" s="4">
+        <v>1</v>
       </c>
       <c r="AM7" s="3">
         <v>0</v>
       </c>
-      <c r="AN7" s="4">
-        <v>1</v>
+      <c r="AN7" s="3">
+        <v>0</v>
       </c>
       <c r="AO7" s="3">
         <v>0</v>
@@ -1700,8 +2038,8 @@
       <c r="AP7" s="3">
         <v>0</v>
       </c>
-      <c r="AQ7" s="4">
-        <v>1</v>
+      <c r="AQ7" s="3">
+        <v>0</v>
       </c>
       <c r="AR7" s="3">
         <v>0</v>
@@ -1715,20 +2053,20 @@
       <c r="AU7" s="3">
         <v>0</v>
       </c>
-      <c r="AV7" s="4">
-        <v>1</v>
+      <c r="AV7" s="3">
+        <v>0</v>
       </c>
       <c r="AW7" s="3">
         <v>0</v>
       </c>
-      <c r="AX7" s="4">
-        <v>1</v>
+      <c r="AX7" s="3">
+        <v>0</v>
       </c>
       <c r="AY7" s="3">
         <v>0</v>
       </c>
-      <c r="AZ7" s="3">
-        <v>0</v>
+      <c r="AZ7" s="4">
+        <v>1</v>
       </c>
       <c r="BA7" s="3">
         <v>0</v>
@@ -1748,43 +2086,85 @@
       <c r="BF7" s="3">
         <v>0</v>
       </c>
-      <c r="BG7" s="5">
-        <v>10</v>
+      <c r="BG7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="4">
+        <v>1</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="4">
-        <v>1</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1807,14 +2187,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="4">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -1822,8 +2202,8 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="4">
-        <v>1</v>
+      <c r="X8" s="3">
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -1834,8 +2214,8 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
+      <c r="AB8" s="4">
+        <v>1</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -1843,8 +2223,8 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-      <c r="AE8" s="3">
-        <v>0</v>
+      <c r="AE8" s="4">
+        <v>1</v>
       </c>
       <c r="AF8" s="3">
         <v>0</v>
@@ -1867,8 +2247,8 @@
       <c r="AL8" s="3">
         <v>0</v>
       </c>
-      <c r="AM8" s="3">
-        <v>0</v>
+      <c r="AM8" s="4">
+        <v>1</v>
       </c>
       <c r="AN8" s="3">
         <v>0</v>
@@ -1882,11 +2262,11 @@
       <c r="AQ8" s="3">
         <v>0</v>
       </c>
-      <c r="AR8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>0</v>
+      <c r="AR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>1</v>
       </c>
       <c r="AT8" s="3">
         <v>0</v>
@@ -1912,14 +2292,14 @@
       <c r="BA8" s="3">
         <v>0</v>
       </c>
-      <c r="BB8" s="3">
-        <v>0</v>
+      <c r="BB8" s="4">
+        <v>1</v>
       </c>
       <c r="BC8" s="3">
         <v>0</v>
       </c>
-      <c r="BD8" s="4">
-        <v>1</v>
+      <c r="BD8" s="3">
+        <v>0</v>
       </c>
       <c r="BE8" s="3">
         <v>0</v>
@@ -1927,13 +2307,55 @@
       <c r="BF8" s="3">
         <v>0</v>
       </c>
-      <c r="BG8" s="5">
-        <v>7</v>
+      <c r="BG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="5">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1947,8 +2369,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="4">
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -1956,14 +2378,14 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -1971,14 +2393,14 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="4">
+        <v>1</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="4">
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -1989,26 +2411,26 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="4">
-        <v>1</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="4">
-        <v>1</v>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
+      <c r="Z9" s="4">
+        <v>1</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
@@ -2025,11 +2447,11 @@
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-      <c r="AF9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>1</v>
+      <c r="AF9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0</v>
       </c>
       <c r="AH9" s="3">
         <v>0</v>
@@ -2043,8 +2465,8 @@
       <c r="AK9" s="3">
         <v>0</v>
       </c>
-      <c r="AL9" s="3">
-        <v>0</v>
+      <c r="AL9" s="4">
+        <v>1</v>
       </c>
       <c r="AM9" s="3">
         <v>0</v>
@@ -2061,14 +2483,14 @@
       <c r="AQ9" s="3">
         <v>0</v>
       </c>
-      <c r="AR9" s="4">
-        <v>1</v>
+      <c r="AR9" s="3">
+        <v>0</v>
       </c>
       <c r="AS9" s="3">
         <v>0</v>
       </c>
-      <c r="AT9" s="3">
-        <v>0</v>
+      <c r="AT9" s="4">
+        <v>1</v>
       </c>
       <c r="AU9" s="3">
         <v>0</v>
@@ -2085,8 +2507,8 @@
       <c r="AY9" s="3">
         <v>0</v>
       </c>
-      <c r="AZ9" s="3">
-        <v>0</v>
+      <c r="AZ9" s="4">
+        <v>1</v>
       </c>
       <c r="BA9" s="3">
         <v>0</v>
@@ -2106,28 +2528,70 @@
       <c r="BF9" s="3">
         <v>0</v>
       </c>
-      <c r="BG9" s="5">
-        <v>7</v>
+      <c r="BG9" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -2141,23 +2605,23 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="4">
+        <v>1</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="4">
+        <v>1</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -2168,11 +2632,11 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -2180,8 +2644,8 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="4">
-        <v>1</v>
+      <c r="X10" s="3">
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
@@ -2189,11 +2653,11 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
+      <c r="AA10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>1</v>
       </c>
       <c r="AC10" s="3">
         <v>0</v>
@@ -2201,8 +2665,8 @@
       <c r="AD10" s="3">
         <v>0</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
+      <c r="AE10" s="4">
+        <v>1</v>
       </c>
       <c r="AF10" s="3">
         <v>0</v>
@@ -2213,8 +2677,8 @@
       <c r="AH10" s="3">
         <v>0</v>
       </c>
-      <c r="AI10" s="3">
-        <v>0</v>
+      <c r="AI10" s="4">
+        <v>1</v>
       </c>
       <c r="AJ10" s="3">
         <v>0</v>
@@ -2237,11 +2701,11 @@
       <c r="AP10" s="3">
         <v>0</v>
       </c>
-      <c r="AQ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="4">
-        <v>1</v>
+      <c r="AQ10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>0</v>
       </c>
       <c r="AS10" s="3">
         <v>0</v>
@@ -2264,17 +2728,17 @@
       <c r="AY10" s="3">
         <v>0</v>
       </c>
-      <c r="AZ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="3">
-        <v>0</v>
+      <c r="AZ10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>1</v>
       </c>
       <c r="BB10" s="3">
         <v>0</v>
       </c>
-      <c r="BC10" s="3">
-        <v>0</v>
+      <c r="BC10" s="4">
+        <v>1</v>
       </c>
       <c r="BD10" s="3">
         <v>0</v>
@@ -2285,22 +2749,64 @@
       <c r="BF10" s="3">
         <v>0</v>
       </c>
-      <c r="BG10" s="5">
-        <v>4</v>
+      <c r="BG10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -2308,20 +2814,20 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1</v>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -2329,8 +2835,8 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
+      <c r="N11" s="4">
+        <v>1</v>
       </c>
       <c r="O11" s="3">
         <v>0</v>
@@ -2344,14 +2850,14 @@
       <c r="R11" s="3">
         <v>0</v>
       </c>
-      <c r="S11" s="4">
-        <v>1</v>
+      <c r="S11" s="3">
+        <v>0</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="U11" s="3">
-        <v>0</v>
+      <c r="U11" s="4">
+        <v>1</v>
       </c>
       <c r="V11" s="3">
         <v>0</v>
@@ -2398,8 +2904,8 @@
       <c r="AJ11" s="3">
         <v>0</v>
       </c>
-      <c r="AK11" s="3">
-        <v>0</v>
+      <c r="AK11" s="4">
+        <v>1</v>
       </c>
       <c r="AL11" s="3">
         <v>0</v>
@@ -2407,8 +2913,8 @@
       <c r="AM11" s="3">
         <v>0</v>
       </c>
-      <c r="AN11" s="4">
-        <v>1</v>
+      <c r="AN11" s="3">
+        <v>0</v>
       </c>
       <c r="AO11" s="3">
         <v>0</v>
@@ -2416,29 +2922,29 @@
       <c r="AP11" s="3">
         <v>0</v>
       </c>
-      <c r="AQ11" s="4">
-        <v>1</v>
+      <c r="AQ11" s="3">
+        <v>0</v>
       </c>
       <c r="AR11" s="3">
         <v>0</v>
       </c>
-      <c r="AS11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="4">
-        <v>1</v>
+      <c r="AS11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>0</v>
       </c>
       <c r="AY11" s="3">
         <v>0</v>
@@ -2449,11 +2955,11 @@
       <c r="BA11" s="3">
         <v>0</v>
       </c>
-      <c r="BB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="4">
-        <v>1</v>
+      <c r="BB11" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>0</v>
       </c>
       <c r="BD11" s="3">
         <v>0</v>
@@ -2464,13 +2970,55 @@
       <c r="BF11" s="3">
         <v>0</v>
       </c>
-      <c r="BG11" s="5">
-        <v>13</v>
+      <c r="BG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -2478,17 +3026,17 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="4">
+        <v>1</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -2496,11 +3044,11 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -2514,26 +3062,26 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="4">
-        <v>1</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -2562,8 +3110,8 @@
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-      <c r="AF12" s="3">
-        <v>0</v>
+      <c r="AF12" s="4">
+        <v>1</v>
       </c>
       <c r="AG12" s="3">
         <v>0</v>
@@ -2583,8 +3131,8 @@
       <c r="AL12" s="3">
         <v>0</v>
       </c>
-      <c r="AM12" s="3">
-        <v>0</v>
+      <c r="AM12" s="4">
+        <v>1</v>
       </c>
       <c r="AN12" s="3">
         <v>0</v>
@@ -2592,8 +3140,8 @@
       <c r="AO12" s="3">
         <v>0</v>
       </c>
-      <c r="AP12" s="4">
-        <v>1</v>
+      <c r="AP12" s="3">
+        <v>0</v>
       </c>
       <c r="AQ12" s="3">
         <v>0</v>
@@ -2607,8 +3155,8 @@
       <c r="AT12" s="3">
         <v>0</v>
       </c>
-      <c r="AU12" s="3">
-        <v>0</v>
+      <c r="AU12" s="4">
+        <v>1</v>
       </c>
       <c r="AV12" s="3">
         <v>0</v>
@@ -2622,11 +3170,11 @@
       <c r="AY12" s="3">
         <v>0</v>
       </c>
-      <c r="AZ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>0</v>
+      <c r="AZ12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="4">
+        <v>1</v>
       </c>
       <c r="BB12" s="3">
         <v>0</v>
@@ -2634,8 +3182,8 @@
       <c r="BC12" s="3">
         <v>0</v>
       </c>
-      <c r="BD12" s="4">
-        <v>1</v>
+      <c r="BD12" s="3">
+        <v>0</v>
       </c>
       <c r="BE12" s="3">
         <v>0</v>
@@ -2643,43 +3191,85 @@
       <c r="BF12" s="3">
         <v>0</v>
       </c>
-      <c r="BG12" s="5">
-        <v>6</v>
+      <c r="BG12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>1</v>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -2687,29 +3277,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
+      <c r="N13" s="4">
+        <v>1</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
       </c>
       <c r="R13" s="3">
         <v>0</v>
       </c>
-      <c r="S13" s="4">
-        <v>1</v>
+      <c r="S13" s="3">
+        <v>0</v>
       </c>
       <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="U13" s="3">
-        <v>0</v>
+      <c r="U13" s="4">
+        <v>1</v>
       </c>
       <c r="V13" s="3">
         <v>0</v>
@@ -2717,11 +3307,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-      <c r="X13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>1</v>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
       </c>
       <c r="Z13" s="3">
         <v>0</v>
@@ -2741,8 +3331,8 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-      <c r="AF13" s="3">
-        <v>0</v>
+      <c r="AF13" s="4">
+        <v>1</v>
       </c>
       <c r="AG13" s="3">
         <v>0</v>
@@ -2753,8 +3343,8 @@
       <c r="AI13" s="3">
         <v>0</v>
       </c>
-      <c r="AJ13" s="3">
-        <v>0</v>
+      <c r="AJ13" s="4">
+        <v>1</v>
       </c>
       <c r="AK13" s="3">
         <v>0</v>
@@ -2804,11 +3394,11 @@
       <c r="AZ13" s="3">
         <v>0</v>
       </c>
-      <c r="BA13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BB13" s="3">
-        <v>0</v>
+      <c r="BA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="4">
+        <v>1</v>
       </c>
       <c r="BC13" s="3">
         <v>0</v>
@@ -2822,19 +3412,61 @@
       <c r="BF13" s="3">
         <v>0</v>
       </c>
-      <c r="BG13" s="5">
-        <v>11</v>
+      <c r="BG13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
+      <c r="C14" s="3">
+        <v>0</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -2845,20 +3477,20 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1</v>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -2872,8 +3504,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="4">
+        <v>1</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -2887,8 +3519,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="4">
+        <v>1</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -2896,14 +3528,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>1</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -2911,8 +3543,8 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="4">
-        <v>1</v>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
@@ -2935,8 +3567,8 @@
       <c r="AJ14" s="3">
         <v>0</v>
       </c>
-      <c r="AK14" s="3">
-        <v>0</v>
+      <c r="AK14" s="4">
+        <v>1</v>
       </c>
       <c r="AL14" s="3">
         <v>0</v>
@@ -2944,14 +3576,14 @@
       <c r="AM14" s="3">
         <v>0</v>
       </c>
-      <c r="AN14" s="4">
-        <v>1</v>
+      <c r="AN14" s="3">
+        <v>0</v>
       </c>
       <c r="AO14" s="3">
         <v>0</v>
       </c>
-      <c r="AP14" s="4">
-        <v>1</v>
+      <c r="AP14" s="3">
+        <v>0</v>
       </c>
       <c r="AQ14" s="3">
         <v>0</v>
@@ -2959,8 +3591,8 @@
       <c r="AR14" s="3">
         <v>0</v>
       </c>
-      <c r="AS14" s="3">
-        <v>0</v>
+      <c r="AS14" s="4">
+        <v>1</v>
       </c>
       <c r="AT14" s="3">
         <v>0</v>
@@ -2977,14 +3609,14 @@
       <c r="AX14" s="3">
         <v>0</v>
       </c>
-      <c r="AY14" s="4">
-        <v>1</v>
+      <c r="AY14" s="3">
+        <v>0</v>
       </c>
       <c r="AZ14" s="3">
         <v>0</v>
       </c>
-      <c r="BA14" s="4">
-        <v>1</v>
+      <c r="BA14" s="3">
+        <v>0</v>
       </c>
       <c r="BB14" s="4">
         <v>1</v>
@@ -3001,13 +3633,55 @@
       <c r="BF14" s="3">
         <v>0</v>
       </c>
-      <c r="BG14" s="5">
-        <v>12</v>
+      <c r="BG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -3015,8 +3689,8 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -3024,20 +3698,20 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1</v>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -3051,8 +3725,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="4">
+        <v>1</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -3060,14 +3734,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="4">
-        <v>1</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="4">
+        <v>1</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -3075,8 +3749,8 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="4">
-        <v>1</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -3093,14 +3767,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-      <c r="AD15" s="3">
-        <v>0</v>
+      <c r="AD15" s="4">
+        <v>1</v>
       </c>
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-      <c r="AF15" s="3">
-        <v>0</v>
+      <c r="AF15" s="4">
+        <v>1</v>
       </c>
       <c r="AG15" s="3">
         <v>0</v>
@@ -3108,14 +3782,14 @@
       <c r="AH15" s="3">
         <v>0</v>
       </c>
-      <c r="AI15" s="4">
-        <v>1</v>
+      <c r="AI15" s="3">
+        <v>0</v>
       </c>
       <c r="AJ15" s="3">
         <v>0</v>
       </c>
-      <c r="AK15" s="3">
-        <v>0</v>
+      <c r="AK15" s="4">
+        <v>1</v>
       </c>
       <c r="AL15" s="3">
         <v>0</v>
@@ -3123,8 +3797,8 @@
       <c r="AM15" s="3">
         <v>0</v>
       </c>
-      <c r="AN15" s="4">
-        <v>1</v>
+      <c r="AN15" s="3">
+        <v>0</v>
       </c>
       <c r="AO15" s="3">
         <v>0</v>
@@ -3138,8 +3812,8 @@
       <c r="AR15" s="3">
         <v>0</v>
       </c>
-      <c r="AS15" s="3">
-        <v>0</v>
+      <c r="AS15" s="4">
+        <v>1</v>
       </c>
       <c r="AT15" s="3">
         <v>0</v>
@@ -3159,8 +3833,8 @@
       <c r="AY15" s="3">
         <v>0</v>
       </c>
-      <c r="AZ15" s="4">
-        <v>1</v>
+      <c r="AZ15" s="3">
+        <v>0</v>
       </c>
       <c r="BA15" s="3">
         <v>0</v>
@@ -3171,8 +3845,8 @@
       <c r="BC15" s="3">
         <v>0</v>
       </c>
-      <c r="BD15" s="4">
-        <v>1</v>
+      <c r="BD15" s="3">
+        <v>0</v>
       </c>
       <c r="BE15" s="3">
         <v>0</v>
@@ -3180,22 +3854,64 @@
       <c r="BF15" s="3">
         <v>0</v>
       </c>
-      <c r="BG15" s="5">
-        <v>11</v>
+      <c r="BG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="5">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -3209,14 +3925,14 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
+      <c r="I16" s="4">
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16" s="4">
-        <v>1</v>
+      <c r="K16" s="3">
+        <v>0</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -3236,11 +3952,11 @@
       <c r="Q16" s="3">
         <v>0</v>
       </c>
-      <c r="R16" s="4">
-        <v>1</v>
-      </c>
-      <c r="S16" s="4">
-        <v>1</v>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
@@ -3248,14 +3964,14 @@
       <c r="U16" s="3">
         <v>0</v>
       </c>
-      <c r="V16" s="3">
-        <v>0</v>
+      <c r="V16" s="4">
+        <v>1</v>
       </c>
       <c r="W16" s="3">
         <v>0</v>
       </c>
-      <c r="X16" s="4">
-        <v>1</v>
+      <c r="X16" s="3">
+        <v>0</v>
       </c>
       <c r="Y16" s="3">
         <v>0</v>
@@ -3290,8 +4006,8 @@
       <c r="AI16" s="3">
         <v>0</v>
       </c>
-      <c r="AJ16" s="3">
-        <v>0</v>
+      <c r="AJ16" s="4">
+        <v>1</v>
       </c>
       <c r="AK16" s="3">
         <v>0</v>
@@ -3302,11 +4018,11 @@
       <c r="AM16" s="3">
         <v>0</v>
       </c>
-      <c r="AN16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="4">
-        <v>1</v>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0</v>
       </c>
       <c r="AP16" s="3">
         <v>0</v>
@@ -3314,14 +4030,14 @@
       <c r="AQ16" s="3">
         <v>0</v>
       </c>
-      <c r="AR16" s="3">
-        <v>0</v>
+      <c r="AR16" s="4">
+        <v>1</v>
       </c>
       <c r="AS16" s="3">
         <v>0</v>
       </c>
-      <c r="AT16" s="4">
-        <v>1</v>
+      <c r="AT16" s="3">
+        <v>0</v>
       </c>
       <c r="AU16" s="3">
         <v>0</v>
@@ -3335,8 +4051,8 @@
       <c r="AX16" s="3">
         <v>0</v>
       </c>
-      <c r="AY16" s="4">
-        <v>1</v>
+      <c r="AY16" s="3">
+        <v>0</v>
       </c>
       <c r="AZ16" s="3">
         <v>0</v>
@@ -3344,8 +4060,8 @@
       <c r="BA16" s="3">
         <v>0</v>
       </c>
-      <c r="BB16" s="3">
-        <v>0</v>
+      <c r="BB16" s="4">
+        <v>1</v>
       </c>
       <c r="BC16" s="3">
         <v>0</v>
@@ -3359,13 +4075,55 @@
       <c r="BF16" s="3">
         <v>0</v>
       </c>
-      <c r="BG16" s="5">
-        <v>13</v>
+      <c r="BG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -3373,8 +4131,8 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -3382,14 +4140,14 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -3397,20 +4155,20 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="4">
-        <v>1</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
+      <c r="N17" s="4">
+        <v>1</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="4">
-        <v>1</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -3418,8 +4176,8 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-      <c r="S17" s="4">
-        <v>1</v>
+      <c r="S17" s="3">
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -3427,8 +4185,8 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
+      <c r="V17" s="4">
+        <v>1</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
@@ -3436,11 +4194,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-      <c r="Y17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>1</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
@@ -3448,8 +4206,8 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-      <c r="AC17" s="4">
-        <v>1</v>
+      <c r="AC17" s="3">
+        <v>0</v>
       </c>
       <c r="AD17" s="3">
         <v>0</v>
@@ -3469,8 +4227,8 @@
       <c r="AI17" s="3">
         <v>0</v>
       </c>
-      <c r="AJ17" s="3">
-        <v>0</v>
+      <c r="AJ17" s="4">
+        <v>1</v>
       </c>
       <c r="AK17" s="3">
         <v>0</v>
@@ -3481,8 +4239,8 @@
       <c r="AM17" s="3">
         <v>0</v>
       </c>
-      <c r="AN17" s="4">
-        <v>1</v>
+      <c r="AN17" s="3">
+        <v>0</v>
       </c>
       <c r="AO17" s="3">
         <v>0</v>
@@ -3493,14 +4251,14 @@
       <c r="AQ17" s="3">
         <v>0</v>
       </c>
-      <c r="AR17" s="3">
-        <v>0</v>
+      <c r="AR17" s="4">
+        <v>1</v>
       </c>
       <c r="AS17" s="3">
         <v>0</v>
       </c>
-      <c r="AT17" s="4">
-        <v>1</v>
+      <c r="AT17" s="3">
+        <v>0</v>
       </c>
       <c r="AU17" s="3">
         <v>0</v>
@@ -3511,26 +4269,26 @@
       <c r="AW17" s="3">
         <v>0</v>
       </c>
-      <c r="AX17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="4">
-        <v>1</v>
+      <c r="AX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>0</v>
       </c>
       <c r="BA17" s="3">
         <v>0</v>
       </c>
-      <c r="BB17" s="3">
-        <v>0</v>
+      <c r="BB17" s="4">
+        <v>1</v>
       </c>
       <c r="BC17" s="3">
         <v>0</v>
       </c>
-      <c r="BD17" s="4">
-        <v>1</v>
+      <c r="BD17" s="3">
+        <v>0</v>
       </c>
       <c r="BE17" s="3">
         <v>0</v>
@@ -3538,13 +4296,55 @@
       <c r="BF17" s="3">
         <v>0</v>
       </c>
-      <c r="BG17" s="5">
-        <v>13</v>
+      <c r="BG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -3555,14 +4355,14 @@
       <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
+      <c r="E18" s="4">
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="G18" s="4">
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -3570,8 +4370,8 @@
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
+      <c r="J18" s="4">
+        <v>1</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -3582,8 +4382,8 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="4">
+        <v>1</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -3603,8 +4403,8 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
+      <c r="U18" s="4">
+        <v>1</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -3636,11 +4436,11 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-      <c r="AF18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>1</v>
+      <c r="AF18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0</v>
       </c>
       <c r="AH18" s="3">
         <v>0</v>
@@ -3657,8 +4457,8 @@
       <c r="AL18" s="3">
         <v>0</v>
       </c>
-      <c r="AM18" s="3">
-        <v>0</v>
+      <c r="AM18" s="4">
+        <v>1</v>
       </c>
       <c r="AN18" s="3">
         <v>0</v>
@@ -3666,8 +4466,8 @@
       <c r="AO18" s="3">
         <v>0</v>
       </c>
-      <c r="AP18" s="4">
-        <v>1</v>
+      <c r="AP18" s="3">
+        <v>0</v>
       </c>
       <c r="AQ18" s="3">
         <v>0</v>
@@ -3681,8 +4481,8 @@
       <c r="AT18" s="3">
         <v>0</v>
       </c>
-      <c r="AU18" s="3">
-        <v>0</v>
+      <c r="AU18" s="4">
+        <v>1</v>
       </c>
       <c r="AV18" s="3">
         <v>0</v>
@@ -3702,55 +4502,97 @@
       <c r="BA18" s="3">
         <v>0</v>
       </c>
-      <c r="BB18" s="4">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="4">
-        <v>1</v>
+      <c r="BB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="3">
+        <v>0</v>
       </c>
       <c r="BF18" s="3">
         <v>0</v>
       </c>
-      <c r="BG18" s="5">
-        <v>7</v>
+      <c r="BG18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
+      <c r="C19" s="4">
+        <v>1</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -3761,14 +4603,14 @@
       <c r="M19" s="3">
         <v>0</v>
       </c>
-      <c r="N19" s="4">
-        <v>1</v>
+      <c r="N19" s="3">
+        <v>0</v>
       </c>
       <c r="O19" s="3">
         <v>0</v>
       </c>
-      <c r="P19" s="3">
-        <v>0</v>
+      <c r="P19" s="4">
+        <v>1</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -3776,23 +4618,23 @@
       <c r="R19" s="3">
         <v>0</v>
       </c>
-      <c r="S19" s="4">
-        <v>1</v>
+      <c r="S19" s="3">
+        <v>0</v>
       </c>
       <c r="T19" s="3">
         <v>0</v>
       </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
       </c>
       <c r="W19" s="3">
         <v>0</v>
       </c>
-      <c r="X19" s="4">
-        <v>1</v>
+      <c r="X19" s="3">
+        <v>0</v>
       </c>
       <c r="Y19" s="3">
         <v>0</v>
@@ -3815,8 +4657,8 @@
       <c r="AE19" s="3">
         <v>0</v>
       </c>
-      <c r="AF19" s="3">
-        <v>0</v>
+      <c r="AF19" s="4">
+        <v>1</v>
       </c>
       <c r="AG19" s="3">
         <v>0</v>
@@ -3830,11 +4672,11 @@
       <c r="AJ19" s="3">
         <v>0</v>
       </c>
-      <c r="AK19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="4">
-        <v>1</v>
+      <c r="AK19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>0</v>
       </c>
       <c r="AM19" s="3">
         <v>0</v>
@@ -3854,8 +4696,8 @@
       <c r="AR19" s="3">
         <v>0</v>
       </c>
-      <c r="AS19" s="3">
-        <v>0</v>
+      <c r="AS19" s="4">
+        <v>1</v>
       </c>
       <c r="AT19" s="3">
         <v>0</v>
@@ -3881,8 +4723,8 @@
       <c r="BA19" s="3">
         <v>0</v>
       </c>
-      <c r="BB19" s="3">
-        <v>0</v>
+      <c r="BB19" s="4">
+        <v>1</v>
       </c>
       <c r="BC19" s="3">
         <v>0</v>
@@ -3890,19 +4732,61 @@
       <c r="BD19" s="3">
         <v>0</v>
       </c>
-      <c r="BE19" s="4">
-        <v>1</v>
+      <c r="BE19" s="3">
+        <v>0</v>
       </c>
       <c r="BF19" s="3">
         <v>0</v>
       </c>
-      <c r="BG19" s="5">
-        <v>6</v>
+      <c r="BG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -3913,8 +4797,8 @@
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="4">
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3928,11 +4812,11 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1</v>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -3940,14 +4824,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="4">
+        <v>1</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="4">
+        <v>1</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -3961,8 +4845,8 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
+      <c r="U20" s="4">
+        <v>1</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -3973,8 +4857,8 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="4">
-        <v>1</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -3988,14 +4872,14 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
+      <c r="AD20" s="4">
+        <v>1</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-      <c r="AF20" s="3">
-        <v>0</v>
+      <c r="AF20" s="4">
+        <v>1</v>
       </c>
       <c r="AG20" s="3">
         <v>0</v>
@@ -4012,23 +4896,23 @@
       <c r="AK20" s="3">
         <v>0</v>
       </c>
-      <c r="AL20" s="4">
-        <v>1</v>
+      <c r="AL20" s="3">
+        <v>0</v>
       </c>
       <c r="AM20" s="3">
         <v>0</v>
       </c>
-      <c r="AN20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>0</v>
+      <c r="AN20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>1</v>
       </c>
       <c r="AP20" s="3">
         <v>0</v>
       </c>
-      <c r="AQ20" s="4">
-        <v>1</v>
+      <c r="AQ20" s="3">
+        <v>0</v>
       </c>
       <c r="AR20" s="3">
         <v>0</v>
@@ -4045,8 +4929,8 @@
       <c r="AV20" s="3">
         <v>0</v>
       </c>
-      <c r="AW20" s="3">
-        <v>0</v>
+      <c r="AW20" s="4">
+        <v>1</v>
       </c>
       <c r="AX20" s="3">
         <v>0</v>
@@ -4060,14 +4944,14 @@
       <c r="BA20" s="3">
         <v>0</v>
       </c>
-      <c r="BB20" s="4">
-        <v>1</v>
+      <c r="BB20" s="3">
+        <v>0</v>
       </c>
       <c r="BC20" s="3">
         <v>0</v>
       </c>
-      <c r="BD20" s="4">
-        <v>1</v>
+      <c r="BD20" s="3">
+        <v>0</v>
       </c>
       <c r="BE20" s="3">
         <v>0</v>
@@ -4075,43 +4959,85 @@
       <c r="BF20" s="3">
         <v>0</v>
       </c>
-      <c r="BG20" s="5">
-        <v>9</v>
+      <c r="BG20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
+      <c r="C21" s="4">
+        <v>1</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1</v>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1</v>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -4125,8 +5051,8 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
+      <c r="P21" s="4">
+        <v>1</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -4140,8 +5066,8 @@
       <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
+      <c r="U21" s="4">
+        <v>1</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
@@ -4155,8 +5081,8 @@
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
+      <c r="Z21" s="4">
+        <v>1</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
@@ -4167,8 +5093,8 @@
       <c r="AC21" s="3">
         <v>0</v>
       </c>
-      <c r="AD21" s="4">
-        <v>1</v>
+      <c r="AD21" s="3">
+        <v>0</v>
       </c>
       <c r="AE21" s="3">
         <v>0</v>
@@ -4188,8 +5114,8 @@
       <c r="AJ21" s="3">
         <v>0</v>
       </c>
-      <c r="AK21" s="3">
-        <v>0</v>
+      <c r="AK21" s="4">
+        <v>1</v>
       </c>
       <c r="AL21" s="3">
         <v>0</v>
@@ -4203,8 +5129,8 @@
       <c r="AO21" s="3">
         <v>0</v>
       </c>
-      <c r="AP21" s="4">
-        <v>1</v>
+      <c r="AP21" s="3">
+        <v>0</v>
       </c>
       <c r="AQ21" s="3">
         <v>0</v>
@@ -4212,8 +5138,8 @@
       <c r="AR21" s="3">
         <v>0</v>
       </c>
-      <c r="AS21" s="3">
-        <v>0</v>
+      <c r="AS21" s="4">
+        <v>1</v>
       </c>
       <c r="AT21" s="3">
         <v>0</v>
@@ -4239,14 +5165,14 @@
       <c r="BA21" s="3">
         <v>0</v>
       </c>
-      <c r="BB21" s="3">
-        <v>0</v>
+      <c r="BB21" s="4">
+        <v>1</v>
       </c>
       <c r="BC21" s="3">
         <v>0</v>
       </c>
-      <c r="BD21" s="4">
-        <v>1</v>
+      <c r="BD21" s="3">
+        <v>0</v>
       </c>
       <c r="BE21" s="3">
         <v>0</v>
@@ -4254,187 +5180,2481 @@
       <c r="BF21" s="3">
         <v>0</v>
       </c>
-      <c r="BG21" s="5">
-        <v>6</v>
+      <c r="BG21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="5">
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
+        <v>93</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU23" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU28" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU29" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
+      <c r="W30" s="4">
+        <v>1</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN31" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="4">
+        <v>1</v>
+      </c>
+      <c r="BS31" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU31" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5">
+        <v>14</v>
+      </c>
+      <c r="G32" s="5">
+        <v>30</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>14</v>
+      </c>
+      <c r="J32" s="5">
+        <v>19</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>26</v>
+      </c>
+      <c r="O32" s="5">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>8</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
+        <v>7</v>
+      </c>
+      <c r="U32" s="5">
+        <v>28</v>
+      </c>
+      <c r="V32" s="5">
+        <v>8</v>
+      </c>
+      <c r="W32" s="5">
+        <v>3</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>9</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>11</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>6</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>6</v>
+      </c>
+      <c r="AL32" s="5">
+        <v>6</v>
+      </c>
+      <c r="AM32" s="5">
         <v>5</v>
       </c>
-      <c r="D22" s="5">
+      <c r="AN32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="5">
+        <v>6</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="5">
+        <v>6</v>
+      </c>
+      <c r="AS32" s="5">
+        <v>7</v>
+      </c>
+      <c r="AT32" s="5">
+        <v>6</v>
+      </c>
+      <c r="AU32" s="5">
+        <v>4</v>
+      </c>
+      <c r="AV32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="5">
+        <v>5</v>
+      </c>
+      <c r="AX32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA32" s="5">
+        <v>6</v>
+      </c>
+      <c r="BB32" s="5">
+        <v>17</v>
+      </c>
+      <c r="BC32" s="5">
+        <v>4</v>
+      </c>
+      <c r="BD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH32" s="5">
+        <v>8</v>
+      </c>
+      <c r="BI32" s="5">
+        <v>6</v>
+      </c>
+      <c r="BJ32" s="5">
+        <v>4</v>
+      </c>
+      <c r="BK32" s="5">
+        <v>12</v>
+      </c>
+      <c r="BL32" s="5">
         <v>9</v>
       </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>6</v>
-      </c>
-      <c r="H22" s="5">
-        <v>9</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>17</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>11</v>
-      </c>
-      <c r="O22" s="5">
-        <v>4</v>
-      </c>
-      <c r="P22" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
-        <v>1</v>
-      </c>
-      <c r="S22" s="5">
-        <v>11</v>
-      </c>
-      <c r="T22" s="5">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
-        <v>11</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>6</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="5">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>5</v>
-      </c>
-      <c r="AD22" s="5">
+      <c r="BM32" s="5">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="5">
+        <v>15</v>
+      </c>
+      <c r="BO32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP32" s="5">
+        <v>19</v>
+      </c>
+      <c r="BQ32" s="5">
         <v>3</v>
       </c>
-      <c r="AE22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="5">
-        <v>2</v>
-      </c>
-      <c r="AH22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="5">
-        <v>3</v>
-      </c>
-      <c r="AM22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="5">
-        <v>11</v>
-      </c>
-      <c r="AO22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="5">
-        <v>5</v>
-      </c>
-      <c r="AQ22" s="5">
-        <v>3</v>
-      </c>
-      <c r="AR22" s="5">
-        <v>4</v>
-      </c>
-      <c r="AS22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="5">
-        <v>6</v>
-      </c>
-      <c r="AU22" s="5">
-        <v>3</v>
-      </c>
-      <c r="AV22" s="5">
-        <v>2</v>
-      </c>
-      <c r="AW22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AX22" s="5">
-        <v>5</v>
-      </c>
-      <c r="AY22" s="5">
-        <v>4</v>
-      </c>
-      <c r="AZ22" s="5">
-        <v>5</v>
-      </c>
-      <c r="BA22" s="5">
-        <v>2</v>
-      </c>
-      <c r="BB22" s="5">
-        <v>6</v>
-      </c>
-      <c r="BC22" s="5">
-        <v>2</v>
-      </c>
-      <c r="BD22" s="5">
-        <v>9</v>
-      </c>
-      <c r="BE22" s="5">
-        <v>2</v>
-      </c>
-      <c r="BF22" s="5">
-        <v>0</v>
-      </c>
-      <c r="BG22" s="5">
-        <v>191</v>
+      <c r="BR32" s="5">
+        <v>18</v>
+      </c>
+      <c r="BS32" s="5">
+        <v>12</v>
+      </c>
+      <c r="BT32" s="5">
+        <v>1</v>
+      </c>
+      <c r="BU32" s="5">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/MAXQDA24 Code Matrix Browser.xlsx
+++ b/assets/data/MAXQDA24 Code Matrix Browser.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="96" uniqueCount="95">
   <si>
     <t/>
   </si>
@@ -45,9 +45,6 @@
     <t>Image Representation &gt; Traditional Image Features</t>
   </si>
   <si>
-    <t>Image Representation &gt; Unsicher</t>
-  </si>
-  <si>
     <t>Image Representation &gt; None</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Summarization &gt; Spatial Arrangement</t>
   </si>
   <si>
-    <t>Summarization &gt; unsicher</t>
-  </si>
-  <si>
     <t>Summarizing Entities</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Summarizing Entities &gt; Numerical statistics</t>
   </si>
   <si>
-    <t>Summarizing Entities &gt; Unsicher</t>
-  </si>
-  <si>
     <t>Input for Position in Visualization</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>Input for Position in Visualization &gt; Topology</t>
   </si>
   <si>
-    <t>Input for Position in Visualization &gt; Unsicher</t>
-  </si>
-  <si>
     <t>Set Size - Claimed</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>Set Size - Confirmed &gt; Millions or More</t>
   </si>
   <si>
-    <t>Set Size - Confirmed &gt; Unsicher</t>
-  </si>
-  <si>
     <t>Goal</t>
   </si>
   <si>
@@ -180,12 +165,6 @@
     <t>Goal &gt; Produce</t>
   </si>
   <si>
-    <t>Goal &gt; Not mentioned / unclear</t>
-  </si>
-  <si>
-    <t>Goal &gt; Unsicher</t>
-  </si>
-  <si>
     <t>Interactions</t>
   </si>
   <si>
@@ -205,9 +184,6 @@
   </si>
   <si>
     <t>Interactions &gt; Filter</t>
-  </si>
-  <si>
-    <t>Interactions &gt; unsicher</t>
   </si>
   <si>
     <t>Interactions &gt; None</t>
@@ -504,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU32"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
@@ -520,69 +496,61 @@
     <col min="8" max="8" width="23" customWidth="true"/>
     <col min="9" max="9" width="51" customWidth="true"/>
     <col min="10" max="10" width="51" customWidth="true"/>
-    <col min="11" max="11" width="34" customWidth="true"/>
-    <col min="12" max="12" width="30" customWidth="true"/>
-    <col min="13" max="13" width="23" customWidth="true"/>
+    <col min="11" max="11" width="30" customWidth="true"/>
+    <col min="12" max="12" width="23" customWidth="true"/>
+    <col min="13" max="13" width="30" customWidth="true"/>
     <col min="14" max="14" width="30" customWidth="true"/>
-    <col min="15" max="15" width="30" customWidth="true"/>
-    <col min="16" max="16" width="28" customWidth="true"/>
-    <col min="17" max="17" width="38" customWidth="true"/>
-    <col min="18" max="18" width="27" customWidth="true"/>
-    <col min="19" max="19" width="23" customWidth="true"/>
-    <col min="20" max="20" width="31" customWidth="true"/>
-    <col min="21" max="21" width="47" customWidth="true"/>
-    <col min="22" max="22" width="43" customWidth="true"/>
-    <col min="23" max="23" width="46" customWidth="true"/>
-    <col min="24" max="24" width="34" customWidth="true"/>
-    <col min="25" max="25" width="38" customWidth="true"/>
+    <col min="15" max="15" width="28" customWidth="true"/>
+    <col min="16" max="16" width="38" customWidth="true"/>
+    <col min="17" max="17" width="23" customWidth="true"/>
+    <col min="18" max="18" width="31" customWidth="true"/>
+    <col min="19" max="19" width="47" customWidth="true"/>
+    <col min="20" max="20" width="43" customWidth="true"/>
+    <col min="21" max="21" width="46" customWidth="true"/>
+    <col min="22" max="22" width="38" customWidth="true"/>
+    <col min="23" max="23" width="51" customWidth="true"/>
+    <col min="24" max="24" width="51" customWidth="true"/>
+    <col min="25" max="25" width="51" customWidth="true"/>
     <col min="26" max="26" width="51" customWidth="true"/>
-    <col min="27" max="27" width="51" customWidth="true"/>
-    <col min="28" max="28" width="51" customWidth="true"/>
-    <col min="29" max="29" width="51" customWidth="true"/>
-    <col min="30" max="30" width="49" customWidth="true"/>
-    <col min="31" max="31" width="50" customWidth="true"/>
-    <col min="32" max="32" width="49" customWidth="true"/>
-    <col min="33" max="33" width="49" customWidth="true"/>
-    <col min="34" max="34" width="23" customWidth="true"/>
-    <col min="35" max="35" width="37" customWidth="true"/>
-    <col min="36" max="36" width="28" customWidth="true"/>
-    <col min="37" max="37" width="32" customWidth="true"/>
-    <col min="38" max="38" width="33" customWidth="true"/>
-    <col min="39" max="39" width="41" customWidth="true"/>
-    <col min="40" max="40" width="45" customWidth="true"/>
-    <col min="41" max="41" width="40" customWidth="true"/>
-    <col min="42" max="42" width="23" customWidth="true"/>
-    <col min="43" max="43" width="39" customWidth="true"/>
-    <col min="44" max="44" width="30" customWidth="true"/>
-    <col min="45" max="45" width="34" customWidth="true"/>
-    <col min="46" max="46" width="35" customWidth="true"/>
-    <col min="47" max="47" width="43" customWidth="true"/>
-    <col min="48" max="48" width="47" customWidth="true"/>
-    <col min="49" max="49" width="42" customWidth="true"/>
-    <col min="50" max="50" width="34" customWidth="true"/>
-    <col min="51" max="51" width="8" customWidth="true"/>
-    <col min="52" max="52" width="23" customWidth="true"/>
-    <col min="53" max="53" width="23" customWidth="true"/>
-    <col min="54" max="54" width="23" customWidth="true"/>
-    <col min="55" max="55" width="23" customWidth="true"/>
-    <col min="56" max="56" width="33" customWidth="true"/>
-    <col min="57" max="57" width="23" customWidth="true"/>
+    <col min="27" max="27" width="49" customWidth="true"/>
+    <col min="28" max="28" width="50" customWidth="true"/>
+    <col min="29" max="29" width="49" customWidth="true"/>
+    <col min="30" max="30" width="23" customWidth="true"/>
+    <col min="31" max="31" width="37" customWidth="true"/>
+    <col min="32" max="32" width="28" customWidth="true"/>
+    <col min="33" max="33" width="32" customWidth="true"/>
+    <col min="34" max="34" width="33" customWidth="true"/>
+    <col min="35" max="35" width="41" customWidth="true"/>
+    <col min="36" max="36" width="45" customWidth="true"/>
+    <col min="37" max="37" width="40" customWidth="true"/>
+    <col min="38" max="38" width="23" customWidth="true"/>
+    <col min="39" max="39" width="39" customWidth="true"/>
+    <col min="40" max="40" width="30" customWidth="true"/>
+    <col min="41" max="41" width="34" customWidth="true"/>
+    <col min="42" max="42" width="35" customWidth="true"/>
+    <col min="43" max="43" width="43" customWidth="true"/>
+    <col min="44" max="44" width="47" customWidth="true"/>
+    <col min="45" max="45" width="42" customWidth="true"/>
+    <col min="46" max="46" width="8" customWidth="true"/>
+    <col min="47" max="47" width="23" customWidth="true"/>
+    <col min="48" max="48" width="23" customWidth="true"/>
+    <col min="49" max="49" width="23" customWidth="true"/>
+    <col min="50" max="50" width="23" customWidth="true"/>
+    <col min="51" max="51" width="23" customWidth="true"/>
+    <col min="52" max="52" width="24" customWidth="true"/>
+    <col min="53" max="53" width="26" customWidth="true"/>
+    <col min="54" max="54" width="29" customWidth="true"/>
+    <col min="55" max="55" width="24" customWidth="true"/>
+    <col min="56" max="56" width="45" customWidth="true"/>
+    <col min="57" max="57" width="24" customWidth="true"/>
     <col min="58" max="58" width="23" customWidth="true"/>
-    <col min="59" max="59" width="24" customWidth="true"/>
-    <col min="60" max="60" width="26" customWidth="true"/>
-    <col min="61" max="61" width="29" customWidth="true"/>
-    <col min="62" max="62" width="24" customWidth="true"/>
-    <col min="63" max="63" width="45" customWidth="true"/>
-    <col min="64" max="64" width="24" customWidth="true"/>
-    <col min="65" max="65" width="26" customWidth="true"/>
-    <col min="66" max="66" width="23" customWidth="true"/>
-    <col min="67" max="67" width="23" customWidth="true"/>
-    <col min="68" max="68" width="39" customWidth="true"/>
-    <col min="69" max="69" width="23" customWidth="true"/>
-    <col min="70" max="70" width="47" customWidth="true"/>
-    <col min="71" max="71" width="51" customWidth="true"/>
-    <col min="72" max="72" width="49" customWidth="true"/>
-    <col min="73" max="73" width="8" customWidth="true"/>
+    <col min="59" max="59" width="23" customWidth="true"/>
+    <col min="60" max="60" width="39" customWidth="true"/>
+    <col min="61" max="61" width="23" customWidth="true"/>
+    <col min="62" max="62" width="47" customWidth="true"/>
+    <col min="63" max="63" width="51" customWidth="true"/>
+    <col min="64" max="64" width="49" customWidth="true"/>
+    <col min="65" max="65" width="8" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -781,34 +749,10 @@
       <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -843,32 +787,32 @@
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
       </c>
       <c r="P2" s="4">
         <v>1</v>
       </c>
-      <c r="Q2" s="4">
-        <v>1</v>
+      <c r="Q2" s="3">
+        <v>0</v>
       </c>
       <c r="R2" s="3">
         <v>0</v>
       </c>
-      <c r="S2" s="3">
-        <v>0</v>
+      <c r="S2" s="4">
+        <v>1</v>
       </c>
       <c r="T2" s="3">
         <v>0</v>
       </c>
-      <c r="U2" s="4">
-        <v>1</v>
+      <c r="U2" s="3">
+        <v>0</v>
       </c>
       <c r="V2" s="3">
         <v>0</v>
@@ -885,8 +829,8 @@
       <c r="Z2" s="3">
         <v>0</v>
       </c>
-      <c r="AA2" s="3">
-        <v>0</v>
+      <c r="AA2" s="4">
+        <v>1</v>
       </c>
       <c r="AB2" s="3">
         <v>0</v>
@@ -894,8 +838,8 @@
       <c r="AC2" s="3">
         <v>0</v>
       </c>
-      <c r="AD2" s="4">
-        <v>1</v>
+      <c r="AD2" s="3">
+        <v>0</v>
       </c>
       <c r="AE2" s="3">
         <v>0</v>
@@ -915,8 +859,8 @@
       <c r="AJ2" s="3">
         <v>0</v>
       </c>
-      <c r="AK2" s="3">
-        <v>0</v>
+      <c r="AK2" s="4">
+        <v>1</v>
       </c>
       <c r="AL2" s="3">
         <v>0</v>
@@ -927,8 +871,8 @@
       <c r="AN2" s="3">
         <v>0</v>
       </c>
-      <c r="AO2" s="4">
-        <v>1</v>
+      <c r="AO2" s="3">
+        <v>0</v>
       </c>
       <c r="AP2" s="3">
         <v>0</v>
@@ -939,20 +883,20 @@
       <c r="AR2" s="3">
         <v>0</v>
       </c>
-      <c r="AS2" s="3">
-        <v>0</v>
+      <c r="AS2" s="4">
+        <v>1</v>
       </c>
       <c r="AT2" s="3">
         <v>0</v>
       </c>
-      <c r="AU2" s="3">
-        <v>0</v>
+      <c r="AU2" s="4">
+        <v>1</v>
       </c>
       <c r="AV2" s="3">
         <v>0</v>
       </c>
-      <c r="AW2" s="4">
-        <v>1</v>
+      <c r="AW2" s="3">
+        <v>0</v>
       </c>
       <c r="AX2" s="3">
         <v>0</v>
@@ -960,11 +904,11 @@
       <c r="AY2" s="3">
         <v>0</v>
       </c>
-      <c r="AZ2" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>0</v>
+      <c r="AZ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>1</v>
       </c>
       <c r="BB2" s="3">
         <v>0</v>
@@ -972,8 +916,8 @@
       <c r="BC2" s="3">
         <v>0</v>
       </c>
-      <c r="BD2" s="3">
-        <v>0</v>
+      <c r="BD2" s="4">
+        <v>1</v>
       </c>
       <c r="BE2" s="3">
         <v>0</v>
@@ -984,52 +928,28 @@
       <c r="BG2" s="3">
         <v>0</v>
       </c>
-      <c r="BH2" s="4">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>0</v>
+      <c r="BH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>1</v>
       </c>
       <c r="BJ2" s="3">
         <v>0</v>
       </c>
-      <c r="BK2" s="4">
-        <v>1</v>
+      <c r="BK2" s="3">
+        <v>0</v>
       </c>
       <c r="BL2" s="3">
         <v>0</v>
       </c>
-      <c r="BM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="4">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="5">
+      <c r="BM2" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -1064,32 +984,32 @@
       <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
       </c>
       <c r="P3" s="4">
         <v>1</v>
       </c>
-      <c r="Q3" s="4">
-        <v>1</v>
+      <c r="Q3" s="3">
+        <v>0</v>
       </c>
       <c r="R3" s="3">
         <v>0</v>
       </c>
-      <c r="S3" s="3">
-        <v>0</v>
+      <c r="S3" s="4">
+        <v>1</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
       </c>
-      <c r="U3" s="4">
-        <v>1</v>
+      <c r="U3" s="3">
+        <v>0</v>
       </c>
       <c r="V3" s="3">
         <v>0</v>
@@ -1106,8 +1026,8 @@
       <c r="Z3" s="3">
         <v>0</v>
       </c>
-      <c r="AA3" s="3">
-        <v>0</v>
+      <c r="AA3" s="4">
+        <v>1</v>
       </c>
       <c r="AB3" s="3">
         <v>0</v>
@@ -1115,8 +1035,8 @@
       <c r="AC3" s="3">
         <v>0</v>
       </c>
-      <c r="AD3" s="4">
-        <v>1</v>
+      <c r="AD3" s="3">
+        <v>0</v>
       </c>
       <c r="AE3" s="3">
         <v>0</v>
@@ -1136,8 +1056,8 @@
       <c r="AJ3" s="3">
         <v>0</v>
       </c>
-      <c r="AK3" s="3">
-        <v>0</v>
+      <c r="AK3" s="4">
+        <v>1</v>
       </c>
       <c r="AL3" s="3">
         <v>0</v>
@@ -1148,8 +1068,8 @@
       <c r="AN3" s="3">
         <v>0</v>
       </c>
-      <c r="AO3" s="4">
-        <v>1</v>
+      <c r="AO3" s="3">
+        <v>0</v>
       </c>
       <c r="AP3" s="3">
         <v>0</v>
@@ -1160,20 +1080,20 @@
       <c r="AR3" s="3">
         <v>0</v>
       </c>
-      <c r="AS3" s="3">
-        <v>0</v>
+      <c r="AS3" s="4">
+        <v>1</v>
       </c>
       <c r="AT3" s="3">
         <v>0</v>
       </c>
-      <c r="AU3" s="3">
-        <v>0</v>
+      <c r="AU3" s="4">
+        <v>1</v>
       </c>
       <c r="AV3" s="3">
         <v>0</v>
       </c>
-      <c r="AW3" s="4">
-        <v>1</v>
+      <c r="AW3" s="3">
+        <v>0</v>
       </c>
       <c r="AX3" s="3">
         <v>0</v>
@@ -1184,8 +1104,8 @@
       <c r="AZ3" s="4">
         <v>1</v>
       </c>
-      <c r="BA3" s="3">
-        <v>0</v>
+      <c r="BA3" s="4">
+        <v>1</v>
       </c>
       <c r="BB3" s="3">
         <v>0</v>
@@ -1193,64 +1113,40 @@
       <c r="BC3" s="3">
         <v>0</v>
       </c>
-      <c r="BD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="3">
-        <v>0</v>
+      <c r="BD3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>1</v>
       </c>
       <c r="BF3" s="3">
         <v>0</v>
       </c>
-      <c r="BG3" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="4">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>0</v>
+      <c r="BG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>1</v>
       </c>
       <c r="BJ3" s="3">
         <v>0</v>
       </c>
-      <c r="BK3" s="4">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="4">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="5">
+      <c r="BK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1285,29 +1181,29 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
       </c>
       <c r="P4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>1</v>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
       </c>
       <c r="U4" s="4">
         <v>1</v>
@@ -1315,29 +1211,29 @@
       <c r="V4" s="3">
         <v>0</v>
       </c>
-      <c r="W4" s="4">
-        <v>1</v>
+      <c r="W4" s="3">
+        <v>0</v>
       </c>
       <c r="X4" s="3">
         <v>0</v>
       </c>
-      <c r="Y4" s="3">
-        <v>0</v>
+      <c r="Y4" s="4">
+        <v>1</v>
       </c>
       <c r="Z4" s="3">
         <v>0</v>
       </c>
-      <c r="AA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>1</v>
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
         <v>0</v>
       </c>
-      <c r="AD4" s="4">
-        <v>1</v>
+      <c r="AD4" s="3">
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
         <v>0</v>
@@ -1357,8 +1253,8 @@
       <c r="AJ4" s="3">
         <v>0</v>
       </c>
-      <c r="AK4" s="3">
-        <v>0</v>
+      <c r="AK4" s="4">
+        <v>1</v>
       </c>
       <c r="AL4" s="3">
         <v>0</v>
@@ -1369,8 +1265,8 @@
       <c r="AN4" s="3">
         <v>0</v>
       </c>
-      <c r="AO4" s="4">
-        <v>1</v>
+      <c r="AO4" s="3">
+        <v>0</v>
       </c>
       <c r="AP4" s="3">
         <v>0</v>
@@ -1381,20 +1277,20 @@
       <c r="AR4" s="3">
         <v>0</v>
       </c>
-      <c r="AS4" s="3">
-        <v>0</v>
+      <c r="AS4" s="4">
+        <v>1</v>
       </c>
       <c r="AT4" s="3">
         <v>0</v>
       </c>
-      <c r="AU4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="4">
-        <v>1</v>
+      <c r="AU4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>0</v>
       </c>
       <c r="AX4" s="3">
         <v>0</v>
@@ -1411,67 +1307,43 @@
       <c r="BB4" s="3">
         <v>0</v>
       </c>
-      <c r="BC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>0</v>
+      <c r="BC4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>1</v>
       </c>
       <c r="BF4" s="3">
         <v>0</v>
       </c>
-      <c r="BG4" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="4">
-        <v>1</v>
+      <c r="BG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>0</v>
       </c>
       <c r="BI4" s="3">
         <v>0</v>
       </c>
-      <c r="BJ4" s="4">
-        <v>1</v>
+      <c r="BJ4" s="3">
+        <v>0</v>
       </c>
       <c r="BK4" s="4">
         <v>1</v>
       </c>
-      <c r="BL4" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="5">
+      <c r="BL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1506,14 +1378,14 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
+      <c r="M5" s="4">
+        <v>1</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="O5" s="4">
-        <v>1</v>
+      <c r="O5" s="3">
+        <v>0</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -1521,14 +1393,14 @@
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>1</v>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
       </c>
       <c r="U5" s="4">
         <v>1</v>
@@ -1536,8 +1408,8 @@
       <c r="V5" s="3">
         <v>0</v>
       </c>
-      <c r="W5" s="4">
-        <v>1</v>
+      <c r="W5" s="3">
+        <v>0</v>
       </c>
       <c r="X5" s="3">
         <v>0</v>
@@ -1554,8 +1426,8 @@
       <c r="AB5" s="3">
         <v>0</v>
       </c>
-      <c r="AC5" s="3">
-        <v>0</v>
+      <c r="AC5" s="4">
+        <v>1</v>
       </c>
       <c r="AD5" s="3">
         <v>0</v>
@@ -1563,8 +1435,8 @@
       <c r="AE5" s="3">
         <v>0</v>
       </c>
-      <c r="AF5" s="4">
-        <v>1</v>
+      <c r="AF5" s="3">
+        <v>0</v>
       </c>
       <c r="AG5" s="3">
         <v>0</v>
@@ -1572,8 +1444,8 @@
       <c r="AH5" s="3">
         <v>0</v>
       </c>
-      <c r="AI5" s="3">
-        <v>0</v>
+      <c r="AI5" s="4">
+        <v>1</v>
       </c>
       <c r="AJ5" s="3">
         <v>0</v>
@@ -1584,8 +1456,8 @@
       <c r="AL5" s="3">
         <v>0</v>
       </c>
-      <c r="AM5" s="4">
-        <v>1</v>
+      <c r="AM5" s="3">
+        <v>0</v>
       </c>
       <c r="AN5" s="3">
         <v>0</v>
@@ -1596,8 +1468,8 @@
       <c r="AP5" s="3">
         <v>0</v>
       </c>
-      <c r="AQ5" s="3">
-        <v>0</v>
+      <c r="AQ5" s="4">
+        <v>1</v>
       </c>
       <c r="AR5" s="3">
         <v>0</v>
@@ -1611,8 +1483,8 @@
       <c r="AU5" s="4">
         <v>1</v>
       </c>
-      <c r="AV5" s="3">
-        <v>0</v>
+      <c r="AV5" s="4">
+        <v>1</v>
       </c>
       <c r="AW5" s="3">
         <v>0</v>
@@ -1635,17 +1507,17 @@
       <c r="BC5" s="3">
         <v>0</v>
       </c>
-      <c r="BD5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="3">
-        <v>0</v>
+      <c r="BD5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>1</v>
       </c>
       <c r="BF5" s="3">
         <v>0</v>
       </c>
-      <c r="BG5" s="4">
-        <v>1</v>
+      <c r="BG5" s="3">
+        <v>0</v>
       </c>
       <c r="BH5" s="4">
         <v>1</v>
@@ -1653,46 +1525,22 @@
       <c r="BI5" s="3">
         <v>0</v>
       </c>
-      <c r="BJ5" s="3">
-        <v>0</v>
+      <c r="BJ5" s="4">
+        <v>1</v>
       </c>
       <c r="BK5" s="4">
         <v>1</v>
       </c>
-      <c r="BL5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="5">
+      <c r="BL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1727,17 +1575,17 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
@@ -1745,23 +1593,23 @@
       <c r="R6" s="3">
         <v>0</v>
       </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4">
-        <v>1</v>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
       </c>
       <c r="W6" s="3">
         <v>0</v>
       </c>
-      <c r="X6" s="3">
-        <v>0</v>
+      <c r="X6" s="4">
+        <v>1</v>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
@@ -1769,8 +1617,8 @@
       <c r="Z6" s="3">
         <v>0</v>
       </c>
-      <c r="AA6" s="4">
-        <v>1</v>
+      <c r="AA6" s="3">
+        <v>0</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
@@ -1790,8 +1638,8 @@
       <c r="AG6" s="3">
         <v>0</v>
       </c>
-      <c r="AH6" s="3">
-        <v>0</v>
+      <c r="AH6" s="4">
+        <v>1</v>
       </c>
       <c r="AI6" s="3">
         <v>0</v>
@@ -1802,8 +1650,8 @@
       <c r="AK6" s="3">
         <v>0</v>
       </c>
-      <c r="AL6" s="4">
-        <v>1</v>
+      <c r="AL6" s="3">
+        <v>0</v>
       </c>
       <c r="AM6" s="3">
         <v>0</v>
@@ -1814,8 +1662,8 @@
       <c r="AO6" s="3">
         <v>0</v>
       </c>
-      <c r="AP6" s="3">
-        <v>0</v>
+      <c r="AP6" s="4">
+        <v>1</v>
       </c>
       <c r="AQ6" s="3">
         <v>0</v>
@@ -1826,8 +1674,8 @@
       <c r="AS6" s="3">
         <v>0</v>
       </c>
-      <c r="AT6" s="4">
-        <v>1</v>
+      <c r="AT6" s="3">
+        <v>0</v>
       </c>
       <c r="AU6" s="3">
         <v>0</v>
@@ -1835,8 +1683,8 @@
       <c r="AV6" s="3">
         <v>0</v>
       </c>
-      <c r="AW6" s="3">
-        <v>0</v>
+      <c r="AW6" s="4">
+        <v>1</v>
       </c>
       <c r="AX6" s="3">
         <v>0</v>
@@ -1850,8 +1698,8 @@
       <c r="BA6" s="3">
         <v>0</v>
       </c>
-      <c r="BB6" s="4">
-        <v>1</v>
+      <c r="BB6" s="3">
+        <v>0</v>
       </c>
       <c r="BC6" s="3">
         <v>0</v>
@@ -1862,14 +1710,14 @@
       <c r="BE6" s="3">
         <v>0</v>
       </c>
-      <c r="BF6" s="3">
-        <v>0</v>
+      <c r="BF6" s="4">
+        <v>1</v>
       </c>
       <c r="BG6" s="3">
         <v>0</v>
       </c>
-      <c r="BH6" s="3">
-        <v>0</v>
+      <c r="BH6" s="4">
+        <v>1</v>
       </c>
       <c r="BI6" s="3">
         <v>0</v>
@@ -1883,37 +1731,13 @@
       <c r="BL6" s="3">
         <v>0</v>
       </c>
-      <c r="BM6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="5">
+      <c r="BM6" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1948,32 +1772,32 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
       </c>
       <c r="P7" s="4">
         <v>1</v>
       </c>
-      <c r="Q7" s="4">
-        <v>1</v>
+      <c r="Q7" s="3">
+        <v>0</v>
       </c>
       <c r="R7" s="3">
         <v>0</v>
       </c>
-      <c r="S7" s="3">
-        <v>0</v>
+      <c r="S7" s="4">
+        <v>1</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="4">
-        <v>1</v>
+      <c r="U7" s="3">
+        <v>0</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -1990,8 +1814,8 @@
       <c r="Z7" s="3">
         <v>0</v>
       </c>
-      <c r="AA7" s="3">
-        <v>0</v>
+      <c r="AA7" s="4">
+        <v>1</v>
       </c>
       <c r="AB7" s="3">
         <v>0</v>
@@ -1999,8 +1823,8 @@
       <c r="AC7" s="3">
         <v>0</v>
       </c>
-      <c r="AD7" s="4">
-        <v>1</v>
+      <c r="AD7" s="3">
+        <v>0</v>
       </c>
       <c r="AE7" s="3">
         <v>0</v>
@@ -2011,8 +1835,8 @@
       <c r="AG7" s="3">
         <v>0</v>
       </c>
-      <c r="AH7" s="3">
-        <v>0</v>
+      <c r="AH7" s="4">
+        <v>1</v>
       </c>
       <c r="AI7" s="3">
         <v>0</v>
@@ -2023,8 +1847,8 @@
       <c r="AK7" s="3">
         <v>0</v>
       </c>
-      <c r="AL7" s="4">
-        <v>1</v>
+      <c r="AL7" s="3">
+        <v>0</v>
       </c>
       <c r="AM7" s="3">
         <v>0</v>
@@ -2035,8 +1859,8 @@
       <c r="AO7" s="3">
         <v>0</v>
       </c>
-      <c r="AP7" s="3">
-        <v>0</v>
+      <c r="AP7" s="4">
+        <v>1</v>
       </c>
       <c r="AQ7" s="3">
         <v>0</v>
@@ -2047,11 +1871,11 @@
       <c r="AS7" s="3">
         <v>0</v>
       </c>
-      <c r="AT7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>0</v>
+      <c r="AT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>1</v>
       </c>
       <c r="AV7" s="3">
         <v>0</v>
@@ -2080,61 +1904,37 @@
       <c r="BD7" s="3">
         <v>0</v>
       </c>
-      <c r="BE7" s="3">
-        <v>0</v>
+      <c r="BE7" s="4">
+        <v>1</v>
       </c>
       <c r="BF7" s="3">
         <v>0</v>
       </c>
-      <c r="BG7" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="3">
-        <v>0</v>
+      <c r="BG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="4">
+        <v>1</v>
       </c>
       <c r="BI7" s="3">
         <v>0</v>
       </c>
-      <c r="BJ7" s="3">
-        <v>0</v>
+      <c r="BJ7" s="4">
+        <v>1</v>
       </c>
       <c r="BK7" s="3">
         <v>0</v>
       </c>
-      <c r="BL7" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="5">
+      <c r="BL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2169,32 +1969,32 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1</v>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>1</v>
-      </c>
-      <c r="U8" s="4">
-        <v>1</v>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -2205,8 +2005,8 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
+      <c r="Y8" s="4">
+        <v>1</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
@@ -2223,8 +2023,8 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-      <c r="AE8" s="4">
-        <v>1</v>
+      <c r="AE8" s="3">
+        <v>0</v>
       </c>
       <c r="AF8" s="3">
         <v>0</v>
@@ -2235,8 +2035,8 @@
       <c r="AH8" s="3">
         <v>0</v>
       </c>
-      <c r="AI8" s="3">
-        <v>0</v>
+      <c r="AI8" s="4">
+        <v>1</v>
       </c>
       <c r="AJ8" s="3">
         <v>0</v>
@@ -2247,14 +2047,14 @@
       <c r="AL8" s="3">
         <v>0</v>
       </c>
-      <c r="AM8" s="4">
-        <v>1</v>
+      <c r="AM8" s="3">
+        <v>0</v>
       </c>
       <c r="AN8" s="3">
         <v>0</v>
       </c>
-      <c r="AO8" s="3">
-        <v>0</v>
+      <c r="AO8" s="4">
+        <v>1</v>
       </c>
       <c r="AP8" s="3">
         <v>0</v>
@@ -2265,8 +2065,8 @@
       <c r="AR8" s="3">
         <v>0</v>
       </c>
-      <c r="AS8" s="4">
-        <v>1</v>
+      <c r="AS8" s="3">
+        <v>0</v>
       </c>
       <c r="AT8" s="3">
         <v>0</v>
@@ -2277,8 +2077,8 @@
       <c r="AV8" s="3">
         <v>0</v>
       </c>
-      <c r="AW8" s="3">
-        <v>0</v>
+      <c r="AW8" s="4">
+        <v>1</v>
       </c>
       <c r="AX8" s="3">
         <v>0</v>
@@ -2292,8 +2092,8 @@
       <c r="BA8" s="3">
         <v>0</v>
       </c>
-      <c r="BB8" s="4">
-        <v>1</v>
+      <c r="BB8" s="3">
+        <v>0</v>
       </c>
       <c r="BC8" s="3">
         <v>0</v>
@@ -2304,20 +2104,20 @@
       <c r="BE8" s="3">
         <v>0</v>
       </c>
-      <c r="BF8" s="3">
-        <v>0</v>
+      <c r="BF8" s="4">
+        <v>1</v>
       </c>
       <c r="BG8" s="3">
         <v>0</v>
       </c>
-      <c r="BH8" s="3">
-        <v>0</v>
+      <c r="BH8" s="4">
+        <v>1</v>
       </c>
       <c r="BI8" s="3">
         <v>0</v>
       </c>
-      <c r="BJ8" s="3">
-        <v>0</v>
+      <c r="BJ8" s="4">
+        <v>1</v>
       </c>
       <c r="BK8" s="3">
         <v>0</v>
@@ -2325,37 +2125,13 @@
       <c r="BL8" s="3">
         <v>0</v>
       </c>
-      <c r="BM8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="5">
+      <c r="BM8" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2390,17 +2166,17 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -2408,20 +2184,20 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
-      <c r="V9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>1</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -2429,8 +2205,8 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-      <c r="Z9" s="4">
-        <v>1</v>
+      <c r="Z9" s="3">
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
@@ -2438,8 +2214,8 @@
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
+      <c r="AC9" s="4">
+        <v>1</v>
       </c>
       <c r="AD9" s="3">
         <v>0</v>
@@ -2447,14 +2223,14 @@
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-      <c r="AF9" s="4">
-        <v>1</v>
+      <c r="AF9" s="3">
+        <v>0</v>
       </c>
       <c r="AG9" s="3">
         <v>0</v>
       </c>
-      <c r="AH9" s="3">
-        <v>0</v>
+      <c r="AH9" s="4">
+        <v>1</v>
       </c>
       <c r="AI9" s="3">
         <v>0</v>
@@ -2465,8 +2241,8 @@
       <c r="AK9" s="3">
         <v>0</v>
       </c>
-      <c r="AL9" s="4">
-        <v>1</v>
+      <c r="AL9" s="3">
+        <v>0</v>
       </c>
       <c r="AM9" s="3">
         <v>0</v>
@@ -2477,8 +2253,8 @@
       <c r="AO9" s="3">
         <v>0</v>
       </c>
-      <c r="AP9" s="3">
-        <v>0</v>
+      <c r="AP9" s="4">
+        <v>1</v>
       </c>
       <c r="AQ9" s="3">
         <v>0</v>
@@ -2489,11 +2265,11 @@
       <c r="AS9" s="3">
         <v>0</v>
       </c>
-      <c r="AT9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>0</v>
+      <c r="AT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>1</v>
       </c>
       <c r="AV9" s="3">
         <v>0</v>
@@ -2519,8 +2295,8 @@
       <c r="BC9" s="3">
         <v>0</v>
       </c>
-      <c r="BD9" s="3">
-        <v>0</v>
+      <c r="BD9" s="4">
+        <v>1</v>
       </c>
       <c r="BE9" s="3">
         <v>0</v>
@@ -2528,8 +2304,8 @@
       <c r="BF9" s="3">
         <v>0</v>
       </c>
-      <c r="BG9" s="4">
-        <v>1</v>
+      <c r="BG9" s="3">
+        <v>0</v>
       </c>
       <c r="BH9" s="3">
         <v>0</v>
@@ -2546,37 +2322,13 @@
       <c r="BL9" s="3">
         <v>0</v>
       </c>
-      <c r="BM9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="5">
+      <c r="BM9" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -2605,38 +2357,38 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>1</v>
-      </c>
-      <c r="U10" s="4">
-        <v>1</v>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -2644,17 +2396,17 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>1</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="4">
-        <v>1</v>
+      <c r="AA10" s="3">
+        <v>0</v>
       </c>
       <c r="AB10" s="4">
         <v>1</v>
@@ -2677,8 +2429,8 @@
       <c r="AH10" s="3">
         <v>0</v>
       </c>
-      <c r="AI10" s="4">
-        <v>1</v>
+      <c r="AI10" s="3">
+        <v>0</v>
       </c>
       <c r="AJ10" s="3">
         <v>0</v>
@@ -2689,8 +2441,8 @@
       <c r="AL10" s="3">
         <v>0</v>
       </c>
-      <c r="AM10" s="3">
-        <v>0</v>
+      <c r="AM10" s="4">
+        <v>1</v>
       </c>
       <c r="AN10" s="3">
         <v>0</v>
@@ -2701,8 +2453,8 @@
       <c r="AP10" s="3">
         <v>0</v>
       </c>
-      <c r="AQ10" s="4">
-        <v>1</v>
+      <c r="AQ10" s="3">
+        <v>0</v>
       </c>
       <c r="AR10" s="3">
         <v>0</v>
@@ -2713,17 +2465,17 @@
       <c r="AT10" s="3">
         <v>0</v>
       </c>
-      <c r="AU10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="3">
-        <v>0</v>
+      <c r="AU10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>1</v>
       </c>
       <c r="AW10" s="3">
         <v>0</v>
       </c>
-      <c r="AX10" s="3">
-        <v>0</v>
+      <c r="AX10" s="4">
+        <v>1</v>
       </c>
       <c r="AY10" s="3">
         <v>0</v>
@@ -2731,17 +2483,17 @@
       <c r="AZ10" s="4">
         <v>1</v>
       </c>
-      <c r="BA10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD10" s="3">
-        <v>0</v>
+      <c r="BA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="4">
+        <v>1</v>
       </c>
       <c r="BE10" s="3">
         <v>0</v>
@@ -2749,55 +2501,31 @@
       <c r="BF10" s="3">
         <v>0</v>
       </c>
-      <c r="BG10" s="4">
-        <v>1</v>
+      <c r="BG10" s="3">
+        <v>0</v>
       </c>
       <c r="BH10" s="3">
         <v>0</v>
       </c>
-      <c r="BI10" s="4">
-        <v>1</v>
+      <c r="BI10" s="3">
+        <v>0</v>
       </c>
       <c r="BJ10" s="3">
         <v>0</v>
       </c>
-      <c r="BK10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BL10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BU10" s="5">
+      <c r="BK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -2832,17 +2560,17 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>1</v>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
@@ -2850,14 +2578,14 @@
       <c r="R11" s="3">
         <v>0</v>
       </c>
-      <c r="S11" s="3">
-        <v>0</v>
+      <c r="S11" s="4">
+        <v>1</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="U11" s="4">
-        <v>1</v>
+      <c r="U11" s="3">
+        <v>0</v>
       </c>
       <c r="V11" s="3">
         <v>0</v>
@@ -2865,8 +2593,8 @@
       <c r="W11" s="3">
         <v>0</v>
       </c>
-      <c r="X11" s="3">
-        <v>0</v>
+      <c r="X11" s="4">
+        <v>1</v>
       </c>
       <c r="Y11" s="3">
         <v>0</v>
@@ -2874,8 +2602,8 @@
       <c r="Z11" s="3">
         <v>0</v>
       </c>
-      <c r="AA11" s="4">
-        <v>1</v>
+      <c r="AA11" s="3">
+        <v>0</v>
       </c>
       <c r="AB11" s="3">
         <v>0</v>
@@ -2892,8 +2620,8 @@
       <c r="AF11" s="3">
         <v>0</v>
       </c>
-      <c r="AG11" s="3">
-        <v>0</v>
+      <c r="AG11" s="4">
+        <v>1</v>
       </c>
       <c r="AH11" s="3">
         <v>0</v>
@@ -2904,8 +2632,8 @@
       <c r="AJ11" s="3">
         <v>0</v>
       </c>
-      <c r="AK11" s="4">
-        <v>1</v>
+      <c r="AK11" s="3">
+        <v>0</v>
       </c>
       <c r="AL11" s="3">
         <v>0</v>
@@ -2916,8 +2644,8 @@
       <c r="AN11" s="3">
         <v>0</v>
       </c>
-      <c r="AO11" s="3">
-        <v>0</v>
+      <c r="AO11" s="4">
+        <v>1</v>
       </c>
       <c r="AP11" s="3">
         <v>0</v>
@@ -2928,8 +2656,8 @@
       <c r="AR11" s="3">
         <v>0</v>
       </c>
-      <c r="AS11" s="4">
-        <v>1</v>
+      <c r="AS11" s="3">
+        <v>0</v>
       </c>
       <c r="AT11" s="3">
         <v>0</v>
@@ -2940,8 +2668,8 @@
       <c r="AV11" s="3">
         <v>0</v>
       </c>
-      <c r="AW11" s="3">
-        <v>0</v>
+      <c r="AW11" s="4">
+        <v>1</v>
       </c>
       <c r="AX11" s="3">
         <v>0</v>
@@ -2955,8 +2683,8 @@
       <c r="BA11" s="3">
         <v>0</v>
       </c>
-      <c r="BB11" s="4">
-        <v>1</v>
+      <c r="BB11" s="3">
+        <v>0</v>
       </c>
       <c r="BC11" s="3">
         <v>0</v>
@@ -2967,8 +2695,8 @@
       <c r="BE11" s="3">
         <v>0</v>
       </c>
-      <c r="BF11" s="3">
-        <v>0</v>
+      <c r="BF11" s="4">
+        <v>1</v>
       </c>
       <c r="BG11" s="3">
         <v>0</v>
@@ -2979,46 +2707,22 @@
       <c r="BI11" s="3">
         <v>0</v>
       </c>
-      <c r="BJ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="3">
-        <v>0</v>
+      <c r="BJ11" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="4">
+        <v>1</v>
       </c>
       <c r="BL11" s="3">
         <v>0</v>
       </c>
-      <c r="BM11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="5">
+      <c r="BM11" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -3053,35 +2757,35 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
       </c>
       <c r="P12" s="4">
         <v>1</v>
       </c>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
       </c>
       <c r="T12" s="4">
         <v>1</v>
       </c>
-      <c r="U12" s="4">
-        <v>1</v>
-      </c>
-      <c r="V12" s="4">
-        <v>1</v>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -3095,23 +2799,23 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0</v>
+      <c r="AA12" s="4">
+        <v>1</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>1</v>
+      <c r="AC12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
       </c>
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-      <c r="AF12" s="4">
-        <v>1</v>
+      <c r="AF12" s="3">
+        <v>0</v>
       </c>
       <c r="AG12" s="3">
         <v>0</v>
@@ -3119,8 +2823,8 @@
       <c r="AH12" s="3">
         <v>0</v>
       </c>
-      <c r="AI12" s="3">
-        <v>0</v>
+      <c r="AI12" s="4">
+        <v>1</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
@@ -3131,8 +2835,8 @@
       <c r="AL12" s="3">
         <v>0</v>
       </c>
-      <c r="AM12" s="4">
-        <v>1</v>
+      <c r="AM12" s="3">
+        <v>0</v>
       </c>
       <c r="AN12" s="3">
         <v>0</v>
@@ -3143,8 +2847,8 @@
       <c r="AP12" s="3">
         <v>0</v>
       </c>
-      <c r="AQ12" s="3">
-        <v>0</v>
+      <c r="AQ12" s="4">
+        <v>1</v>
       </c>
       <c r="AR12" s="3">
         <v>0</v>
@@ -3158,8 +2862,8 @@
       <c r="AU12" s="4">
         <v>1</v>
       </c>
-      <c r="AV12" s="3">
-        <v>0</v>
+      <c r="AV12" s="4">
+        <v>1</v>
       </c>
       <c r="AW12" s="3">
         <v>0</v>
@@ -3173,29 +2877,29 @@
       <c r="AZ12" s="4">
         <v>1</v>
       </c>
-      <c r="BA12" s="4">
-        <v>1</v>
+      <c r="BA12" s="3">
+        <v>0</v>
       </c>
       <c r="BB12" s="3">
         <v>0</v>
       </c>
-      <c r="BC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="3">
-        <v>0</v>
+      <c r="BC12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>1</v>
       </c>
       <c r="BF12" s="3">
         <v>0</v>
       </c>
-      <c r="BG12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="3">
-        <v>0</v>
+      <c r="BG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="4">
+        <v>1</v>
       </c>
       <c r="BI12" s="3">
         <v>0</v>
@@ -3206,40 +2910,16 @@
       <c r="BK12" s="4">
         <v>1</v>
       </c>
-      <c r="BL12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU12" s="5">
+      <c r="BL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -3274,32 +2954,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>1</v>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
       </c>
       <c r="R13" s="3">
         <v>0</v>
       </c>
-      <c r="S13" s="3">
-        <v>0</v>
+      <c r="S13" s="4">
+        <v>1</v>
       </c>
       <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="U13" s="4">
-        <v>1</v>
+      <c r="U13" s="3">
+        <v>0</v>
       </c>
       <c r="V13" s="3">
         <v>0</v>
@@ -3316,17 +2996,17 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-      <c r="AA13" s="3">
-        <v>0</v>
+      <c r="AA13" s="4">
+        <v>1</v>
       </c>
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>1</v>
+      <c r="AC13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
       </c>
       <c r="AE13" s="3">
         <v>0</v>
@@ -3343,8 +3023,8 @@
       <c r="AI13" s="3">
         <v>0</v>
       </c>
-      <c r="AJ13" s="4">
-        <v>1</v>
+      <c r="AJ13" s="3">
+        <v>0</v>
       </c>
       <c r="AK13" s="3">
         <v>0</v>
@@ -3355,8 +3035,8 @@
       <c r="AM13" s="3">
         <v>0</v>
       </c>
-      <c r="AN13" s="3">
-        <v>0</v>
+      <c r="AN13" s="4">
+        <v>1</v>
       </c>
       <c r="AO13" s="3">
         <v>0</v>
@@ -3367,8 +3047,8 @@
       <c r="AQ13" s="3">
         <v>0</v>
       </c>
-      <c r="AR13" s="4">
-        <v>1</v>
+      <c r="AR13" s="3">
+        <v>0</v>
       </c>
       <c r="AS13" s="3">
         <v>0</v>
@@ -3382,8 +3062,8 @@
       <c r="AV13" s="3">
         <v>0</v>
       </c>
-      <c r="AW13" s="3">
-        <v>0</v>
+      <c r="AW13" s="4">
+        <v>1</v>
       </c>
       <c r="AX13" s="3">
         <v>0</v>
@@ -3391,8 +3071,8 @@
       <c r="AY13" s="3">
         <v>0</v>
       </c>
-      <c r="AZ13" s="3">
-        <v>0</v>
+      <c r="AZ13" s="4">
+        <v>1</v>
       </c>
       <c r="BA13" s="3">
         <v>0</v>
@@ -3412,55 +3092,31 @@
       <c r="BF13" s="3">
         <v>0</v>
       </c>
-      <c r="BG13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="3">
-        <v>0</v>
+      <c r="BG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="4">
+        <v>1</v>
       </c>
       <c r="BL13" s="3">
         <v>0</v>
       </c>
-      <c r="BM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU13" s="5">
+      <c r="BM13" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -3495,17 +3151,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>1</v>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -3513,20 +3169,20 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="4">
+        <v>1</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="4">
-        <v>1</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="4">
+        <v>1</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -3534,8 +3190,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="4">
-        <v>1</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -3555,8 +3211,8 @@
       <c r="AF14" s="3">
         <v>0</v>
       </c>
-      <c r="AG14" s="3">
-        <v>0</v>
+      <c r="AG14" s="4">
+        <v>1</v>
       </c>
       <c r="AH14" s="3">
         <v>0</v>
@@ -3567,8 +3223,8 @@
       <c r="AJ14" s="3">
         <v>0</v>
       </c>
-      <c r="AK14" s="4">
-        <v>1</v>
+      <c r="AK14" s="3">
+        <v>0</v>
       </c>
       <c r="AL14" s="3">
         <v>0</v>
@@ -3579,8 +3235,8 @@
       <c r="AN14" s="3">
         <v>0</v>
       </c>
-      <c r="AO14" s="3">
-        <v>0</v>
+      <c r="AO14" s="4">
+        <v>1</v>
       </c>
       <c r="AP14" s="3">
         <v>0</v>
@@ -3591,8 +3247,8 @@
       <c r="AR14" s="3">
         <v>0</v>
       </c>
-      <c r="AS14" s="4">
-        <v>1</v>
+      <c r="AS14" s="3">
+        <v>0</v>
       </c>
       <c r="AT14" s="3">
         <v>0</v>
@@ -3603,8 +3259,8 @@
       <c r="AV14" s="3">
         <v>0</v>
       </c>
-      <c r="AW14" s="3">
-        <v>0</v>
+      <c r="AW14" s="4">
+        <v>1</v>
       </c>
       <c r="AX14" s="3">
         <v>0</v>
@@ -3618,8 +3274,8 @@
       <c r="BA14" s="3">
         <v>0</v>
       </c>
-      <c r="BB14" s="4">
-        <v>1</v>
+      <c r="BB14" s="3">
+        <v>0</v>
       </c>
       <c r="BC14" s="3">
         <v>0</v>
@@ -3630,8 +3286,8 @@
       <c r="BE14" s="3">
         <v>0</v>
       </c>
-      <c r="BF14" s="3">
-        <v>0</v>
+      <c r="BF14" s="4">
+        <v>1</v>
       </c>
       <c r="BG14" s="3">
         <v>0</v>
@@ -3642,8 +3298,8 @@
       <c r="BI14" s="3">
         <v>0</v>
       </c>
-      <c r="BJ14" s="3">
-        <v>0</v>
+      <c r="BJ14" s="4">
+        <v>1</v>
       </c>
       <c r="BK14" s="3">
         <v>0</v>
@@ -3651,37 +3307,13 @@
       <c r="BL14" s="3">
         <v>0</v>
       </c>
-      <c r="BM14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN14" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR14" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU14" s="5">
+      <c r="BM14" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -3716,17 +3348,17 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1</v>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -3734,14 +3366,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="4">
+        <v>1</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="4">
-        <v>1</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -3758,26 +3390,26 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="AA15" s="4">
+        <v>1</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="4">
-        <v>1</v>
+      <c r="AC15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
       </c>
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-      <c r="AF15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>0</v>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>1</v>
       </c>
       <c r="AH15" s="3">
         <v>0</v>
@@ -3788,8 +3420,8 @@
       <c r="AJ15" s="3">
         <v>0</v>
       </c>
-      <c r="AK15" s="4">
-        <v>1</v>
+      <c r="AK15" s="3">
+        <v>0</v>
       </c>
       <c r="AL15" s="3">
         <v>0</v>
@@ -3800,8 +3432,8 @@
       <c r="AN15" s="3">
         <v>0</v>
       </c>
-      <c r="AO15" s="3">
-        <v>0</v>
+      <c r="AO15" s="4">
+        <v>1</v>
       </c>
       <c r="AP15" s="3">
         <v>0</v>
@@ -3812,8 +3444,8 @@
       <c r="AR15" s="3">
         <v>0</v>
       </c>
-      <c r="AS15" s="4">
-        <v>1</v>
+      <c r="AS15" s="3">
+        <v>0</v>
       </c>
       <c r="AT15" s="3">
         <v>0</v>
@@ -3824,8 +3456,8 @@
       <c r="AV15" s="3">
         <v>0</v>
       </c>
-      <c r="AW15" s="3">
-        <v>0</v>
+      <c r="AW15" s="4">
+        <v>1</v>
       </c>
       <c r="AX15" s="3">
         <v>0</v>
@@ -3839,8 +3471,8 @@
       <c r="BA15" s="3">
         <v>0</v>
       </c>
-      <c r="BB15" s="4">
-        <v>1</v>
+      <c r="BB15" s="3">
+        <v>0</v>
       </c>
       <c r="BC15" s="3">
         <v>0</v>
@@ -3851,20 +3483,20 @@
       <c r="BE15" s="3">
         <v>0</v>
       </c>
-      <c r="BF15" s="3">
-        <v>0</v>
+      <c r="BF15" s="4">
+        <v>1</v>
       </c>
       <c r="BG15" s="3">
         <v>0</v>
       </c>
-      <c r="BH15" s="3">
-        <v>0</v>
+      <c r="BH15" s="4">
+        <v>1</v>
       </c>
       <c r="BI15" s="3">
         <v>0</v>
       </c>
-      <c r="BJ15" s="3">
-        <v>0</v>
+      <c r="BJ15" s="4">
+        <v>1</v>
       </c>
       <c r="BK15" s="3">
         <v>0</v>
@@ -3872,37 +3504,13 @@
       <c r="BL15" s="3">
         <v>0</v>
       </c>
-      <c r="BM15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN15" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP15" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR15" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU15" s="5">
+      <c r="BM15" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -3937,11 +3545,11 @@
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
       </c>
       <c r="O16" s="3">
         <v>0</v>
@@ -3958,17 +3566,17 @@
       <c r="S16" s="3">
         <v>0</v>
       </c>
-      <c r="T16" s="3">
-        <v>0</v>
+      <c r="T16" s="4">
+        <v>1</v>
       </c>
       <c r="U16" s="3">
         <v>0</v>
       </c>
-      <c r="V16" s="4">
-        <v>1</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1</v>
       </c>
       <c r="X16" s="3">
         <v>0</v>
@@ -3976,8 +3584,8 @@
       <c r="Y16" s="3">
         <v>0</v>
       </c>
-      <c r="Z16" s="4">
-        <v>1</v>
+      <c r="Z16" s="3">
+        <v>0</v>
       </c>
       <c r="AA16" s="3">
         <v>0</v>
@@ -3994,8 +3602,8 @@
       <c r="AE16" s="3">
         <v>0</v>
       </c>
-      <c r="AF16" s="3">
-        <v>0</v>
+      <c r="AF16" s="4">
+        <v>1</v>
       </c>
       <c r="AG16" s="3">
         <v>0</v>
@@ -4006,8 +3614,8 @@
       <c r="AI16" s="3">
         <v>0</v>
       </c>
-      <c r="AJ16" s="4">
-        <v>1</v>
+      <c r="AJ16" s="3">
+        <v>0</v>
       </c>
       <c r="AK16" s="3">
         <v>0</v>
@@ -4018,8 +3626,8 @@
       <c r="AM16" s="3">
         <v>0</v>
       </c>
-      <c r="AN16" s="3">
-        <v>0</v>
+      <c r="AN16" s="4">
+        <v>1</v>
       </c>
       <c r="AO16" s="3">
         <v>0</v>
@@ -4030,8 +3638,8 @@
       <c r="AQ16" s="3">
         <v>0</v>
       </c>
-      <c r="AR16" s="4">
-        <v>1</v>
+      <c r="AR16" s="3">
+        <v>0</v>
       </c>
       <c r="AS16" s="3">
         <v>0</v>
@@ -4045,8 +3653,8 @@
       <c r="AV16" s="3">
         <v>0</v>
       </c>
-      <c r="AW16" s="3">
-        <v>0</v>
+      <c r="AW16" s="4">
+        <v>1</v>
       </c>
       <c r="AX16" s="3">
         <v>0</v>
@@ -4060,8 +3668,8 @@
       <c r="BA16" s="3">
         <v>0</v>
       </c>
-      <c r="BB16" s="4">
-        <v>1</v>
+      <c r="BB16" s="3">
+        <v>0</v>
       </c>
       <c r="BC16" s="3">
         <v>0</v>
@@ -4072,14 +3680,14 @@
       <c r="BE16" s="3">
         <v>0</v>
       </c>
-      <c r="BF16" s="3">
-        <v>0</v>
+      <c r="BF16" s="4">
+        <v>1</v>
       </c>
       <c r="BG16" s="3">
         <v>0</v>
       </c>
-      <c r="BH16" s="3">
-        <v>0</v>
+      <c r="BH16" s="4">
+        <v>1</v>
       </c>
       <c r="BI16" s="3">
         <v>0</v>
@@ -4087,43 +3695,19 @@
       <c r="BJ16" s="3">
         <v>0</v>
       </c>
-      <c r="BK16" s="3">
-        <v>0</v>
+      <c r="BK16" s="4">
+        <v>1</v>
       </c>
       <c r="BL16" s="3">
         <v>0</v>
       </c>
-      <c r="BM16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN16" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP16" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS16" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU16" s="5">
+      <c r="BM16" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -4158,11 +3742,11 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1</v>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -4179,17 +3763,17 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
+      <c r="T17" s="4">
+        <v>1</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
-      <c r="V17" s="4">
-        <v>1</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>1</v>
       </c>
       <c r="X17" s="3">
         <v>0</v>
@@ -4197,8 +3781,8 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-      <c r="Z17" s="4">
-        <v>1</v>
+      <c r="Z17" s="3">
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
@@ -4215,8 +3799,8 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-      <c r="AF17" s="3">
-        <v>0</v>
+      <c r="AF17" s="4">
+        <v>1</v>
       </c>
       <c r="AG17" s="3">
         <v>0</v>
@@ -4227,8 +3811,8 @@
       <c r="AI17" s="3">
         <v>0</v>
       </c>
-      <c r="AJ17" s="4">
-        <v>1</v>
+      <c r="AJ17" s="3">
+        <v>0</v>
       </c>
       <c r="AK17" s="3">
         <v>0</v>
@@ -4239,8 +3823,8 @@
       <c r="AM17" s="3">
         <v>0</v>
       </c>
-      <c r="AN17" s="3">
-        <v>0</v>
+      <c r="AN17" s="4">
+        <v>1</v>
       </c>
       <c r="AO17" s="3">
         <v>0</v>
@@ -4251,8 +3835,8 @@
       <c r="AQ17" s="3">
         <v>0</v>
       </c>
-      <c r="AR17" s="4">
-        <v>1</v>
+      <c r="AR17" s="3">
+        <v>0</v>
       </c>
       <c r="AS17" s="3">
         <v>0</v>
@@ -4266,8 +3850,8 @@
       <c r="AV17" s="3">
         <v>0</v>
       </c>
-      <c r="AW17" s="3">
-        <v>0</v>
+      <c r="AW17" s="4">
+        <v>1</v>
       </c>
       <c r="AX17" s="3">
         <v>0</v>
@@ -4281,8 +3865,8 @@
       <c r="BA17" s="3">
         <v>0</v>
       </c>
-      <c r="BB17" s="4">
-        <v>1</v>
+      <c r="BB17" s="3">
+        <v>0</v>
       </c>
       <c r="BC17" s="3">
         <v>0</v>
@@ -4293,14 +3877,14 @@
       <c r="BE17" s="3">
         <v>0</v>
       </c>
-      <c r="BF17" s="3">
-        <v>0</v>
+      <c r="BF17" s="4">
+        <v>1</v>
       </c>
       <c r="BG17" s="3">
         <v>0</v>
       </c>
-      <c r="BH17" s="3">
-        <v>0</v>
+      <c r="BH17" s="4">
+        <v>1</v>
       </c>
       <c r="BI17" s="3">
         <v>0</v>
@@ -4314,37 +3898,13 @@
       <c r="BL17" s="3">
         <v>0</v>
       </c>
-      <c r="BM17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN17" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP17" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU17" s="5">
+      <c r="BM17" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -4379,17 +3939,17 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>1</v>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -4397,14 +3957,14 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
+      <c r="S18" s="4">
+        <v>1</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="4">
-        <v>1</v>
+      <c r="U18" s="3">
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -4427,8 +3987,8 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
+      <c r="AC18" s="4">
+        <v>1</v>
       </c>
       <c r="AD18" s="3">
         <v>0</v>
@@ -4436,8 +3996,8 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-      <c r="AF18" s="4">
-        <v>1</v>
+      <c r="AF18" s="3">
+        <v>0</v>
       </c>
       <c r="AG18" s="3">
         <v>0</v>
@@ -4445,8 +4005,8 @@
       <c r="AH18" s="3">
         <v>0</v>
       </c>
-      <c r="AI18" s="3">
-        <v>0</v>
+      <c r="AI18" s="4">
+        <v>1</v>
       </c>
       <c r="AJ18" s="3">
         <v>0</v>
@@ -4457,8 +4017,8 @@
       <c r="AL18" s="3">
         <v>0</v>
       </c>
-      <c r="AM18" s="4">
-        <v>1</v>
+      <c r="AM18" s="3">
+        <v>0</v>
       </c>
       <c r="AN18" s="3">
         <v>0</v>
@@ -4469,8 +4029,8 @@
       <c r="AP18" s="3">
         <v>0</v>
       </c>
-      <c r="AQ18" s="3">
-        <v>0</v>
+      <c r="AQ18" s="4">
+        <v>1</v>
       </c>
       <c r="AR18" s="3">
         <v>0</v>
@@ -4490,8 +4050,8 @@
       <c r="AW18" s="3">
         <v>0</v>
       </c>
-      <c r="AX18" s="3">
-        <v>0</v>
+      <c r="AX18" s="4">
+        <v>1</v>
       </c>
       <c r="AY18" s="3">
         <v>0</v>
@@ -4499,17 +4059,17 @@
       <c r="AZ18" s="4">
         <v>1</v>
       </c>
-      <c r="BA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="3">
-        <v>0</v>
+      <c r="BA18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="4">
+        <v>1</v>
       </c>
       <c r="BE18" s="3">
         <v>0</v>
@@ -4517,11 +4077,11 @@
       <c r="BF18" s="3">
         <v>0</v>
       </c>
-      <c r="BG18" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH18" s="4">
-        <v>1</v>
+      <c r="BG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="3">
+        <v>0</v>
       </c>
       <c r="BI18" s="4">
         <v>1</v>
@@ -4529,43 +4089,19 @@
       <c r="BJ18" s="3">
         <v>0</v>
       </c>
-      <c r="BK18" s="4">
-        <v>1</v>
+      <c r="BK18" s="3">
+        <v>0</v>
       </c>
       <c r="BL18" s="3">
         <v>0</v>
       </c>
-      <c r="BM18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ18" s="4">
-        <v>1</v>
-      </c>
-      <c r="BR18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU18" s="5">
+      <c r="BM18" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -4606,11 +4142,11 @@
       <c r="N19" s="3">
         <v>0</v>
       </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1</v>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -4618,17 +4154,17 @@
       <c r="R19" s="3">
         <v>0</v>
       </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>1</v>
-      </c>
-      <c r="V19" s="4">
-        <v>1</v>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
       </c>
       <c r="W19" s="3">
         <v>0</v>
@@ -4648,8 +4184,8 @@
       <c r="AB19" s="3">
         <v>0</v>
       </c>
-      <c r="AC19" s="3">
-        <v>0</v>
+      <c r="AC19" s="4">
+        <v>1</v>
       </c>
       <c r="AD19" s="3">
         <v>0</v>
@@ -4657,11 +4193,11 @@
       <c r="AE19" s="3">
         <v>0</v>
       </c>
-      <c r="AF19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="3">
-        <v>0</v>
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>1</v>
       </c>
       <c r="AH19" s="3">
         <v>0</v>
@@ -4672,8 +4208,8 @@
       <c r="AJ19" s="3">
         <v>0</v>
       </c>
-      <c r="AK19" s="4">
-        <v>1</v>
+      <c r="AK19" s="3">
+        <v>0</v>
       </c>
       <c r="AL19" s="3">
         <v>0</v>
@@ -4684,8 +4220,8 @@
       <c r="AN19" s="3">
         <v>0</v>
       </c>
-      <c r="AO19" s="3">
-        <v>0</v>
+      <c r="AO19" s="4">
+        <v>1</v>
       </c>
       <c r="AP19" s="3">
         <v>0</v>
@@ -4696,8 +4232,8 @@
       <c r="AR19" s="3">
         <v>0</v>
       </c>
-      <c r="AS19" s="4">
-        <v>1</v>
+      <c r="AS19" s="3">
+        <v>0</v>
       </c>
       <c r="AT19" s="3">
         <v>0</v>
@@ -4708,8 +4244,8 @@
       <c r="AV19" s="3">
         <v>0</v>
       </c>
-      <c r="AW19" s="3">
-        <v>0</v>
+      <c r="AW19" s="4">
+        <v>1</v>
       </c>
       <c r="AX19" s="3">
         <v>0</v>
@@ -4723,8 +4259,8 @@
       <c r="BA19" s="3">
         <v>0</v>
       </c>
-      <c r="BB19" s="4">
-        <v>1</v>
+      <c r="BB19" s="3">
+        <v>0</v>
       </c>
       <c r="BC19" s="3">
         <v>0</v>
@@ -4735,8 +4271,8 @@
       <c r="BE19" s="3">
         <v>0</v>
       </c>
-      <c r="BF19" s="3">
-        <v>0</v>
+      <c r="BF19" s="4">
+        <v>1</v>
       </c>
       <c r="BG19" s="3">
         <v>0</v>
@@ -4747,8 +4283,8 @@
       <c r="BI19" s="3">
         <v>0</v>
       </c>
-      <c r="BJ19" s="3">
-        <v>0</v>
+      <c r="BJ19" s="4">
+        <v>1</v>
       </c>
       <c r="BK19" s="3">
         <v>0</v>
@@ -4756,37 +4292,13 @@
       <c r="BL19" s="3">
         <v>0</v>
       </c>
-      <c r="BM19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN19" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR19" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU19" s="5">
+      <c r="BM19" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -4821,17 +4333,17 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>1</v>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -4839,14 +4351,14 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="S20" s="4">
+        <v>1</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="4">
-        <v>1</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -4863,23 +4375,23 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
+      <c r="AA20" s="4">
+        <v>1</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="4">
-        <v>1</v>
+      <c r="AC20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-      <c r="AF20" s="4">
-        <v>1</v>
+      <c r="AF20" s="3">
+        <v>0</v>
       </c>
       <c r="AG20" s="3">
         <v>0</v>
@@ -4893,8 +4405,8 @@
       <c r="AJ20" s="3">
         <v>0</v>
       </c>
-      <c r="AK20" s="3">
-        <v>0</v>
+      <c r="AK20" s="4">
+        <v>1</v>
       </c>
       <c r="AL20" s="3">
         <v>0</v>
@@ -4905,8 +4417,8 @@
       <c r="AN20" s="3">
         <v>0</v>
       </c>
-      <c r="AO20" s="4">
-        <v>1</v>
+      <c r="AO20" s="3">
+        <v>0</v>
       </c>
       <c r="AP20" s="3">
         <v>0</v>
@@ -4917,20 +4429,20 @@
       <c r="AR20" s="3">
         <v>0</v>
       </c>
-      <c r="AS20" s="3">
-        <v>0</v>
+      <c r="AS20" s="4">
+        <v>1</v>
       </c>
       <c r="AT20" s="3">
         <v>0</v>
       </c>
-      <c r="AU20" s="3">
-        <v>0</v>
+      <c r="AU20" s="4">
+        <v>1</v>
       </c>
       <c r="AV20" s="3">
         <v>0</v>
       </c>
-      <c r="AW20" s="4">
-        <v>1</v>
+      <c r="AW20" s="3">
+        <v>0</v>
       </c>
       <c r="AX20" s="3">
         <v>0</v>
@@ -4941,17 +4453,17 @@
       <c r="AZ20" s="4">
         <v>1</v>
       </c>
-      <c r="BA20" s="3">
-        <v>0</v>
+      <c r="BA20" s="4">
+        <v>1</v>
       </c>
       <c r="BB20" s="3">
         <v>0</v>
       </c>
-      <c r="BC20" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD20" s="3">
-        <v>0</v>
+      <c r="BC20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="4">
+        <v>1</v>
       </c>
       <c r="BE20" s="3">
         <v>0</v>
@@ -4959,8 +4471,8 @@
       <c r="BF20" s="3">
         <v>0</v>
       </c>
-      <c r="BG20" s="4">
-        <v>1</v>
+      <c r="BG20" s="3">
+        <v>0</v>
       </c>
       <c r="BH20" s="4">
         <v>1</v>
@@ -4977,37 +4489,13 @@
       <c r="BL20" s="3">
         <v>0</v>
       </c>
-      <c r="BM20" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN20" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO20" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP20" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ20" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR20" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS20" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT20" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU20" s="5">
+      <c r="BM20" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -5042,17 +4530,17 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>1</v>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -5060,20 +4548,20 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
+      <c r="S21" s="4">
+        <v>1</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="U21" s="4">
-        <v>1</v>
+      <c r="U21" s="3">
+        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
+      <c r="W21" s="4">
+        <v>1</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -5081,8 +4569,8 @@
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-      <c r="Z21" s="4">
-        <v>1</v>
+      <c r="Z21" s="3">
+        <v>0</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
@@ -5102,8 +4590,8 @@
       <c r="AF21" s="3">
         <v>0</v>
       </c>
-      <c r="AG21" s="3">
-        <v>0</v>
+      <c r="AG21" s="4">
+        <v>1</v>
       </c>
       <c r="AH21" s="3">
         <v>0</v>
@@ -5114,8 +4602,8 @@
       <c r="AJ21" s="3">
         <v>0</v>
       </c>
-      <c r="AK21" s="4">
-        <v>1</v>
+      <c r="AK21" s="3">
+        <v>0</v>
       </c>
       <c r="AL21" s="3">
         <v>0</v>
@@ -5126,8 +4614,8 @@
       <c r="AN21" s="3">
         <v>0</v>
       </c>
-      <c r="AO21" s="3">
-        <v>0</v>
+      <c r="AO21" s="4">
+        <v>1</v>
       </c>
       <c r="AP21" s="3">
         <v>0</v>
@@ -5138,8 +4626,8 @@
       <c r="AR21" s="3">
         <v>0</v>
       </c>
-      <c r="AS21" s="4">
-        <v>1</v>
+      <c r="AS21" s="3">
+        <v>0</v>
       </c>
       <c r="AT21" s="3">
         <v>0</v>
@@ -5150,8 +4638,8 @@
       <c r="AV21" s="3">
         <v>0</v>
       </c>
-      <c r="AW21" s="3">
-        <v>0</v>
+      <c r="AW21" s="4">
+        <v>1</v>
       </c>
       <c r="AX21" s="3">
         <v>0</v>
@@ -5165,8 +4653,8 @@
       <c r="BA21" s="3">
         <v>0</v>
       </c>
-      <c r="BB21" s="4">
-        <v>1</v>
+      <c r="BB21" s="3">
+        <v>0</v>
       </c>
       <c r="BC21" s="3">
         <v>0</v>
@@ -5177,14 +4665,14 @@
       <c r="BE21" s="3">
         <v>0</v>
       </c>
-      <c r="BF21" s="3">
-        <v>0</v>
+      <c r="BF21" s="4">
+        <v>1</v>
       </c>
       <c r="BG21" s="3">
         <v>0</v>
       </c>
-      <c r="BH21" s="3">
-        <v>0</v>
+      <c r="BH21" s="4">
+        <v>1</v>
       </c>
       <c r="BI21" s="3">
         <v>0</v>
@@ -5198,37 +4686,13 @@
       <c r="BL21" s="3">
         <v>0</v>
       </c>
-      <c r="BM21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN21" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP21" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU21" s="5">
+      <c r="BM21" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -5263,17 +4727,17 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>1</v>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -5281,38 +4745,38 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="4">
+        <v>1</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="4">
-        <v>1</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="W22" s="4">
+        <v>1</v>
+      </c>
+      <c r="X22" s="4">
+        <v>1</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>1</v>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
+      <c r="AC22" s="4">
+        <v>1</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
@@ -5320,11 +4784,11 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-      <c r="AF22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>0</v>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>1</v>
       </c>
       <c r="AH22" s="3">
         <v>0</v>
@@ -5335,8 +4799,8 @@
       <c r="AJ22" s="3">
         <v>0</v>
       </c>
-      <c r="AK22" s="4">
-        <v>1</v>
+      <c r="AK22" s="3">
+        <v>0</v>
       </c>
       <c r="AL22" s="3">
         <v>0</v>
@@ -5347,8 +4811,8 @@
       <c r="AN22" s="3">
         <v>0</v>
       </c>
-      <c r="AO22" s="3">
-        <v>0</v>
+      <c r="AO22" s="4">
+        <v>1</v>
       </c>
       <c r="AP22" s="3">
         <v>0</v>
@@ -5359,38 +4823,38 @@
       <c r="AR22" s="3">
         <v>0</v>
       </c>
-      <c r="AS22" s="4">
-        <v>1</v>
+      <c r="AS22" s="3">
+        <v>0</v>
       </c>
       <c r="AT22" s="3">
         <v>0</v>
       </c>
-      <c r="AU22" s="3">
-        <v>0</v>
+      <c r="AU22" s="4">
+        <v>1</v>
       </c>
       <c r="AV22" s="3">
         <v>0</v>
       </c>
-      <c r="AW22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="3">
-        <v>0</v>
+      <c r="AW22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="4">
+        <v>1</v>
       </c>
       <c r="AY22" s="3">
         <v>0</v>
       </c>
-      <c r="AZ22" s="4">
-        <v>1</v>
+      <c r="AZ22" s="3">
+        <v>0</v>
       </c>
       <c r="BA22" s="3">
         <v>0</v>
       </c>
-      <c r="BB22" s="4">
-        <v>1</v>
-      </c>
-      <c r="BC22" s="4">
-        <v>1</v>
+      <c r="BB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="3">
+        <v>0</v>
       </c>
       <c r="BD22" s="3">
         <v>0</v>
@@ -5398,14 +4862,14 @@
       <c r="BE22" s="3">
         <v>0</v>
       </c>
-      <c r="BF22" s="3">
-        <v>0</v>
+      <c r="BF22" s="4">
+        <v>1</v>
       </c>
       <c r="BG22" s="3">
         <v>0</v>
       </c>
-      <c r="BH22" s="3">
-        <v>0</v>
+      <c r="BH22" s="4">
+        <v>1</v>
       </c>
       <c r="BI22" s="3">
         <v>0</v>
@@ -5419,37 +4883,13 @@
       <c r="BL22" s="3">
         <v>0</v>
       </c>
-      <c r="BM22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN22" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP22" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU22" s="5">
+      <c r="BM22" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -5490,11 +4930,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
-        <v>1</v>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -5502,20 +4942,20 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
+      <c r="S23" s="4">
+        <v>1</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="U23" s="4">
-        <v>1</v>
+      <c r="U23" s="3">
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
+      <c r="W23" s="4">
+        <v>1</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -5523,8 +4963,8 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-      <c r="Z23" s="4">
-        <v>1</v>
+      <c r="Z23" s="3">
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
@@ -5547,8 +4987,8 @@
       <c r="AG23" s="3">
         <v>0</v>
       </c>
-      <c r="AH23" s="3">
-        <v>0</v>
+      <c r="AH23" s="4">
+        <v>1</v>
       </c>
       <c r="AI23" s="3">
         <v>0</v>
@@ -5559,8 +4999,8 @@
       <c r="AK23" s="3">
         <v>0</v>
       </c>
-      <c r="AL23" s="4">
-        <v>1</v>
+      <c r="AL23" s="3">
+        <v>0</v>
       </c>
       <c r="AM23" s="3">
         <v>0</v>
@@ -5571,8 +5011,8 @@
       <c r="AO23" s="3">
         <v>0</v>
       </c>
-      <c r="AP23" s="3">
-        <v>0</v>
+      <c r="AP23" s="4">
+        <v>1</v>
       </c>
       <c r="AQ23" s="3">
         <v>0</v>
@@ -5583,8 +5023,8 @@
       <c r="AS23" s="3">
         <v>0</v>
       </c>
-      <c r="AT23" s="4">
-        <v>1</v>
+      <c r="AT23" s="3">
+        <v>0</v>
       </c>
       <c r="AU23" s="3">
         <v>0</v>
@@ -5592,8 +5032,8 @@
       <c r="AV23" s="3">
         <v>0</v>
       </c>
-      <c r="AW23" s="3">
-        <v>0</v>
+      <c r="AW23" s="4">
+        <v>1</v>
       </c>
       <c r="AX23" s="3">
         <v>0</v>
@@ -5607,8 +5047,8 @@
       <c r="BA23" s="3">
         <v>0</v>
       </c>
-      <c r="BB23" s="4">
-        <v>1</v>
+      <c r="BB23" s="3">
+        <v>0</v>
       </c>
       <c r="BC23" s="3">
         <v>0</v>
@@ -5619,20 +5059,20 @@
       <c r="BE23" s="3">
         <v>0</v>
       </c>
-      <c r="BF23" s="3">
-        <v>0</v>
+      <c r="BF23" s="4">
+        <v>1</v>
       </c>
       <c r="BG23" s="3">
         <v>0</v>
       </c>
-      <c r="BH23" s="3">
-        <v>0</v>
+      <c r="BH23" s="4">
+        <v>1</v>
       </c>
       <c r="BI23" s="3">
         <v>0</v>
       </c>
-      <c r="BJ23" s="3">
-        <v>0</v>
+      <c r="BJ23" s="4">
+        <v>1</v>
       </c>
       <c r="BK23" s="3">
         <v>0</v>
@@ -5640,37 +5080,13 @@
       <c r="BL23" s="3">
         <v>0</v>
       </c>
-      <c r="BM23" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN23" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO23" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP23" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ23" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR23" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS23" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT23" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU23" s="5">
+      <c r="BM23" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -5705,17 +5121,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <v>1</v>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -5723,14 +5139,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="4">
+        <v>1</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="4">
-        <v>1</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -5738,8 +5154,8 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="X24" s="4">
+        <v>1</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -5747,8 +5163,8 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="4">
-        <v>1</v>
+      <c r="AA24" s="3">
+        <v>0</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
@@ -5768,8 +5184,8 @@
       <c r="AG24" s="3">
         <v>0</v>
       </c>
-      <c r="AH24" s="3">
-        <v>0</v>
+      <c r="AH24" s="4">
+        <v>1</v>
       </c>
       <c r="AI24" s="3">
         <v>0</v>
@@ -5780,8 +5196,8 @@
       <c r="AK24" s="3">
         <v>0</v>
       </c>
-      <c r="AL24" s="4">
-        <v>1</v>
+      <c r="AL24" s="3">
+        <v>0</v>
       </c>
       <c r="AM24" s="3">
         <v>0</v>
@@ -5792,8 +5208,8 @@
       <c r="AO24" s="3">
         <v>0</v>
       </c>
-      <c r="AP24" s="3">
-        <v>0</v>
+      <c r="AP24" s="4">
+        <v>1</v>
       </c>
       <c r="AQ24" s="3">
         <v>0</v>
@@ -5804,8 +5220,8 @@
       <c r="AS24" s="3">
         <v>0</v>
       </c>
-      <c r="AT24" s="4">
-        <v>1</v>
+      <c r="AT24" s="3">
+        <v>0</v>
       </c>
       <c r="AU24" s="3">
         <v>0</v>
@@ -5813,8 +5229,8 @@
       <c r="AV24" s="3">
         <v>0</v>
       </c>
-      <c r="AW24" s="3">
-        <v>0</v>
+      <c r="AW24" s="4">
+        <v>1</v>
       </c>
       <c r="AX24" s="3">
         <v>0</v>
@@ -5828,8 +5244,8 @@
       <c r="BA24" s="3">
         <v>0</v>
       </c>
-      <c r="BB24" s="4">
-        <v>1</v>
+      <c r="BB24" s="3">
+        <v>0</v>
       </c>
       <c r="BC24" s="3">
         <v>0</v>
@@ -5840,20 +5256,20 @@
       <c r="BE24" s="3">
         <v>0</v>
       </c>
-      <c r="BF24" s="3">
-        <v>0</v>
+      <c r="BF24" s="4">
+        <v>1</v>
       </c>
       <c r="BG24" s="3">
         <v>0</v>
       </c>
-      <c r="BH24" s="3">
-        <v>0</v>
+      <c r="BH24" s="4">
+        <v>1</v>
       </c>
       <c r="BI24" s="3">
         <v>0</v>
       </c>
-      <c r="BJ24" s="3">
-        <v>0</v>
+      <c r="BJ24" s="4">
+        <v>1</v>
       </c>
       <c r="BK24" s="3">
         <v>0</v>
@@ -5861,37 +5277,13 @@
       <c r="BL24" s="3">
         <v>0</v>
       </c>
-      <c r="BM24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN24" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP24" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR24" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU24" s="5">
+      <c r="BM24" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -5926,11 +5318,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1</v>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
       </c>
       <c r="O25" s="3">
         <v>0</v>
@@ -5941,32 +5333,32 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0</v>
-      </c>
-      <c r="T25" s="4">
-        <v>1</v>
-      </c>
-      <c r="U25" s="4">
-        <v>1</v>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
       </c>
       <c r="V25" s="3">
         <v>0</v>
       </c>
-      <c r="W25" s="3">
-        <v>0</v>
+      <c r="W25" s="4">
+        <v>1</v>
       </c>
       <c r="X25" s="3">
         <v>0</v>
       </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>1</v>
+      <c r="Y25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
       </c>
       <c r="AA25" s="3">
         <v>0</v>
@@ -5980,8 +5372,8 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-      <c r="AE25" s="4">
-        <v>1</v>
+      <c r="AE25" s="3">
+        <v>0</v>
       </c>
       <c r="AF25" s="3">
         <v>0</v>
@@ -5998,8 +5390,8 @@
       <c r="AJ25" s="3">
         <v>0</v>
       </c>
-      <c r="AK25" s="3">
-        <v>0</v>
+      <c r="AK25" s="4">
+        <v>1</v>
       </c>
       <c r="AL25" s="3">
         <v>0</v>
@@ -6010,8 +5402,8 @@
       <c r="AN25" s="3">
         <v>0</v>
       </c>
-      <c r="AO25" s="4">
-        <v>1</v>
+      <c r="AO25" s="3">
+        <v>0</v>
       </c>
       <c r="AP25" s="3">
         <v>0</v>
@@ -6019,8 +5411,8 @@
       <c r="AQ25" s="3">
         <v>0</v>
       </c>
-      <c r="AR25" s="3">
-        <v>0</v>
+      <c r="AR25" s="4">
+        <v>1</v>
       </c>
       <c r="AS25" s="3">
         <v>0</v>
@@ -6028,8 +5420,8 @@
       <c r="AT25" s="3">
         <v>0</v>
       </c>
-      <c r="AU25" s="3">
-        <v>0</v>
+      <c r="AU25" s="4">
+        <v>1</v>
       </c>
       <c r="AV25" s="4">
         <v>1</v>
@@ -6049,70 +5441,46 @@
       <c r="BA25" s="4">
         <v>1</v>
       </c>
-      <c r="BB25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="3">
-        <v>0</v>
+      <c r="BB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>1</v>
       </c>
       <c r="BF25" s="3">
         <v>0</v>
       </c>
-      <c r="BG25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BI25" s="4">
-        <v>1</v>
+      <c r="BG25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="3">
+        <v>0</v>
       </c>
       <c r="BJ25" s="4">
         <v>1</v>
       </c>
-      <c r="BK25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BL25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BN25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU25" s="5">
-        <v>24</v>
+      <c r="BK25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -6147,17 +5515,17 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <v>1</v>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -6165,14 +5533,14 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
+      <c r="S26" s="4">
+        <v>1</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-      <c r="U26" s="4">
-        <v>1</v>
+      <c r="U26" s="3">
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -6180,8 +5548,8 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
+      <c r="X26" s="4">
+        <v>1</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
@@ -6189,14 +5557,14 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-      <c r="AA26" s="4">
-        <v>1</v>
+      <c r="AA26" s="3">
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
+      <c r="AC26" s="4">
+        <v>1</v>
       </c>
       <c r="AD26" s="3">
         <v>0</v>
@@ -6204,14 +5572,14 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-      <c r="AF26" s="4">
-        <v>1</v>
+      <c r="AF26" s="3">
+        <v>0</v>
       </c>
       <c r="AG26" s="3">
         <v>0</v>
       </c>
-      <c r="AH26" s="3">
-        <v>0</v>
+      <c r="AH26" s="4">
+        <v>1</v>
       </c>
       <c r="AI26" s="3">
         <v>0</v>
@@ -6222,8 +5590,8 @@
       <c r="AK26" s="3">
         <v>0</v>
       </c>
-      <c r="AL26" s="4">
-        <v>1</v>
+      <c r="AL26" s="3">
+        <v>0</v>
       </c>
       <c r="AM26" s="3">
         <v>0</v>
@@ -6234,8 +5602,8 @@
       <c r="AO26" s="3">
         <v>0</v>
       </c>
-      <c r="AP26" s="3">
-        <v>0</v>
+      <c r="AP26" s="4">
+        <v>1</v>
       </c>
       <c r="AQ26" s="3">
         <v>0</v>
@@ -6246,11 +5614,11 @@
       <c r="AS26" s="3">
         <v>0</v>
       </c>
-      <c r="AT26" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="3">
-        <v>0</v>
+      <c r="AT26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>1</v>
       </c>
       <c r="AV26" s="3">
         <v>0</v>
@@ -6270,70 +5638,46 @@
       <c r="BA26" s="3">
         <v>0</v>
       </c>
-      <c r="BB26" s="3">
-        <v>0</v>
+      <c r="BB26" s="4">
+        <v>1</v>
       </c>
       <c r="BC26" s="3">
         <v>0</v>
       </c>
-      <c r="BD26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="3">
-        <v>0</v>
+      <c r="BD26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="4">
+        <v>1</v>
       </c>
       <c r="BF26" s="3">
         <v>0</v>
       </c>
-      <c r="BG26" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI26" s="4">
-        <v>1</v>
-      </c>
-      <c r="BJ26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK26" s="4">
-        <v>1</v>
-      </c>
-      <c r="BL26" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP26" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR26" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU26" s="5">
+      <c r="BG26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -6377,23 +5721,23 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>1</v>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
+      <c r="S27" s="4">
+        <v>1</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-      <c r="U27" s="4">
-        <v>1</v>
+      <c r="U27" s="3">
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -6401,8 +5745,8 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
+      <c r="X27" s="4">
+        <v>1</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
@@ -6410,8 +5754,8 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-      <c r="AA27" s="4">
-        <v>1</v>
+      <c r="AA27" s="3">
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
@@ -6425,8 +5769,8 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-      <c r="AF27" s="3">
-        <v>0</v>
+      <c r="AF27" s="4">
+        <v>1</v>
       </c>
       <c r="AG27" s="3">
         <v>0</v>
@@ -6437,8 +5781,8 @@
       <c r="AI27" s="3">
         <v>0</v>
       </c>
-      <c r="AJ27" s="4">
-        <v>1</v>
+      <c r="AJ27" s="3">
+        <v>0</v>
       </c>
       <c r="AK27" s="3">
         <v>0</v>
@@ -6449,8 +5793,8 @@
       <c r="AM27" s="3">
         <v>0</v>
       </c>
-      <c r="AN27" s="3">
-        <v>0</v>
+      <c r="AN27" s="4">
+        <v>1</v>
       </c>
       <c r="AO27" s="3">
         <v>0</v>
@@ -6461,8 +5805,8 @@
       <c r="AQ27" s="3">
         <v>0</v>
       </c>
-      <c r="AR27" s="4">
-        <v>1</v>
+      <c r="AR27" s="3">
+        <v>0</v>
       </c>
       <c r="AS27" s="3">
         <v>0</v>
@@ -6476,8 +5820,8 @@
       <c r="AV27" s="3">
         <v>0</v>
       </c>
-      <c r="AW27" s="3">
-        <v>0</v>
+      <c r="AW27" s="4">
+        <v>1</v>
       </c>
       <c r="AX27" s="3">
         <v>0</v>
@@ -6491,8 +5835,8 @@
       <c r="BA27" s="3">
         <v>0</v>
       </c>
-      <c r="BB27" s="4">
-        <v>1</v>
+      <c r="BB27" s="3">
+        <v>0</v>
       </c>
       <c r="BC27" s="3">
         <v>0</v>
@@ -6503,58 +5847,34 @@
       <c r="BE27" s="3">
         <v>0</v>
       </c>
-      <c r="BF27" s="3">
-        <v>0</v>
+      <c r="BF27" s="4">
+        <v>1</v>
       </c>
       <c r="BG27" s="3">
         <v>0</v>
       </c>
-      <c r="BH27" s="3">
-        <v>0</v>
+      <c r="BH27" s="4">
+        <v>1</v>
       </c>
       <c r="BI27" s="3">
         <v>0</v>
       </c>
-      <c r="BJ27" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK27" s="3">
-        <v>0</v>
+      <c r="BJ27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK27" s="4">
+        <v>1</v>
       </c>
       <c r="BL27" s="3">
         <v>0</v>
       </c>
-      <c r="BM27" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN27" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO27" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP27" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ27" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR27" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS27" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT27" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU27" s="5">
+      <c r="BM27" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6589,35 +5909,35 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>1</v>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
       </c>
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>1</v>
-      </c>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0</v>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
       </c>
       <c r="T28" s="4">
         <v>1</v>
       </c>
-      <c r="U28" s="4">
-        <v>1</v>
-      </c>
-      <c r="V28" s="4">
-        <v>1</v>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
       </c>
       <c r="W28" s="3">
         <v>0</v>
@@ -6631,23 +5951,23 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-      <c r="AA28" s="3">
-        <v>0</v>
+      <c r="AA28" s="4">
+        <v>1</v>
       </c>
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-      <c r="AC28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="4">
-        <v>1</v>
+      <c r="AC28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
       </c>
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-      <c r="AF28" s="4">
-        <v>1</v>
+      <c r="AF28" s="3">
+        <v>0</v>
       </c>
       <c r="AG28" s="3">
         <v>0</v>
@@ -6655,8 +5975,8 @@
       <c r="AH28" s="3">
         <v>0</v>
       </c>
-      <c r="AI28" s="3">
-        <v>0</v>
+      <c r="AI28" s="4">
+        <v>1</v>
       </c>
       <c r="AJ28" s="3">
         <v>0</v>
@@ -6667,8 +5987,8 @@
       <c r="AL28" s="3">
         <v>0</v>
       </c>
-      <c r="AM28" s="4">
-        <v>1</v>
+      <c r="AM28" s="3">
+        <v>0</v>
       </c>
       <c r="AN28" s="3">
         <v>0</v>
@@ -6679,8 +5999,8 @@
       <c r="AP28" s="3">
         <v>0</v>
       </c>
-      <c r="AQ28" s="3">
-        <v>0</v>
+      <c r="AQ28" s="4">
+        <v>1</v>
       </c>
       <c r="AR28" s="3">
         <v>0</v>
@@ -6694,11 +6014,11 @@
       <c r="AU28" s="4">
         <v>1</v>
       </c>
-      <c r="AV28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="3">
-        <v>0</v>
+      <c r="AV28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="4">
+        <v>1</v>
       </c>
       <c r="AX28" s="3">
         <v>0</v>
@@ -6718,64 +6038,40 @@
       <c r="BC28" s="3">
         <v>0</v>
       </c>
-      <c r="BD28" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE28" s="3">
-        <v>0</v>
+      <c r="BD28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="4">
+        <v>1</v>
       </c>
       <c r="BF28" s="3">
         <v>0</v>
       </c>
-      <c r="BG28" s="4">
-        <v>1</v>
+      <c r="BG28" s="3">
+        <v>0</v>
       </c>
       <c r="BH28" s="4">
         <v>1</v>
       </c>
-      <c r="BI28" s="4">
-        <v>1</v>
-      </c>
-      <c r="BJ28" s="3">
-        <v>0</v>
+      <c r="BI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="4">
+        <v>1</v>
       </c>
       <c r="BK28" s="4">
         <v>1</v>
       </c>
-      <c r="BL28" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM28" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN28" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO28" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP28" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ28" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR28" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS28" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT28" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU28" s="5">
+      <c r="BL28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6816,11 +6112,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
-        <v>1</v>
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -6828,20 +6124,20 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="4">
+        <v>1</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="4">
-        <v>1</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="4">
+        <v>1</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -6849,8 +6145,8 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-      <c r="Z29" s="4">
-        <v>1</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
@@ -6867,8 +6163,8 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-      <c r="AF29" s="3">
-        <v>0</v>
+      <c r="AF29" s="4">
+        <v>1</v>
       </c>
       <c r="AG29" s="3">
         <v>0</v>
@@ -6879,8 +6175,8 @@
       <c r="AI29" s="3">
         <v>0</v>
       </c>
-      <c r="AJ29" s="4">
-        <v>1</v>
+      <c r="AJ29" s="3">
+        <v>0</v>
       </c>
       <c r="AK29" s="3">
         <v>0</v>
@@ -6891,8 +6187,8 @@
       <c r="AM29" s="3">
         <v>0</v>
       </c>
-      <c r="AN29" s="3">
-        <v>0</v>
+      <c r="AN29" s="4">
+        <v>1</v>
       </c>
       <c r="AO29" s="3">
         <v>0</v>
@@ -6903,8 +6199,8 @@
       <c r="AQ29" s="3">
         <v>0</v>
       </c>
-      <c r="AR29" s="4">
-        <v>1</v>
+      <c r="AR29" s="3">
+        <v>0</v>
       </c>
       <c r="AS29" s="3">
         <v>0</v>
@@ -6918,8 +6214,8 @@
       <c r="AV29" s="3">
         <v>0</v>
       </c>
-      <c r="AW29" s="3">
-        <v>0</v>
+      <c r="AW29" s="4">
+        <v>1</v>
       </c>
       <c r="AX29" s="3">
         <v>0</v>
@@ -6933,8 +6229,8 @@
       <c r="BA29" s="3">
         <v>0</v>
       </c>
-      <c r="BB29" s="4">
-        <v>1</v>
+      <c r="BB29" s="3">
+        <v>0</v>
       </c>
       <c r="BC29" s="3">
         <v>0</v>
@@ -6945,14 +6241,14 @@
       <c r="BE29" s="3">
         <v>0</v>
       </c>
-      <c r="BF29" s="3">
-        <v>0</v>
+      <c r="BF29" s="4">
+        <v>1</v>
       </c>
       <c r="BG29" s="3">
         <v>0</v>
       </c>
-      <c r="BH29" s="3">
-        <v>0</v>
+      <c r="BH29" s="4">
+        <v>1</v>
       </c>
       <c r="BI29" s="3">
         <v>0</v>
@@ -6960,43 +6256,19 @@
       <c r="BJ29" s="3">
         <v>0</v>
       </c>
-      <c r="BK29" s="3">
-        <v>0</v>
+      <c r="BK29" s="4">
+        <v>1</v>
       </c>
       <c r="BL29" s="3">
         <v>0</v>
       </c>
-      <c r="BM29" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN29" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO29" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP29" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ29" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR29" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS29" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT29" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU29" s="5">
+      <c r="BM29" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -7031,17 +6303,17 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>1</v>
+      <c r="M30" s="4">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
@@ -7049,23 +6321,23 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-      <c r="S30" s="3">
-        <v>0</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0</v>
+      <c r="S30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1</v>
       </c>
       <c r="U30" s="4">
         <v>1</v>
       </c>
-      <c r="V30" s="4">
-        <v>1</v>
-      </c>
-      <c r="W30" s="4">
-        <v>1</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0</v>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>1</v>
       </c>
       <c r="Y30" s="3">
         <v>0</v>
@@ -7073,8 +6345,8 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-      <c r="AA30" s="4">
-        <v>1</v>
+      <c r="AA30" s="3">
+        <v>0</v>
       </c>
       <c r="AB30" s="3">
         <v>0</v>
@@ -7103,8 +6375,8 @@
       <c r="AJ30" s="3">
         <v>0</v>
       </c>
-      <c r="AK30" s="3">
-        <v>0</v>
+      <c r="AK30" s="4">
+        <v>1</v>
       </c>
       <c r="AL30" s="3">
         <v>0</v>
@@ -7115,8 +6387,8 @@
       <c r="AN30" s="3">
         <v>0</v>
       </c>
-      <c r="AO30" s="4">
-        <v>1</v>
+      <c r="AO30" s="3">
+        <v>0</v>
       </c>
       <c r="AP30" s="3">
         <v>0</v>
@@ -7127,23 +6399,23 @@
       <c r="AR30" s="3">
         <v>0</v>
       </c>
-      <c r="AS30" s="3">
-        <v>0</v>
+      <c r="AS30" s="4">
+        <v>1</v>
       </c>
       <c r="AT30" s="3">
         <v>0</v>
       </c>
-      <c r="AU30" s="3">
-        <v>0</v>
+      <c r="AU30" s="4">
+        <v>1</v>
       </c>
       <c r="AV30" s="3">
         <v>0</v>
       </c>
-      <c r="AW30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX30" s="3">
-        <v>0</v>
+      <c r="AW30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>1</v>
       </c>
       <c r="AY30" s="3">
         <v>0</v>
@@ -7157,67 +6429,43 @@
       <c r="BB30" s="3">
         <v>0</v>
       </c>
-      <c r="BC30" s="4">
-        <v>1</v>
+      <c r="BC30" s="3">
+        <v>0</v>
       </c>
       <c r="BD30" s="3">
         <v>0</v>
       </c>
-      <c r="BE30" s="3">
-        <v>0</v>
+      <c r="BE30" s="4">
+        <v>1</v>
       </c>
       <c r="BF30" s="3">
         <v>0</v>
       </c>
-      <c r="BG30" s="4">
-        <v>1</v>
-      </c>
-      <c r="BH30" s="3">
-        <v>0</v>
+      <c r="BG30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="4">
+        <v>1</v>
       </c>
       <c r="BI30" s="3">
         <v>0</v>
       </c>
-      <c r="BJ30" s="3">
-        <v>0</v>
+      <c r="BJ30" s="4">
+        <v>1</v>
       </c>
       <c r="BK30" s="3">
         <v>0</v>
       </c>
-      <c r="BL30" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM30" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN30" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO30" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP30" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ30" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR30" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS30" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT30" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU30" s="5">
+      <c r="BL30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -7252,17 +6500,17 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <v>1</v>
+      <c r="M31" s="4">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
       </c>
       <c r="Q31" s="3">
         <v>0</v>
@@ -7270,20 +6518,20 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-      <c r="S31" s="3">
-        <v>0</v>
+      <c r="S31" s="4">
+        <v>1</v>
       </c>
       <c r="T31" s="3">
         <v>0</v>
       </c>
-      <c r="U31" s="4">
-        <v>1</v>
+      <c r="U31" s="3">
+        <v>0</v>
       </c>
       <c r="V31" s="3">
         <v>0</v>
       </c>
-      <c r="W31" s="3">
-        <v>0</v>
+      <c r="W31" s="4">
+        <v>1</v>
       </c>
       <c r="X31" s="3">
         <v>0</v>
@@ -7291,8 +6539,8 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-      <c r="Z31" s="4">
-        <v>1</v>
+      <c r="Z31" s="3">
+        <v>0</v>
       </c>
       <c r="AA31" s="3">
         <v>0</v>
@@ -7309,8 +6557,8 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-      <c r="AF31" s="3">
-        <v>0</v>
+      <c r="AF31" s="4">
+        <v>1</v>
       </c>
       <c r="AG31" s="3">
         <v>0</v>
@@ -7321,8 +6569,8 @@
       <c r="AI31" s="3">
         <v>0</v>
       </c>
-      <c r="AJ31" s="4">
-        <v>1</v>
+      <c r="AJ31" s="3">
+        <v>0</v>
       </c>
       <c r="AK31" s="3">
         <v>0</v>
@@ -7333,8 +6581,8 @@
       <c r="AM31" s="3">
         <v>0</v>
       </c>
-      <c r="AN31" s="3">
-        <v>0</v>
+      <c r="AN31" s="4">
+        <v>1</v>
       </c>
       <c r="AO31" s="3">
         <v>0</v>
@@ -7345,8 +6593,8 @@
       <c r="AQ31" s="3">
         <v>0</v>
       </c>
-      <c r="AR31" s="4">
-        <v>1</v>
+      <c r="AR31" s="3">
+        <v>0</v>
       </c>
       <c r="AS31" s="3">
         <v>0</v>
@@ -7360,8 +6608,8 @@
       <c r="AV31" s="3">
         <v>0</v>
       </c>
-      <c r="AW31" s="3">
-        <v>0</v>
+      <c r="AW31" s="4">
+        <v>1</v>
       </c>
       <c r="AX31" s="3">
         <v>0</v>
@@ -7375,8 +6623,8 @@
       <c r="BA31" s="3">
         <v>0</v>
       </c>
-      <c r="BB31" s="4">
-        <v>1</v>
+      <c r="BB31" s="3">
+        <v>0</v>
       </c>
       <c r="BC31" s="3">
         <v>0</v>
@@ -7387,8 +6635,8 @@
       <c r="BE31" s="3">
         <v>0</v>
       </c>
-      <c r="BF31" s="3">
-        <v>0</v>
+      <c r="BF31" s="4">
+        <v>1</v>
       </c>
       <c r="BG31" s="3">
         <v>0</v>
@@ -7399,46 +6647,22 @@
       <c r="BI31" s="3">
         <v>0</v>
       </c>
-      <c r="BJ31" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK31" s="3">
-        <v>0</v>
+      <c r="BJ31" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="4">
+        <v>1</v>
       </c>
       <c r="BL31" s="3">
         <v>0</v>
       </c>
-      <c r="BM31" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN31" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO31" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP31" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ31" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR31" s="4">
-        <v>1</v>
-      </c>
-      <c r="BS31" s="4">
-        <v>1</v>
-      </c>
-      <c r="BT31" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU31" s="5">
+      <c r="BM31" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -7468,193 +6692,169 @@
         <v>19</v>
       </c>
       <c r="K32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N32" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="O32" s="5">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P32" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <v>7</v>
+      </c>
+      <c r="S32" s="5">
+        <v>28</v>
+      </c>
+      <c r="T32" s="5">
         <v>8</v>
       </c>
-      <c r="R32" s="5">
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <v>0</v>
-      </c>
-      <c r="T32" s="5">
-        <v>7</v>
-      </c>
       <c r="U32" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="V32" s="5">
+        <v>0</v>
+      </c>
+      <c r="W32" s="5">
+        <v>10</v>
+      </c>
+      <c r="X32" s="5">
         <v>8</v>
       </c>
-      <c r="W32" s="5">
+      <c r="Y32" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>9</v>
+      </c>
+      <c r="AB32" s="5">
         <v>3</v>
       </c>
-      <c r="X32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>8</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>4</v>
-      </c>
       <c r="AC32" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD32" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AG32" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH32" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI32" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ32" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="5">
         <v>6</v>
       </c>
       <c r="AL32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="5">
         <v>6</v>
       </c>
-      <c r="AM32" s="5">
+      <c r="AO32" s="5">
+        <v>7</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>6</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>4</v>
+      </c>
+      <c r="AR32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="5">
         <v>5</v>
       </c>
-      <c r="AN32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="5">
+      <c r="AT32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="5">
+        <v>15</v>
+      </c>
+      <c r="AV32" s="5">
         <v>6</v>
       </c>
-      <c r="AP32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AR32" s="5">
+      <c r="AW32" s="5">
+        <v>17</v>
+      </c>
+      <c r="AX32" s="5">
+        <v>4</v>
+      </c>
+      <c r="AY32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="5">
+        <v>14</v>
+      </c>
+      <c r="BA32" s="5">
+        <v>8</v>
+      </c>
+      <c r="BB32" s="5">
         <v>6</v>
-      </c>
-      <c r="AS32" s="5">
-        <v>7</v>
-      </c>
-      <c r="AT32" s="5">
-        <v>6</v>
-      </c>
-      <c r="AU32" s="5">
-        <v>4</v>
-      </c>
-      <c r="AV32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW32" s="5">
-        <v>5</v>
-      </c>
-      <c r="AX32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="5">
-        <v>15</v>
-      </c>
-      <c r="BA32" s="5">
-        <v>6</v>
-      </c>
-      <c r="BB32" s="5">
-        <v>17</v>
       </c>
       <c r="BC32" s="5">
         <v>4</v>
       </c>
       <c r="BD32" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BE32" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BF32" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BG32" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BH32" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="BI32" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ32" s="5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="BK32" s="5">
         <v>12</v>
       </c>
       <c r="BL32" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BM32" s="5">
-        <v>1</v>
-      </c>
-      <c r="BN32" s="5">
-        <v>15</v>
-      </c>
-      <c r="BO32" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP32" s="5">
-        <v>19</v>
-      </c>
-      <c r="BQ32" s="5">
-        <v>3</v>
-      </c>
-      <c r="BR32" s="5">
-        <v>18</v>
-      </c>
-      <c r="BS32" s="5">
-        <v>12</v>
-      </c>
-      <c r="BT32" s="5">
-        <v>1</v>
-      </c>
-      <c r="BU32" s="5">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/MAXQDA24 Code Matrix Browser.xlsx
+++ b/assets/data/MAXQDA24 Code Matrix Browser.xlsx
@@ -21,6 +21,9 @@
     <t>Input Modalities</t>
   </si>
   <si>
+    <t>Input Modalities &gt; Image</t>
+  </si>
+  <si>
     <t>Input Modalities &gt; Geolocation</t>
   </si>
   <si>
@@ -33,9 +36,6 @@
     <t>Input Modalities &gt; Text</t>
   </si>
   <si>
-    <t>Input Modalities &gt; Image</t>
-  </si>
-  <si>
     <t>Image Representation</t>
   </si>
   <si>
@@ -75,136 +75,136 @@
     <t>Summarizing Entities &gt; Captions and Tags</t>
   </si>
   <si>
-    <t>Summarizing Entities &gt; Numerical statistics</t>
+    <t>Summarizing Entities &gt; Numerical Statistics</t>
   </si>
   <si>
     <t>Input for Position in Visualization</t>
   </si>
   <si>
+    <t>Input for Position in Visualization &gt; Single Attribute</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Two Attributes</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; More Attributes</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Distance</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Geography</t>
+  </si>
+  <si>
+    <t>Input for Position in Visualization &gt; Topology</t>
+  </si>
+  <si>
     <t>Input for Position in Visualization &gt; None / fixed Visualization</t>
   </si>
   <si>
-    <t>Input for Position in Visualization &gt; Single Attribute</t>
-  </si>
-  <si>
-    <t>Input for Position in Visualization &gt; Two Attributes</t>
-  </si>
-  <si>
-    <t>Input for Position in Visualization &gt; More Attributes</t>
-  </si>
-  <si>
-    <t>Input for Position in Visualization &gt; Distance</t>
-  </si>
-  <si>
-    <t>Input for Position in Visualization &gt; Geography</t>
-  </si>
-  <si>
-    <t>Input for Position in Visualization &gt; Topology</t>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Goal &gt; Explore</t>
+  </si>
+  <si>
+    <t>Goal &gt; Confirm</t>
+  </si>
+  <si>
+    <t>Goal &gt; Present</t>
+  </si>
+  <si>
+    <t>Goal &gt; Produce</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Select</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Navigate</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Reconfigure</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Encode</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Show Details / Show Context</t>
+  </si>
+  <si>
+    <t>Interactions &gt; Filter</t>
+  </si>
+  <si>
+    <t>Interactions &gt; None</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Algorithmic Performance</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; User Experience and Performance</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Qualitative Results Inspection</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; Case Study</t>
+  </si>
+  <si>
+    <t>Evaluation &gt; None</t>
   </si>
   <si>
     <t>Set Size - Claimed</t>
   </si>
   <si>
+    <t>Set Size - Claimed &gt; Tens</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Hundreds</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Tens of Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Hundreds of Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Claimed &gt; Millions or More</t>
+  </si>
+  <si>
     <t>Set Size - Claimed &gt; not specified</t>
   </si>
   <si>
-    <t>Set Size - Claimed &gt; Tens</t>
-  </si>
-  <si>
-    <t>Set Size - Claimed &gt; Hundreds</t>
-  </si>
-  <si>
-    <t>Set Size - Claimed &gt; Thousands</t>
-  </si>
-  <si>
-    <t>Set Size - Claimed &gt; Tens of Thousands</t>
-  </si>
-  <si>
-    <t>Set Size - Claimed &gt; Hundreds of Thousands</t>
-  </si>
-  <si>
-    <t>Set Size - Claimed &gt; Millions or More</t>
-  </si>
-  <si>
     <t>Set Size - Confirmed</t>
   </si>
   <si>
+    <t>Set Size - Confirmed &gt; Tens</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Hundreds</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Tens of Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Hundreds of Thousands</t>
+  </si>
+  <si>
+    <t>Set Size - Confirmed &gt; Millions or More</t>
+  </si>
+  <si>
     <t>Set Size - Confirmed &gt; not specified</t>
-  </si>
-  <si>
-    <t>Set Size - Confirmed &gt; Tens</t>
-  </si>
-  <si>
-    <t>Set Size - Confirmed &gt; Hundreds</t>
-  </si>
-  <si>
-    <t>Set Size - Confirmed &gt; Thousands</t>
-  </si>
-  <si>
-    <t>Set Size - Confirmed &gt; Tens of Thousands</t>
-  </si>
-  <si>
-    <t>Set Size - Confirmed &gt; Hundreds of Thousands</t>
-  </si>
-  <si>
-    <t>Set Size - Confirmed &gt; Millions or More</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Goal &gt; Explore</t>
-  </si>
-  <si>
-    <t>Goal &gt; Confirm</t>
-  </si>
-  <si>
-    <t>Goal &gt; Present</t>
-  </si>
-  <si>
-    <t>Goal &gt; Produce</t>
-  </si>
-  <si>
-    <t>Interactions</t>
-  </si>
-  <si>
-    <t>Interactions &gt; Select</t>
-  </si>
-  <si>
-    <t>Interactions &gt; Navigate</t>
-  </si>
-  <si>
-    <t>Interactions &gt; Reconfigure</t>
-  </si>
-  <si>
-    <t>Interactions &gt; Encode</t>
-  </si>
-  <si>
-    <t>Interactions &gt; Show Details / Show Context</t>
-  </si>
-  <si>
-    <t>Interactions &gt; Filter</t>
-  </si>
-  <si>
-    <t>Interactions &gt; None</t>
-  </si>
-  <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; Algorithmic Performance</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; None</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; User Experience and Performance</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; Qualitative Results Inspection (incl Usage Scenario / Use Case)</t>
-  </si>
-  <si>
-    <t>Evaluation &gt; Case Study (excl. Usage Scenario)</t>
   </si>
   <si>
     <t>SUM</t>
@@ -488,11 +488,11 @@
   <cols>
     <col min="1" max="1" width="51" customWidth="true"/>
     <col min="2" max="2" width="23" customWidth="true"/>
-    <col min="3" max="3" width="33" customWidth="true"/>
-    <col min="4" max="4" width="31" customWidth="true"/>
-    <col min="5" max="5" width="27" customWidth="true"/>
-    <col min="6" max="6" width="26" customWidth="true"/>
-    <col min="7" max="7" width="27" customWidth="true"/>
+    <col min="3" max="3" width="27" customWidth="true"/>
+    <col min="4" max="4" width="33" customWidth="true"/>
+    <col min="5" max="5" width="31" customWidth="true"/>
+    <col min="6" max="6" width="27" customWidth="true"/>
+    <col min="7" max="7" width="26" customWidth="true"/>
     <col min="8" max="8" width="23" customWidth="true"/>
     <col min="9" max="9" width="51" customWidth="true"/>
     <col min="10" max="10" width="51" customWidth="true"/>
@@ -511,45 +511,45 @@
     <col min="23" max="23" width="51" customWidth="true"/>
     <col min="24" max="24" width="51" customWidth="true"/>
     <col min="25" max="25" width="51" customWidth="true"/>
-    <col min="26" max="26" width="51" customWidth="true"/>
-    <col min="27" max="27" width="49" customWidth="true"/>
-    <col min="28" max="28" width="50" customWidth="true"/>
-    <col min="29" max="29" width="49" customWidth="true"/>
-    <col min="30" max="30" width="23" customWidth="true"/>
-    <col min="31" max="31" width="37" customWidth="true"/>
-    <col min="32" max="32" width="28" customWidth="true"/>
-    <col min="33" max="33" width="32" customWidth="true"/>
-    <col min="34" max="34" width="33" customWidth="true"/>
-    <col min="35" max="35" width="41" customWidth="true"/>
-    <col min="36" max="36" width="45" customWidth="true"/>
-    <col min="37" max="37" width="40" customWidth="true"/>
-    <col min="38" max="38" width="23" customWidth="true"/>
-    <col min="39" max="39" width="39" customWidth="true"/>
-    <col min="40" max="40" width="30" customWidth="true"/>
-    <col min="41" max="41" width="34" customWidth="true"/>
-    <col min="42" max="42" width="35" customWidth="true"/>
-    <col min="43" max="43" width="43" customWidth="true"/>
-    <col min="44" max="44" width="47" customWidth="true"/>
-    <col min="45" max="45" width="42" customWidth="true"/>
-    <col min="46" max="46" width="8" customWidth="true"/>
-    <col min="47" max="47" width="23" customWidth="true"/>
+    <col min="26" max="26" width="49" customWidth="true"/>
+    <col min="27" max="27" width="50" customWidth="true"/>
+    <col min="28" max="28" width="49" customWidth="true"/>
+    <col min="29" max="29" width="51" customWidth="true"/>
+    <col min="30" max="30" width="8" customWidth="true"/>
+    <col min="31" max="31" width="23" customWidth="true"/>
+    <col min="32" max="32" width="23" customWidth="true"/>
+    <col min="33" max="33" width="23" customWidth="true"/>
+    <col min="34" max="34" width="23" customWidth="true"/>
+    <col min="35" max="35" width="23" customWidth="true"/>
+    <col min="36" max="36" width="24" customWidth="true"/>
+    <col min="37" max="37" width="26" customWidth="true"/>
+    <col min="38" max="38" width="29" customWidth="true"/>
+    <col min="39" max="39" width="24" customWidth="true"/>
+    <col min="40" max="40" width="45" customWidth="true"/>
+    <col min="41" max="41" width="24" customWidth="true"/>
+    <col min="42" max="42" width="23" customWidth="true"/>
+    <col min="43" max="43" width="23" customWidth="true"/>
+    <col min="44" max="44" width="39" customWidth="true"/>
+    <col min="45" max="45" width="47" customWidth="true"/>
+    <col min="46" max="46" width="46" customWidth="true"/>
+    <col min="47" max="47" width="26" customWidth="true"/>
     <col min="48" max="48" width="23" customWidth="true"/>
     <col min="49" max="49" width="23" customWidth="true"/>
-    <col min="50" max="50" width="23" customWidth="true"/>
-    <col min="51" max="51" width="23" customWidth="true"/>
-    <col min="52" max="52" width="24" customWidth="true"/>
-    <col min="53" max="53" width="26" customWidth="true"/>
-    <col min="54" max="54" width="29" customWidth="true"/>
-    <col min="55" max="55" width="24" customWidth="true"/>
-    <col min="56" max="56" width="45" customWidth="true"/>
-    <col min="57" max="57" width="24" customWidth="true"/>
-    <col min="58" max="58" width="23" customWidth="true"/>
-    <col min="59" max="59" width="23" customWidth="true"/>
-    <col min="60" max="60" width="39" customWidth="true"/>
-    <col min="61" max="61" width="23" customWidth="true"/>
+    <col min="50" max="50" width="28" customWidth="true"/>
+    <col min="51" max="51" width="32" customWidth="true"/>
+    <col min="52" max="52" width="33" customWidth="true"/>
+    <col min="53" max="53" width="41" customWidth="true"/>
+    <col min="54" max="54" width="45" customWidth="true"/>
+    <col min="55" max="55" width="40" customWidth="true"/>
+    <col min="56" max="56" width="37" customWidth="true"/>
+    <col min="57" max="57" width="23" customWidth="true"/>
+    <col min="58" max="58" width="30" customWidth="true"/>
+    <col min="59" max="59" width="34" customWidth="true"/>
+    <col min="60" max="60" width="35" customWidth="true"/>
+    <col min="61" max="61" width="43" customWidth="true"/>
     <col min="62" max="62" width="47" customWidth="true"/>
-    <col min="63" max="63" width="51" customWidth="true"/>
-    <col min="64" max="64" width="49" customWidth="true"/>
+    <col min="63" max="63" width="42" customWidth="true"/>
+    <col min="64" max="64" width="39" customWidth="true"/>
     <col min="65" max="65" width="8" customWidth="true"/>
   </cols>
   <sheetData>
@@ -757,8 +757,8 @@
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
+      <c r="C2" s="4">
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -769,8 +769,8 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>1</v>
+      <c r="G2" s="3">
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -826,11 +826,11 @@
       <c r="Y2" s="3">
         <v>0</v>
       </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>1</v>
+      <c r="Z2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
       </c>
       <c r="AB2" s="3">
         <v>0</v>
@@ -841,8 +841,8 @@
       <c r="AD2" s="3">
         <v>0</v>
       </c>
-      <c r="AE2" s="3">
-        <v>0</v>
+      <c r="AE2" s="4">
+        <v>1</v>
       </c>
       <c r="AF2" s="3">
         <v>0</v>
@@ -868,8 +868,8 @@
       <c r="AM2" s="3">
         <v>0</v>
       </c>
-      <c r="AN2" s="3">
-        <v>0</v>
+      <c r="AN2" s="4">
+        <v>1</v>
       </c>
       <c r="AO2" s="3">
         <v>0</v>
@@ -883,17 +883,17 @@
       <c r="AR2" s="3">
         <v>0</v>
       </c>
-      <c r="AS2" s="4">
-        <v>1</v>
+      <c r="AS2" s="3">
+        <v>0</v>
       </c>
       <c r="AT2" s="3">
         <v>0</v>
       </c>
-      <c r="AU2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>0</v>
+      <c r="AU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>1</v>
       </c>
       <c r="AW2" s="3">
         <v>0</v>
@@ -907,17 +907,17 @@
       <c r="AZ2" s="3">
         <v>0</v>
       </c>
-      <c r="BA2" s="4">
-        <v>1</v>
+      <c r="BA2" s="3">
+        <v>0</v>
       </c>
       <c r="BB2" s="3">
         <v>0</v>
       </c>
-      <c r="BC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="4">
-        <v>1</v>
+      <c r="BC2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>0</v>
       </c>
       <c r="BE2" s="3">
         <v>0</v>
@@ -931,14 +931,14 @@
       <c r="BH2" s="3">
         <v>0</v>
       </c>
-      <c r="BI2" s="4">
-        <v>1</v>
+      <c r="BI2" s="3">
+        <v>0</v>
       </c>
       <c r="BJ2" s="3">
         <v>0</v>
       </c>
-      <c r="BK2" s="3">
-        <v>0</v>
+      <c r="BK2" s="4">
+        <v>1</v>
       </c>
       <c r="BL2" s="3">
         <v>0</v>
@@ -954,8 +954,8 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
+      <c r="C3" s="4">
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -966,8 +966,8 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
-        <v>1</v>
+      <c r="G3" s="3">
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -1023,11 +1023,11 @@
       <c r="Y3" s="3">
         <v>0</v>
       </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>1</v>
+      <c r="Z3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
       </c>
       <c r="AB3" s="3">
         <v>0</v>
@@ -1038,8 +1038,8 @@
       <c r="AD3" s="3">
         <v>0</v>
       </c>
-      <c r="AE3" s="3">
-        <v>0</v>
+      <c r="AE3" s="4">
+        <v>1</v>
       </c>
       <c r="AF3" s="3">
         <v>0</v>
@@ -1053,8 +1053,8 @@
       <c r="AI3" s="3">
         <v>0</v>
       </c>
-      <c r="AJ3" s="3">
-        <v>0</v>
+      <c r="AJ3" s="4">
+        <v>1</v>
       </c>
       <c r="AK3" s="4">
         <v>1</v>
@@ -1065,11 +1065,11 @@
       <c r="AM3" s="3">
         <v>0</v>
       </c>
-      <c r="AN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>0</v>
+      <c r="AN3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>1</v>
       </c>
       <c r="AP3" s="3">
         <v>0</v>
@@ -1080,17 +1080,17 @@
       <c r="AR3" s="3">
         <v>0</v>
       </c>
-      <c r="AS3" s="4">
-        <v>1</v>
+      <c r="AS3" s="3">
+        <v>0</v>
       </c>
       <c r="AT3" s="3">
         <v>0</v>
       </c>
-      <c r="AU3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>0</v>
+      <c r="AU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>1</v>
       </c>
       <c r="AW3" s="3">
         <v>0</v>
@@ -1101,23 +1101,23 @@
       <c r="AY3" s="3">
         <v>0</v>
       </c>
-      <c r="AZ3" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="4">
-        <v>1</v>
+      <c r="AZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>0</v>
       </c>
       <c r="BB3" s="3">
         <v>0</v>
       </c>
-      <c r="BC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="4">
-        <v>1</v>
+      <c r="BC3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>0</v>
       </c>
       <c r="BF3" s="3">
         <v>0</v>
@@ -1128,14 +1128,14 @@
       <c r="BH3" s="3">
         <v>0</v>
       </c>
-      <c r="BI3" s="4">
-        <v>1</v>
+      <c r="BI3" s="3">
+        <v>0</v>
       </c>
       <c r="BJ3" s="3">
         <v>0</v>
       </c>
-      <c r="BK3" s="3">
-        <v>0</v>
+      <c r="BK3" s="4">
+        <v>1</v>
       </c>
       <c r="BL3" s="3">
         <v>0</v>
@@ -1151,20 +1151,20 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
+      <c r="C4" s="4">
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -1214,17 +1214,17 @@
       <c r="W4" s="3">
         <v>0</v>
       </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>1</v>
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
         <v>0</v>
@@ -1235,11 +1235,11 @@
       <c r="AD4" s="3">
         <v>0</v>
       </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0</v>
+      <c r="AE4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>1</v>
       </c>
       <c r="AG4" s="3">
         <v>0</v>
@@ -1250,8 +1250,8 @@
       <c r="AI4" s="3">
         <v>0</v>
       </c>
-      <c r="AJ4" s="3">
-        <v>0</v>
+      <c r="AJ4" s="4">
+        <v>1</v>
       </c>
       <c r="AK4" s="4">
         <v>1</v>
@@ -1259,14 +1259,14 @@
       <c r="AL4" s="3">
         <v>0</v>
       </c>
-      <c r="AM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>0</v>
+      <c r="AM4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>1</v>
       </c>
       <c r="AP4" s="3">
         <v>0</v>
@@ -1277,17 +1277,17 @@
       <c r="AR4" s="3">
         <v>0</v>
       </c>
-      <c r="AS4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="4">
-        <v>1</v>
+      <c r="AS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>0</v>
       </c>
       <c r="AW4" s="3">
         <v>0</v>
@@ -1298,11 +1298,11 @@
       <c r="AY4" s="3">
         <v>0</v>
       </c>
-      <c r="AZ4" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="4">
-        <v>1</v>
+      <c r="AZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>0</v>
       </c>
       <c r="BB4" s="3">
         <v>0</v>
@@ -1310,11 +1310,11 @@
       <c r="BC4" s="4">
         <v>1</v>
       </c>
-      <c r="BD4" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="4">
-        <v>1</v>
+      <c r="BD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>0</v>
       </c>
       <c r="BF4" s="3">
         <v>0</v>
@@ -1348,8 +1348,8 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
+      <c r="C5" s="4">
+        <v>1</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1357,8 +1357,8 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
+      <c r="F5" s="3">
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1423,20 +1423,20 @@
       <c r="AA5" s="3">
         <v>0</v>
       </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>1</v>
+      <c r="AB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
       </c>
       <c r="AD5" s="3">
         <v>0</v>
       </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0</v>
+      <c r="AE5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>1</v>
       </c>
       <c r="AG5" s="3">
         <v>0</v>
@@ -1444,14 +1444,14 @@
       <c r="AH5" s="3">
         <v>0</v>
       </c>
-      <c r="AI5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>0</v>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>1</v>
       </c>
       <c r="AL5" s="3">
         <v>0</v>
@@ -1459,32 +1459,32 @@
       <c r="AM5" s="3">
         <v>0</v>
       </c>
-      <c r="AN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>0</v>
+      <c r="AN5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>1</v>
       </c>
       <c r="AP5" s="3">
         <v>0</v>
       </c>
-      <c r="AQ5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="4">
-        <v>1</v>
+      <c r="AQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>0</v>
       </c>
       <c r="AW5" s="3">
         <v>0</v>
@@ -1495,8 +1495,8 @@
       <c r="AY5" s="3">
         <v>0</v>
       </c>
-      <c r="AZ5" s="4">
-        <v>1</v>
+      <c r="AZ5" s="3">
+        <v>0</v>
       </c>
       <c r="BA5" s="4">
         <v>1</v>
@@ -1507,11 +1507,11 @@
       <c r="BC5" s="3">
         <v>0</v>
       </c>
-      <c r="BD5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="4">
-        <v>1</v>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>0</v>
       </c>
       <c r="BF5" s="3">
         <v>0</v>
@@ -1519,17 +1519,17 @@
       <c r="BG5" s="3">
         <v>0</v>
       </c>
-      <c r="BH5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="4">
-        <v>1</v>
+      <c r="BH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>0</v>
       </c>
       <c r="BL5" s="3">
         <v>0</v>
@@ -1545,8 +1545,8 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
+      <c r="C6" s="4">
+        <v>1</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1554,8 +1554,8 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
+      <c r="F6" s="3">
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -1605,11 +1605,11 @@
       <c r="V6" s="3">
         <v>0</v>
       </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>1</v>
+      <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
@@ -1635,11 +1635,11 @@
       <c r="AF6" s="3">
         <v>0</v>
       </c>
-      <c r="AG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>1</v>
+      <c r="AG6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0</v>
       </c>
       <c r="AI6" s="3">
         <v>0</v>
@@ -1668,8 +1668,8 @@
       <c r="AQ6" s="3">
         <v>0</v>
       </c>
-      <c r="AR6" s="3">
-        <v>0</v>
+      <c r="AR6" s="4">
+        <v>1</v>
       </c>
       <c r="AS6" s="3">
         <v>0</v>
@@ -1683,8 +1683,8 @@
       <c r="AV6" s="3">
         <v>0</v>
       </c>
-      <c r="AW6" s="4">
-        <v>1</v>
+      <c r="AW6" s="3">
+        <v>0</v>
       </c>
       <c r="AX6" s="3">
         <v>0</v>
@@ -1692,8 +1692,8 @@
       <c r="AY6" s="3">
         <v>0</v>
       </c>
-      <c r="AZ6" s="3">
-        <v>0</v>
+      <c r="AZ6" s="4">
+        <v>1</v>
       </c>
       <c r="BA6" s="3">
         <v>0</v>
@@ -1710,8 +1710,8 @@
       <c r="BE6" s="3">
         <v>0</v>
       </c>
-      <c r="BF6" s="4">
-        <v>1</v>
+      <c r="BF6" s="3">
+        <v>0</v>
       </c>
       <c r="BG6" s="3">
         <v>0</v>
@@ -1742,8 +1742,8 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="C7" s="4">
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1751,8 +1751,8 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
+      <c r="F7" s="3">
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1811,11 +1811,11 @@
       <c r="Y7" s="3">
         <v>0</v>
       </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>1</v>
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
       </c>
       <c r="AB7" s="3">
         <v>0</v>
@@ -1826,8 +1826,8 @@
       <c r="AD7" s="3">
         <v>0</v>
       </c>
-      <c r="AE7" s="3">
-        <v>0</v>
+      <c r="AE7" s="4">
+        <v>1</v>
       </c>
       <c r="AF7" s="3">
         <v>0</v>
@@ -1835,14 +1835,14 @@
       <c r="AG7" s="3">
         <v>0</v>
       </c>
-      <c r="AH7" s="4">
-        <v>1</v>
+      <c r="AH7" s="3">
+        <v>0</v>
       </c>
       <c r="AI7" s="3">
         <v>0</v>
       </c>
-      <c r="AJ7" s="3">
-        <v>0</v>
+      <c r="AJ7" s="4">
+        <v>1</v>
       </c>
       <c r="AK7" s="3">
         <v>0</v>
@@ -1856,26 +1856,26 @@
       <c r="AN7" s="3">
         <v>0</v>
       </c>
-      <c r="AO7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="4">
-        <v>1</v>
+      <c r="AO7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>0</v>
       </c>
       <c r="AQ7" s="3">
         <v>0</v>
       </c>
-      <c r="AR7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>0</v>
+      <c r="AR7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>1</v>
       </c>
       <c r="AT7" s="3">
         <v>0</v>
       </c>
-      <c r="AU7" s="4">
-        <v>1</v>
+      <c r="AU7" s="3">
+        <v>0</v>
       </c>
       <c r="AV7" s="3">
         <v>0</v>
@@ -1904,8 +1904,8 @@
       <c r="BD7" s="3">
         <v>0</v>
       </c>
-      <c r="BE7" s="4">
-        <v>1</v>
+      <c r="BE7" s="3">
+        <v>0</v>
       </c>
       <c r="BF7" s="3">
         <v>0</v>
@@ -1919,8 +1919,8 @@
       <c r="BI7" s="3">
         <v>0</v>
       </c>
-      <c r="BJ7" s="4">
-        <v>1</v>
+      <c r="BJ7" s="3">
+        <v>0</v>
       </c>
       <c r="BK7" s="3">
         <v>0</v>
@@ -1945,11 +1945,11 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -2002,20 +2002,20 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>1</v>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>1</v>
+      <c r="AA8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -2029,14 +2029,14 @@
       <c r="AF8" s="3">
         <v>0</v>
       </c>
-      <c r="AG8" s="3">
-        <v>0</v>
+      <c r="AG8" s="4">
+        <v>1</v>
       </c>
       <c r="AH8" s="3">
         <v>0</v>
       </c>
-      <c r="AI8" s="4">
-        <v>1</v>
+      <c r="AI8" s="3">
+        <v>0</v>
       </c>
       <c r="AJ8" s="3">
         <v>0</v>
@@ -2053,20 +2053,20 @@
       <c r="AN8" s="3">
         <v>0</v>
       </c>
-      <c r="AO8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>0</v>
+      <c r="AO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>1</v>
       </c>
       <c r="AQ8" s="3">
         <v>0</v>
       </c>
-      <c r="AR8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>0</v>
+      <c r="AR8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>1</v>
       </c>
       <c r="AT8" s="3">
         <v>0</v>
@@ -2077,8 +2077,8 @@
       <c r="AV8" s="3">
         <v>0</v>
       </c>
-      <c r="AW8" s="4">
-        <v>1</v>
+      <c r="AW8" s="3">
+        <v>0</v>
       </c>
       <c r="AX8" s="3">
         <v>0</v>
@@ -2089,8 +2089,8 @@
       <c r="AZ8" s="3">
         <v>0</v>
       </c>
-      <c r="BA8" s="3">
-        <v>0</v>
+      <c r="BA8" s="4">
+        <v>1</v>
       </c>
       <c r="BB8" s="3">
         <v>0</v>
@@ -2104,20 +2104,20 @@
       <c r="BE8" s="3">
         <v>0</v>
       </c>
-      <c r="BF8" s="4">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="4">
-        <v>1</v>
+      <c r="BF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>0</v>
       </c>
       <c r="BI8" s="3">
         <v>0</v>
       </c>
-      <c r="BJ8" s="4">
-        <v>1</v>
+      <c r="BJ8" s="3">
+        <v>0</v>
       </c>
       <c r="BK8" s="3">
         <v>0</v>
@@ -2136,8 +2136,8 @@
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
+      <c r="C9" s="4">
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -2145,8 +2145,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -2196,8 +2196,8 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="4">
-        <v>1</v>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -2211,8 +2211,8 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
+      <c r="AB9" s="4">
+        <v>1</v>
       </c>
       <c r="AC9" s="4">
         <v>1</v>
@@ -2220,8 +2220,8 @@
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-      <c r="AE9" s="3">
-        <v>0</v>
+      <c r="AE9" s="4">
+        <v>1</v>
       </c>
       <c r="AF9" s="3">
         <v>0</v>
@@ -2229,14 +2229,14 @@
       <c r="AG9" s="3">
         <v>0</v>
       </c>
-      <c r="AH9" s="4">
-        <v>1</v>
+      <c r="AH9" s="3">
+        <v>0</v>
       </c>
       <c r="AI9" s="3">
         <v>0</v>
       </c>
-      <c r="AJ9" s="3">
-        <v>0</v>
+      <c r="AJ9" s="4">
+        <v>1</v>
       </c>
       <c r="AK9" s="3">
         <v>0</v>
@@ -2247,14 +2247,14 @@
       <c r="AM9" s="3">
         <v>0</v>
       </c>
-      <c r="AN9" s="3">
-        <v>0</v>
+      <c r="AN9" s="4">
+        <v>1</v>
       </c>
       <c r="AO9" s="3">
         <v>0</v>
       </c>
-      <c r="AP9" s="4">
-        <v>1</v>
+      <c r="AP9" s="3">
+        <v>0</v>
       </c>
       <c r="AQ9" s="3">
         <v>0</v>
@@ -2265,11 +2265,11 @@
       <c r="AS9" s="3">
         <v>0</v>
       </c>
-      <c r="AT9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="4">
-        <v>1</v>
+      <c r="AT9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>0</v>
       </c>
       <c r="AV9" s="3">
         <v>0</v>
@@ -2295,8 +2295,8 @@
       <c r="BC9" s="3">
         <v>0</v>
       </c>
-      <c r="BD9" s="4">
-        <v>1</v>
+      <c r="BD9" s="3">
+        <v>0</v>
       </c>
       <c r="BE9" s="3">
         <v>0</v>
@@ -2307,8 +2307,8 @@
       <c r="BG9" s="3">
         <v>0</v>
       </c>
-      <c r="BH9" s="3">
-        <v>0</v>
+      <c r="BH9" s="4">
+        <v>1</v>
       </c>
       <c r="BI9" s="3">
         <v>0</v>
@@ -2316,8 +2316,8 @@
       <c r="BJ9" s="3">
         <v>0</v>
       </c>
-      <c r="BK9" s="4">
-        <v>1</v>
+      <c r="BK9" s="3">
+        <v>0</v>
       </c>
       <c r="BL9" s="3">
         <v>0</v>
@@ -2339,11 +2339,11 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -2393,23 +2393,23 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="4">
+        <v>1</v>
       </c>
       <c r="X10" s="4">
         <v>1</v>
       </c>
-      <c r="Y10" s="4">
-        <v>1</v>
+      <c r="Y10" s="3">
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>1</v>
+      <c r="AA10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
       </c>
       <c r="AC10" s="3">
         <v>0</v>
@@ -2420,32 +2420,32 @@
       <c r="AE10" s="4">
         <v>1</v>
       </c>
-      <c r="AF10" s="3">
-        <v>0</v>
+      <c r="AF10" s="4">
+        <v>1</v>
       </c>
       <c r="AG10" s="3">
         <v>0</v>
       </c>
-      <c r="AH10" s="3">
-        <v>0</v>
+      <c r="AH10" s="4">
+        <v>1</v>
       </c>
       <c r="AI10" s="3">
         <v>0</v>
       </c>
-      <c r="AJ10" s="3">
-        <v>0</v>
+      <c r="AJ10" s="4">
+        <v>1</v>
       </c>
       <c r="AK10" s="3">
         <v>0</v>
       </c>
-      <c r="AL10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>0</v>
+      <c r="AL10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>1</v>
       </c>
       <c r="AO10" s="3">
         <v>0</v>
@@ -2468,26 +2468,26 @@
       <c r="AU10" s="4">
         <v>1</v>
       </c>
-      <c r="AV10" s="4">
-        <v>1</v>
+      <c r="AV10" s="3">
+        <v>0</v>
       </c>
       <c r="AW10" s="3">
         <v>0</v>
       </c>
-      <c r="AX10" s="4">
-        <v>1</v>
+      <c r="AX10" s="3">
+        <v>0</v>
       </c>
       <c r="AY10" s="3">
         <v>0</v>
       </c>
-      <c r="AZ10" s="4">
-        <v>1</v>
+      <c r="AZ10" s="3">
+        <v>0</v>
       </c>
       <c r="BA10" s="3">
         <v>0</v>
       </c>
-      <c r="BB10" s="4">
-        <v>1</v>
+      <c r="BB10" s="3">
+        <v>0</v>
       </c>
       <c r="BC10" s="3">
         <v>0</v>
@@ -2536,14 +2536,14 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
+      <c r="E11" s="4">
+        <v>1</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
+      <c r="G11" s="3">
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -2590,11 +2590,11 @@
       <c r="V11" s="3">
         <v>0</v>
       </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4">
-        <v>1</v>
+      <c r="W11" s="4">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
       </c>
       <c r="Y11" s="3">
         <v>0</v>
@@ -2644,11 +2644,11 @@
       <c r="AN11" s="3">
         <v>0</v>
       </c>
-      <c r="AO11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="3">
-        <v>0</v>
+      <c r="AO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>1</v>
       </c>
       <c r="AQ11" s="3">
         <v>0</v>
@@ -2656,11 +2656,11 @@
       <c r="AR11" s="3">
         <v>0</v>
       </c>
-      <c r="AS11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="3">
-        <v>0</v>
+      <c r="AS11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>1</v>
       </c>
       <c r="AU11" s="3">
         <v>0</v>
@@ -2668,14 +2668,14 @@
       <c r="AV11" s="3">
         <v>0</v>
       </c>
-      <c r="AW11" s="4">
-        <v>1</v>
+      <c r="AW11" s="3">
+        <v>0</v>
       </c>
       <c r="AX11" s="3">
         <v>0</v>
       </c>
-      <c r="AY11" s="3">
-        <v>0</v>
+      <c r="AY11" s="4">
+        <v>1</v>
       </c>
       <c r="AZ11" s="3">
         <v>0</v>
@@ -2695,11 +2695,11 @@
       <c r="BE11" s="3">
         <v>0</v>
       </c>
-      <c r="BF11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="3">
-        <v>0</v>
+      <c r="BF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="4">
+        <v>1</v>
       </c>
       <c r="BH11" s="3">
         <v>0</v>
@@ -2707,11 +2707,11 @@
       <c r="BI11" s="3">
         <v>0</v>
       </c>
-      <c r="BJ11" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="4">
-        <v>1</v>
+      <c r="BJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="3">
+        <v>0</v>
       </c>
       <c r="BL11" s="3">
         <v>0</v>
@@ -2727,17 +2727,17 @@
       <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -2796,26 +2796,26 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>1</v>
+      <c r="Z12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
       </c>
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
+      <c r="AE12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>1</v>
       </c>
       <c r="AG12" s="3">
         <v>0</v>
@@ -2823,11 +2823,11 @@
       <c r="AH12" s="3">
         <v>0</v>
       </c>
-      <c r="AI12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>0</v>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>1</v>
       </c>
       <c r="AK12" s="3">
         <v>0</v>
@@ -2835,35 +2835,35 @@
       <c r="AL12" s="3">
         <v>0</v>
       </c>
-      <c r="AM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>0</v>
+      <c r="AM12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>1</v>
       </c>
       <c r="AP12" s="3">
         <v>0</v>
       </c>
-      <c r="AQ12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="4">
-        <v>1</v>
+      <c r="AQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>0</v>
       </c>
       <c r="AW12" s="3">
         <v>0</v>
@@ -2874,23 +2874,23 @@
       <c r="AY12" s="3">
         <v>0</v>
       </c>
-      <c r="AZ12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>0</v>
+      <c r="AZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="4">
+        <v>1</v>
       </c>
       <c r="BB12" s="3">
         <v>0</v>
       </c>
-      <c r="BC12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="4">
-        <v>1</v>
+      <c r="BC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="3">
+        <v>0</v>
       </c>
       <c r="BF12" s="3">
         <v>0</v>
@@ -2898,17 +2898,17 @@
       <c r="BG12" s="3">
         <v>0</v>
       </c>
-      <c r="BH12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="4">
-        <v>1</v>
+      <c r="BH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="3">
+        <v>0</v>
       </c>
       <c r="BL12" s="3">
         <v>0</v>
@@ -2924,8 +2924,8 @@
       <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
+      <c r="C13" s="4">
+        <v>1</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -2933,8 +2933,8 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
+      <c r="F13" s="3">
+        <v>0</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -2993,17 +2993,17 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4">
-        <v>1</v>
+      <c r="Z13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
       </c>
       <c r="AD13" s="3">
         <v>0</v>
@@ -3011,11 +3011,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-      <c r="AF13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>0</v>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>1</v>
       </c>
       <c r="AH13" s="3">
         <v>0</v>
@@ -3023,20 +3023,20 @@
       <c r="AI13" s="3">
         <v>0</v>
       </c>
-      <c r="AJ13" s="3">
-        <v>0</v>
+      <c r="AJ13" s="4">
+        <v>1</v>
       </c>
       <c r="AK13" s="3">
         <v>0</v>
       </c>
-      <c r="AL13" s="3">
-        <v>0</v>
+      <c r="AL13" s="4">
+        <v>1</v>
       </c>
       <c r="AM13" s="3">
         <v>0</v>
       </c>
-      <c r="AN13" s="4">
-        <v>1</v>
+      <c r="AN13" s="3">
+        <v>0</v>
       </c>
       <c r="AO13" s="3">
         <v>0</v>
@@ -3047,14 +3047,14 @@
       <c r="AQ13" s="3">
         <v>0</v>
       </c>
-      <c r="AR13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>0</v>
+      <c r="AR13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>1</v>
       </c>
       <c r="AU13" s="3">
         <v>0</v>
@@ -3062,23 +3062,23 @@
       <c r="AV13" s="3">
         <v>0</v>
       </c>
-      <c r="AW13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="3">
-        <v>0</v>
+      <c r="AW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>1</v>
       </c>
       <c r="AY13" s="3">
         <v>0</v>
       </c>
-      <c r="AZ13" s="4">
-        <v>1</v>
+      <c r="AZ13" s="3">
+        <v>0</v>
       </c>
       <c r="BA13" s="3">
         <v>0</v>
       </c>
-      <c r="BB13" s="4">
-        <v>1</v>
+      <c r="BB13" s="3">
+        <v>0</v>
       </c>
       <c r="BC13" s="3">
         <v>0</v>
@@ -3089,23 +3089,23 @@
       <c r="BE13" s="3">
         <v>0</v>
       </c>
-      <c r="BF13" s="3">
-        <v>0</v>
+      <c r="BF13" s="4">
+        <v>1</v>
       </c>
       <c r="BG13" s="3">
         <v>0</v>
       </c>
-      <c r="BH13" s="4">
-        <v>1</v>
+      <c r="BH13" s="3">
+        <v>0</v>
       </c>
       <c r="BI13" s="3">
         <v>0</v>
       </c>
-      <c r="BJ13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="4">
-        <v>1</v>
+      <c r="BJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="3">
+        <v>0</v>
       </c>
       <c r="BL13" s="3">
         <v>0</v>
@@ -3121,8 +3121,8 @@
       <c r="B14" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
+      <c r="C14" s="4">
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -3133,8 +3133,8 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -3181,8 +3181,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="4">
-        <v>1</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -3199,8 +3199,8 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AC14" s="4">
+        <v>1</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
@@ -3235,11 +3235,11 @@
       <c r="AN14" s="3">
         <v>0</v>
       </c>
-      <c r="AO14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="3">
-        <v>0</v>
+      <c r="AO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>1</v>
       </c>
       <c r="AQ14" s="3">
         <v>0</v>
@@ -3247,8 +3247,8 @@
       <c r="AR14" s="3">
         <v>0</v>
       </c>
-      <c r="AS14" s="3">
-        <v>0</v>
+      <c r="AS14" s="4">
+        <v>1</v>
       </c>
       <c r="AT14" s="3">
         <v>0</v>
@@ -3259,14 +3259,14 @@
       <c r="AV14" s="3">
         <v>0</v>
       </c>
-      <c r="AW14" s="4">
-        <v>1</v>
+      <c r="AW14" s="3">
+        <v>0</v>
       </c>
       <c r="AX14" s="3">
         <v>0</v>
       </c>
-      <c r="AY14" s="3">
-        <v>0</v>
+      <c r="AY14" s="4">
+        <v>1</v>
       </c>
       <c r="AZ14" s="3">
         <v>0</v>
@@ -3286,11 +3286,11 @@
       <c r="BE14" s="3">
         <v>0</v>
       </c>
-      <c r="BF14" s="4">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="3">
-        <v>0</v>
+      <c r="BF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="4">
+        <v>1</v>
       </c>
       <c r="BH14" s="3">
         <v>0</v>
@@ -3298,8 +3298,8 @@
       <c r="BI14" s="3">
         <v>0</v>
       </c>
-      <c r="BJ14" s="4">
-        <v>1</v>
+      <c r="BJ14" s="3">
+        <v>0</v>
       </c>
       <c r="BK14" s="3">
         <v>0</v>
@@ -3318,8 +3318,8 @@
       <c r="B15" s="3">
         <v>0</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
+      <c r="C15" s="4">
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -3330,8 +3330,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -3387,17 +3387,17 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>1</v>
+      <c r="Z15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
@@ -3432,20 +3432,20 @@
       <c r="AN15" s="3">
         <v>0</v>
       </c>
-      <c r="AO15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>0</v>
+      <c r="AO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>1</v>
       </c>
       <c r="AQ15" s="3">
         <v>0</v>
       </c>
-      <c r="AR15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="3">
-        <v>0</v>
+      <c r="AR15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>1</v>
       </c>
       <c r="AT15" s="3">
         <v>0</v>
@@ -3456,14 +3456,14 @@
       <c r="AV15" s="3">
         <v>0</v>
       </c>
-      <c r="AW15" s="4">
-        <v>1</v>
+      <c r="AW15" s="3">
+        <v>0</v>
       </c>
       <c r="AX15" s="3">
         <v>0</v>
       </c>
-      <c r="AY15" s="3">
-        <v>0</v>
+      <c r="AY15" s="4">
+        <v>1</v>
       </c>
       <c r="AZ15" s="3">
         <v>0</v>
@@ -3483,20 +3483,20 @@
       <c r="BE15" s="3">
         <v>0</v>
       </c>
-      <c r="BF15" s="4">
-        <v>1</v>
-      </c>
-      <c r="BG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="4">
-        <v>1</v>
+      <c r="BF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="3">
+        <v>0</v>
       </c>
       <c r="BI15" s="3">
         <v>0</v>
       </c>
-      <c r="BJ15" s="4">
-        <v>1</v>
+      <c r="BJ15" s="3">
+        <v>0</v>
       </c>
       <c r="BK15" s="3">
         <v>0</v>
@@ -3515,8 +3515,8 @@
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
+      <c r="C16" s="4">
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -3527,8 +3527,8 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
+      <c r="G16" s="3">
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -3575,8 +3575,8 @@
       <c r="V16" s="3">
         <v>0</v>
       </c>
-      <c r="W16" s="4">
-        <v>1</v>
+      <c r="W16" s="3">
+        <v>0</v>
       </c>
       <c r="X16" s="3">
         <v>0</v>
@@ -3593,8 +3593,8 @@
       <c r="AB16" s="3">
         <v>0</v>
       </c>
-      <c r="AC16" s="3">
-        <v>0</v>
+      <c r="AC16" s="4">
+        <v>1</v>
       </c>
       <c r="AD16" s="3">
         <v>0</v>
@@ -3602,11 +3602,11 @@
       <c r="AE16" s="3">
         <v>0</v>
       </c>
-      <c r="AF16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>0</v>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>1</v>
       </c>
       <c r="AH16" s="3">
         <v>0</v>
@@ -3626,26 +3626,26 @@
       <c r="AM16" s="3">
         <v>0</v>
       </c>
-      <c r="AN16" s="4">
-        <v>1</v>
+      <c r="AN16" s="3">
+        <v>0</v>
       </c>
       <c r="AO16" s="3">
         <v>0</v>
       </c>
-      <c r="AP16" s="3">
-        <v>0</v>
+      <c r="AP16" s="4">
+        <v>1</v>
       </c>
       <c r="AQ16" s="3">
         <v>0</v>
       </c>
-      <c r="AR16" s="3">
-        <v>0</v>
+      <c r="AR16" s="4">
+        <v>1</v>
       </c>
       <c r="AS16" s="3">
         <v>0</v>
       </c>
-      <c r="AT16" s="3">
-        <v>0</v>
+      <c r="AT16" s="4">
+        <v>1</v>
       </c>
       <c r="AU16" s="3">
         <v>0</v>
@@ -3653,11 +3653,11 @@
       <c r="AV16" s="3">
         <v>0</v>
       </c>
-      <c r="AW16" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="3">
-        <v>0</v>
+      <c r="AW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>1</v>
       </c>
       <c r="AY16" s="3">
         <v>0</v>
@@ -3686,8 +3686,8 @@
       <c r="BG16" s="3">
         <v>0</v>
       </c>
-      <c r="BH16" s="4">
-        <v>1</v>
+      <c r="BH16" s="3">
+        <v>0</v>
       </c>
       <c r="BI16" s="3">
         <v>0</v>
@@ -3695,8 +3695,8 @@
       <c r="BJ16" s="3">
         <v>0</v>
       </c>
-      <c r="BK16" s="4">
-        <v>1</v>
+      <c r="BK16" s="3">
+        <v>0</v>
       </c>
       <c r="BL16" s="3">
         <v>0</v>
@@ -3712,8 +3712,8 @@
       <c r="B17" s="3">
         <v>0</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
+      <c r="C17" s="4">
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -3724,8 +3724,8 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -3772,8 +3772,8 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-      <c r="W17" s="4">
-        <v>1</v>
+      <c r="W17" s="3">
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>0</v>
@@ -3790,8 +3790,8 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-      <c r="AC17" s="3">
-        <v>0</v>
+      <c r="AC17" s="4">
+        <v>1</v>
       </c>
       <c r="AD17" s="3">
         <v>0</v>
@@ -3799,11 +3799,11 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-      <c r="AF17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>0</v>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>1</v>
       </c>
       <c r="AH17" s="3">
         <v>0</v>
@@ -3823,20 +3823,20 @@
       <c r="AM17" s="3">
         <v>0</v>
       </c>
-      <c r="AN17" s="4">
-        <v>1</v>
+      <c r="AN17" s="3">
+        <v>0</v>
       </c>
       <c r="AO17" s="3">
         <v>0</v>
       </c>
-      <c r="AP17" s="3">
-        <v>0</v>
+      <c r="AP17" s="4">
+        <v>1</v>
       </c>
       <c r="AQ17" s="3">
         <v>0</v>
       </c>
-      <c r="AR17" s="3">
-        <v>0</v>
+      <c r="AR17" s="4">
+        <v>1</v>
       </c>
       <c r="AS17" s="3">
         <v>0</v>
@@ -3850,11 +3850,11 @@
       <c r="AV17" s="3">
         <v>0</v>
       </c>
-      <c r="AW17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="3">
-        <v>0</v>
+      <c r="AW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="4">
+        <v>1</v>
       </c>
       <c r="AY17" s="3">
         <v>0</v>
@@ -3883,8 +3883,8 @@
       <c r="BG17" s="3">
         <v>0</v>
       </c>
-      <c r="BH17" s="4">
-        <v>1</v>
+      <c r="BH17" s="3">
+        <v>0</v>
       </c>
       <c r="BI17" s="3">
         <v>0</v>
@@ -3909,20 +3909,20 @@
       <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
+      <c r="C18" s="4">
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -3984,17 +3984,17 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="4">
-        <v>1</v>
+      <c r="AB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
       </c>
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-      <c r="AE18" s="3">
-        <v>0</v>
+      <c r="AE18" s="4">
+        <v>1</v>
       </c>
       <c r="AF18" s="3">
         <v>0</v>
@@ -4002,26 +4002,26 @@
       <c r="AG18" s="3">
         <v>0</v>
       </c>
-      <c r="AH18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>0</v>
+      <c r="AH18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>1</v>
       </c>
       <c r="AM18" s="3">
         <v>0</v>
       </c>
-      <c r="AN18" s="3">
-        <v>0</v>
+      <c r="AN18" s="4">
+        <v>1</v>
       </c>
       <c r="AO18" s="3">
         <v>0</v>
@@ -4029,8 +4029,8 @@
       <c r="AP18" s="3">
         <v>0</v>
       </c>
-      <c r="AQ18" s="4">
-        <v>1</v>
+      <c r="AQ18" s="3">
+        <v>0</v>
       </c>
       <c r="AR18" s="3">
         <v>0</v>
@@ -4041,35 +4041,35 @@
       <c r="AT18" s="3">
         <v>0</v>
       </c>
-      <c r="AU18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="3">
-        <v>0</v>
+      <c r="AU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>1</v>
       </c>
       <c r="AW18" s="3">
         <v>0</v>
       </c>
-      <c r="AX18" s="4">
-        <v>1</v>
+      <c r="AX18" s="3">
+        <v>0</v>
       </c>
       <c r="AY18" s="3">
         <v>0</v>
       </c>
-      <c r="AZ18" s="4">
-        <v>1</v>
+      <c r="AZ18" s="3">
+        <v>0</v>
       </c>
       <c r="BA18" s="4">
         <v>1</v>
       </c>
-      <c r="BB18" s="4">
-        <v>1</v>
+      <c r="BB18" s="3">
+        <v>0</v>
       </c>
       <c r="BC18" s="3">
         <v>0</v>
       </c>
-      <c r="BD18" s="4">
-        <v>1</v>
+      <c r="BD18" s="3">
+        <v>0</v>
       </c>
       <c r="BE18" s="3">
         <v>0</v>
@@ -4181,11 +4181,11 @@
       <c r="AA19" s="3">
         <v>0</v>
       </c>
-      <c r="AB19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>1</v>
+      <c r="AB19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
       </c>
       <c r="AD19" s="3">
         <v>0</v>
@@ -4220,11 +4220,11 @@
       <c r="AN19" s="3">
         <v>0</v>
       </c>
-      <c r="AO19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="3">
-        <v>0</v>
+      <c r="AO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>1</v>
       </c>
       <c r="AQ19" s="3">
         <v>0</v>
@@ -4232,8 +4232,8 @@
       <c r="AR19" s="3">
         <v>0</v>
       </c>
-      <c r="AS19" s="3">
-        <v>0</v>
+      <c r="AS19" s="4">
+        <v>1</v>
       </c>
       <c r="AT19" s="3">
         <v>0</v>
@@ -4244,14 +4244,14 @@
       <c r="AV19" s="3">
         <v>0</v>
       </c>
-      <c r="AW19" s="4">
-        <v>1</v>
+      <c r="AW19" s="3">
+        <v>0</v>
       </c>
       <c r="AX19" s="3">
         <v>0</v>
       </c>
-      <c r="AY19" s="3">
-        <v>0</v>
+      <c r="AY19" s="4">
+        <v>1</v>
       </c>
       <c r="AZ19" s="3">
         <v>0</v>
@@ -4271,11 +4271,11 @@
       <c r="BE19" s="3">
         <v>0</v>
       </c>
-      <c r="BF19" s="4">
-        <v>1</v>
-      </c>
-      <c r="BG19" s="3">
-        <v>0</v>
+      <c r="BF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="4">
+        <v>1</v>
       </c>
       <c r="BH19" s="3">
         <v>0</v>
@@ -4283,8 +4283,8 @@
       <c r="BI19" s="3">
         <v>0</v>
       </c>
-      <c r="BJ19" s="4">
-        <v>1</v>
+      <c r="BJ19" s="3">
+        <v>0</v>
       </c>
       <c r="BK19" s="3">
         <v>0</v>
@@ -4303,20 +4303,20 @@
       <c r="B20" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
+      <c r="C20" s="4">
+        <v>1</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -4372,23 +4372,23 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="4">
-        <v>1</v>
+      <c r="Z20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
       </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-      <c r="AE20" s="3">
-        <v>0</v>
+      <c r="AE20" s="4">
+        <v>1</v>
       </c>
       <c r="AF20" s="3">
         <v>0</v>
@@ -4402,8 +4402,8 @@
       <c r="AI20" s="3">
         <v>0</v>
       </c>
-      <c r="AJ20" s="3">
-        <v>0</v>
+      <c r="AJ20" s="4">
+        <v>1</v>
       </c>
       <c r="AK20" s="4">
         <v>1</v>
@@ -4411,11 +4411,11 @@
       <c r="AL20" s="3">
         <v>0</v>
       </c>
-      <c r="AM20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>0</v>
+      <c r="AM20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>1</v>
       </c>
       <c r="AO20" s="3">
         <v>0</v>
@@ -4426,17 +4426,17 @@
       <c r="AQ20" s="3">
         <v>0</v>
       </c>
-      <c r="AR20" s="3">
-        <v>0</v>
+      <c r="AR20" s="4">
+        <v>1</v>
       </c>
       <c r="AS20" s="4">
         <v>1</v>
       </c>
-      <c r="AT20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="4">
-        <v>1</v>
+      <c r="AT20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>0</v>
       </c>
       <c r="AV20" s="3">
         <v>0</v>
@@ -4450,11 +4450,11 @@
       <c r="AY20" s="3">
         <v>0</v>
       </c>
-      <c r="AZ20" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA20" s="4">
-        <v>1</v>
+      <c r="AZ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>0</v>
       </c>
       <c r="BB20" s="3">
         <v>0</v>
@@ -4462,8 +4462,8 @@
       <c r="BC20" s="4">
         <v>1</v>
       </c>
-      <c r="BD20" s="4">
-        <v>1</v>
+      <c r="BD20" s="3">
+        <v>0</v>
       </c>
       <c r="BE20" s="3">
         <v>0</v>
@@ -4474,14 +4474,14 @@
       <c r="BG20" s="3">
         <v>0</v>
       </c>
-      <c r="BH20" s="4">
-        <v>1</v>
+      <c r="BH20" s="3">
+        <v>0</v>
       </c>
       <c r="BI20" s="3">
         <v>0</v>
       </c>
-      <c r="BJ20" s="4">
-        <v>1</v>
+      <c r="BJ20" s="3">
+        <v>0</v>
       </c>
       <c r="BK20" s="4">
         <v>1</v>
@@ -4503,11 +4503,11 @@
       <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -4560,8 +4560,8 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="4">
-        <v>1</v>
+      <c r="W21" s="3">
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -4578,8 +4578,8 @@
       <c r="AB21" s="3">
         <v>0</v>
       </c>
-      <c r="AC21" s="3">
-        <v>0</v>
+      <c r="AC21" s="4">
+        <v>1</v>
       </c>
       <c r="AD21" s="3">
         <v>0</v>
@@ -4614,17 +4614,17 @@
       <c r="AN21" s="3">
         <v>0</v>
       </c>
-      <c r="AO21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="3">
-        <v>0</v>
+      <c r="AO21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="4">
+        <v>1</v>
       </c>
       <c r="AQ21" s="3">
         <v>0</v>
       </c>
-      <c r="AR21" s="3">
-        <v>0</v>
+      <c r="AR21" s="4">
+        <v>1</v>
       </c>
       <c r="AS21" s="3">
         <v>0</v>
@@ -4638,14 +4638,14 @@
       <c r="AV21" s="3">
         <v>0</v>
       </c>
-      <c r="AW21" s="4">
-        <v>1</v>
+      <c r="AW21" s="3">
+        <v>0</v>
       </c>
       <c r="AX21" s="3">
         <v>0</v>
       </c>
-      <c r="AY21" s="3">
-        <v>0</v>
+      <c r="AY21" s="4">
+        <v>1</v>
       </c>
       <c r="AZ21" s="3">
         <v>0</v>
@@ -4665,14 +4665,14 @@
       <c r="BE21" s="3">
         <v>0</v>
       </c>
-      <c r="BF21" s="4">
-        <v>1</v>
-      </c>
-      <c r="BG21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="4">
-        <v>1</v>
+      <c r="BF21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="3">
+        <v>0</v>
       </c>
       <c r="BI21" s="3">
         <v>0</v>
@@ -4697,20 +4697,20 @@
       <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="4">
-        <v>1</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -4760,8 +4760,8 @@
       <c r="W22" s="4">
         <v>1</v>
       </c>
-      <c r="X22" s="4">
-        <v>1</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -4772,8 +4772,8 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
+      <c r="AB22" s="4">
+        <v>1</v>
       </c>
       <c r="AC22" s="4">
         <v>1</v>
@@ -4781,8 +4781,8 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-      <c r="AE22" s="3">
-        <v>0</v>
+      <c r="AE22" s="4">
+        <v>1</v>
       </c>
       <c r="AF22" s="3">
         <v>0</v>
@@ -4790,8 +4790,8 @@
       <c r="AG22" s="4">
         <v>1</v>
       </c>
-      <c r="AH22" s="3">
-        <v>0</v>
+      <c r="AH22" s="4">
+        <v>1</v>
       </c>
       <c r="AI22" s="3">
         <v>0</v>
@@ -4811,17 +4811,17 @@
       <c r="AN22" s="3">
         <v>0</v>
       </c>
-      <c r="AO22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="3">
-        <v>0</v>
+      <c r="AO22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>1</v>
       </c>
       <c r="AQ22" s="3">
         <v>0</v>
       </c>
-      <c r="AR22" s="3">
-        <v>0</v>
+      <c r="AR22" s="4">
+        <v>1</v>
       </c>
       <c r="AS22" s="3">
         <v>0</v>
@@ -4829,20 +4829,20 @@
       <c r="AT22" s="3">
         <v>0</v>
       </c>
-      <c r="AU22" s="4">
-        <v>1</v>
+      <c r="AU22" s="3">
+        <v>0</v>
       </c>
       <c r="AV22" s="3">
         <v>0</v>
       </c>
-      <c r="AW22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX22" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="3">
-        <v>0</v>
+      <c r="AW22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="4">
+        <v>1</v>
       </c>
       <c r="AZ22" s="3">
         <v>0</v>
@@ -4862,14 +4862,14 @@
       <c r="BE22" s="3">
         <v>0</v>
       </c>
-      <c r="BF22" s="4">
-        <v>1</v>
-      </c>
-      <c r="BG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH22" s="4">
-        <v>1</v>
+      <c r="BF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="3">
+        <v>0</v>
       </c>
       <c r="BI22" s="3">
         <v>0</v>
@@ -4894,20 +4894,20 @@
       <c r="B23" s="3">
         <v>0</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
+      <c r="C23" s="4">
+        <v>1</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -4954,8 +4954,8 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-      <c r="W23" s="4">
-        <v>1</v>
+      <c r="W23" s="3">
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -4972,8 +4972,8 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
+      <c r="AC23" s="4">
+        <v>1</v>
       </c>
       <c r="AD23" s="3">
         <v>0</v>
@@ -4984,11 +4984,11 @@
       <c r="AF23" s="3">
         <v>0</v>
       </c>
-      <c r="AG23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="4">
-        <v>1</v>
+      <c r="AG23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
       </c>
       <c r="AI23" s="3">
         <v>0</v>
@@ -5017,11 +5017,11 @@
       <c r="AQ23" s="3">
         <v>0</v>
       </c>
-      <c r="AR23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="3">
-        <v>0</v>
+      <c r="AR23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>1</v>
       </c>
       <c r="AT23" s="3">
         <v>0</v>
@@ -5032,8 +5032,8 @@
       <c r="AV23" s="3">
         <v>0</v>
       </c>
-      <c r="AW23" s="4">
-        <v>1</v>
+      <c r="AW23" s="3">
+        <v>0</v>
       </c>
       <c r="AX23" s="3">
         <v>0</v>
@@ -5041,8 +5041,8 @@
       <c r="AY23" s="3">
         <v>0</v>
       </c>
-      <c r="AZ23" s="3">
-        <v>0</v>
+      <c r="AZ23" s="4">
+        <v>1</v>
       </c>
       <c r="BA23" s="3">
         <v>0</v>
@@ -5059,8 +5059,8 @@
       <c r="BE23" s="3">
         <v>0</v>
       </c>
-      <c r="BF23" s="4">
-        <v>1</v>
+      <c r="BF23" s="3">
+        <v>0</v>
       </c>
       <c r="BG23" s="3">
         <v>0</v>
@@ -5071,8 +5071,8 @@
       <c r="BI23" s="3">
         <v>0</v>
       </c>
-      <c r="BJ23" s="4">
-        <v>1</v>
+      <c r="BJ23" s="3">
+        <v>0</v>
       </c>
       <c r="BK23" s="3">
         <v>0</v>
@@ -5091,8 +5091,8 @@
       <c r="B24" s="3">
         <v>0</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
+      <c r="C24" s="4">
+        <v>1</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -5100,8 +5100,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="4">
-        <v>1</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -5151,11 +5151,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="4">
-        <v>1</v>
+      <c r="W24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -5181,11 +5181,11 @@
       <c r="AF24" s="3">
         <v>0</v>
       </c>
-      <c r="AG24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="4">
-        <v>1</v>
+      <c r="AG24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
       </c>
       <c r="AI24" s="3">
         <v>0</v>
@@ -5214,11 +5214,11 @@
       <c r="AQ24" s="3">
         <v>0</v>
       </c>
-      <c r="AR24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="3">
-        <v>0</v>
+      <c r="AR24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>1</v>
       </c>
       <c r="AT24" s="3">
         <v>0</v>
@@ -5229,8 +5229,8 @@
       <c r="AV24" s="3">
         <v>0</v>
       </c>
-      <c r="AW24" s="4">
-        <v>1</v>
+      <c r="AW24" s="3">
+        <v>0</v>
       </c>
       <c r="AX24" s="3">
         <v>0</v>
@@ -5238,8 +5238,8 @@
       <c r="AY24" s="3">
         <v>0</v>
       </c>
-      <c r="AZ24" s="3">
-        <v>0</v>
+      <c r="AZ24" s="4">
+        <v>1</v>
       </c>
       <c r="BA24" s="3">
         <v>0</v>
@@ -5256,8 +5256,8 @@
       <c r="BE24" s="3">
         <v>0</v>
       </c>
-      <c r="BF24" s="4">
-        <v>1</v>
+      <c r="BF24" s="3">
+        <v>0</v>
       </c>
       <c r="BG24" s="3">
         <v>0</v>
@@ -5268,8 +5268,8 @@
       <c r="BI24" s="3">
         <v>0</v>
       </c>
-      <c r="BJ24" s="4">
-        <v>1</v>
+      <c r="BJ24" s="3">
+        <v>0</v>
       </c>
       <c r="BK24" s="3">
         <v>0</v>
@@ -5348,35 +5348,35 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-      <c r="W25" s="4">
-        <v>1</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4">
-        <v>1</v>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
       </c>
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-      <c r="AA25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>0</v>
+      <c r="AA25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>1</v>
       </c>
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-      <c r="AE25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>0</v>
+      <c r="AE25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>1</v>
       </c>
       <c r="AG25" s="3">
         <v>0</v>
@@ -5387,23 +5387,23 @@
       <c r="AI25" s="3">
         <v>0</v>
       </c>
-      <c r="AJ25" s="3">
-        <v>0</v>
+      <c r="AJ25" s="4">
+        <v>1</v>
       </c>
       <c r="AK25" s="4">
         <v>1</v>
       </c>
-      <c r="AL25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>0</v>
+      <c r="AL25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>1</v>
       </c>
       <c r="AP25" s="3">
         <v>0</v>
@@ -5411,20 +5411,20 @@
       <c r="AQ25" s="3">
         <v>0</v>
       </c>
-      <c r="AR25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="3">
-        <v>0</v>
+      <c r="AR25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>1</v>
       </c>
       <c r="AT25" s="3">
         <v>0</v>
       </c>
-      <c r="AU25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV25" s="4">
-        <v>1</v>
+      <c r="AU25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="3">
+        <v>0</v>
       </c>
       <c r="AW25" s="3">
         <v>0</v>
@@ -5435,23 +5435,23 @@
       <c r="AY25" s="3">
         <v>0</v>
       </c>
-      <c r="AZ25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BB25" s="4">
-        <v>1</v>
+      <c r="AZ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="3">
+        <v>0</v>
       </c>
       <c r="BC25" s="4">
         <v>1</v>
       </c>
-      <c r="BD25" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE25" s="4">
-        <v>1</v>
+      <c r="BD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="3">
+        <v>0</v>
       </c>
       <c r="BF25" s="3">
         <v>0</v>
@@ -5485,8 +5485,8 @@
       <c r="B26" s="3">
         <v>0</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
+      <c r="C26" s="4">
+        <v>1</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -5494,8 +5494,8 @@
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="4">
-        <v>1</v>
+      <c r="F26" s="3">
+        <v>0</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -5545,11 +5545,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="4">
-        <v>1</v>
+      <c r="W26" s="4">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
@@ -5560,17 +5560,17 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="4">
-        <v>1</v>
+      <c r="AB26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-      <c r="AE26" s="3">
-        <v>0</v>
+      <c r="AE26" s="4">
+        <v>1</v>
       </c>
       <c r="AF26" s="3">
         <v>0</v>
@@ -5578,47 +5578,47 @@
       <c r="AG26" s="3">
         <v>0</v>
       </c>
-      <c r="AH26" s="4">
-        <v>1</v>
+      <c r="AH26" s="3">
+        <v>0</v>
       </c>
       <c r="AI26" s="3">
         <v>0</v>
       </c>
-      <c r="AJ26" s="3">
-        <v>0</v>
+      <c r="AJ26" s="4">
+        <v>1</v>
       </c>
       <c r="AK26" s="3">
         <v>0</v>
       </c>
-      <c r="AL26" s="3">
-        <v>0</v>
+      <c r="AL26" s="4">
+        <v>1</v>
       </c>
       <c r="AM26" s="3">
         <v>0</v>
       </c>
-      <c r="AN26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="4">
-        <v>1</v>
+      <c r="AN26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="3">
+        <v>0</v>
       </c>
       <c r="AQ26" s="3">
         <v>0</v>
       </c>
-      <c r="AR26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="3">
-        <v>0</v>
+      <c r="AR26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>1</v>
       </c>
       <c r="AT26" s="3">
         <v>0</v>
       </c>
-      <c r="AU26" s="4">
-        <v>1</v>
+      <c r="AU26" s="3">
+        <v>0</v>
       </c>
       <c r="AV26" s="3">
         <v>0</v>
@@ -5638,17 +5638,17 @@
       <c r="BA26" s="3">
         <v>0</v>
       </c>
-      <c r="BB26" s="4">
-        <v>1</v>
+      <c r="BB26" s="3">
+        <v>0</v>
       </c>
       <c r="BC26" s="3">
         <v>0</v>
       </c>
-      <c r="BD26" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE26" s="4">
-        <v>1</v>
+      <c r="BD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="3">
+        <v>0</v>
       </c>
       <c r="BF26" s="3">
         <v>0</v>
@@ -5662,8 +5662,8 @@
       <c r="BI26" s="3">
         <v>0</v>
       </c>
-      <c r="BJ26" s="4">
-        <v>1</v>
+      <c r="BJ26" s="3">
+        <v>0</v>
       </c>
       <c r="BK26" s="3">
         <v>0</v>
@@ -5682,20 +5682,20 @@
       <c r="B27" s="3">
         <v>0</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
+      <c r="C27" s="4">
+        <v>1</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -5742,11 +5742,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="4">
-        <v>1</v>
+      <c r="W27" s="4">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
@@ -5769,11 +5769,11 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-      <c r="AF27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>0</v>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>1</v>
       </c>
       <c r="AH27" s="3">
         <v>0</v>
@@ -5793,26 +5793,26 @@
       <c r="AM27" s="3">
         <v>0</v>
       </c>
-      <c r="AN27" s="4">
-        <v>1</v>
+      <c r="AN27" s="3">
+        <v>0</v>
       </c>
       <c r="AO27" s="3">
         <v>0</v>
       </c>
-      <c r="AP27" s="3">
-        <v>0</v>
+      <c r="AP27" s="4">
+        <v>1</v>
       </c>
       <c r="AQ27" s="3">
         <v>0</v>
       </c>
-      <c r="AR27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="3">
-        <v>0</v>
+      <c r="AR27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="4">
+        <v>1</v>
       </c>
       <c r="AU27" s="3">
         <v>0</v>
@@ -5820,11 +5820,11 @@
       <c r="AV27" s="3">
         <v>0</v>
       </c>
-      <c r="AW27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX27" s="3">
-        <v>0</v>
+      <c r="AW27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="4">
+        <v>1</v>
       </c>
       <c r="AY27" s="3">
         <v>0</v>
@@ -5853,17 +5853,17 @@
       <c r="BG27" s="3">
         <v>0</v>
       </c>
-      <c r="BH27" s="4">
-        <v>1</v>
+      <c r="BH27" s="3">
+        <v>0</v>
       </c>
       <c r="BI27" s="3">
         <v>0</v>
       </c>
-      <c r="BJ27" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK27" s="4">
-        <v>1</v>
+      <c r="BJ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="3">
+        <v>0</v>
       </c>
       <c r="BL27" s="3">
         <v>0</v>
@@ -5879,8 +5879,8 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="3">
-        <v>0</v>
+      <c r="C28" s="4">
+        <v>1</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -5891,8 +5891,8 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="4">
-        <v>1</v>
+      <c r="G28" s="3">
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -5948,77 +5948,77 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-      <c r="Z28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="4">
-        <v>1</v>
+      <c r="Z28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
       </c>
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-      <c r="AE28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="3">
-        <v>0</v>
+      <c r="AE28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>1</v>
       </c>
       <c r="AH28" s="3">
         <v>0</v>
       </c>
-      <c r="AI28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>0</v>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>1</v>
       </c>
       <c r="AM28" s="3">
         <v>0</v>
       </c>
-      <c r="AN28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="3">
-        <v>0</v>
+      <c r="AN28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>1</v>
       </c>
       <c r="AP28" s="3">
         <v>0</v>
       </c>
-      <c r="AQ28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AW28" s="4">
-        <v>1</v>
+      <c r="AQ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="3">
+        <v>0</v>
       </c>
       <c r="AX28" s="3">
         <v>0</v>
@@ -6026,23 +6026,23 @@
       <c r="AY28" s="3">
         <v>0</v>
       </c>
-      <c r="AZ28" s="4">
-        <v>1</v>
+      <c r="AZ28" s="3">
+        <v>0</v>
       </c>
       <c r="BA28" s="4">
         <v>1</v>
       </c>
-      <c r="BB28" s="4">
-        <v>1</v>
+      <c r="BB28" s="3">
+        <v>0</v>
       </c>
       <c r="BC28" s="3">
         <v>0</v>
       </c>
-      <c r="BD28" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="4">
-        <v>1</v>
+      <c r="BD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="3">
+        <v>0</v>
       </c>
       <c r="BF28" s="3">
         <v>0</v>
@@ -6050,17 +6050,17 @@
       <c r="BG28" s="3">
         <v>0</v>
       </c>
-      <c r="BH28" s="4">
-        <v>1</v>
-      </c>
-      <c r="BI28" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="4">
-        <v>1</v>
+      <c r="BH28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="3">
+        <v>0</v>
       </c>
       <c r="BL28" s="3">
         <v>0</v>
@@ -6076,8 +6076,8 @@
       <c r="B29" s="3">
         <v>0</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
+      <c r="C29" s="4">
+        <v>1</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -6085,8 +6085,8 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="4">
-        <v>1</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -6136,8 +6136,8 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="4">
-        <v>1</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -6154,8 +6154,8 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
+      <c r="AC29" s="4">
+        <v>1</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
@@ -6163,11 +6163,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-      <c r="AF29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="3">
-        <v>0</v>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>1</v>
       </c>
       <c r="AH29" s="3">
         <v>0</v>
@@ -6187,26 +6187,26 @@
       <c r="AM29" s="3">
         <v>0</v>
       </c>
-      <c r="AN29" s="4">
-        <v>1</v>
+      <c r="AN29" s="3">
+        <v>0</v>
       </c>
       <c r="AO29" s="3">
         <v>0</v>
       </c>
-      <c r="AP29" s="3">
-        <v>0</v>
+      <c r="AP29" s="4">
+        <v>1</v>
       </c>
       <c r="AQ29" s="3">
         <v>0</v>
       </c>
-      <c r="AR29" s="3">
-        <v>0</v>
+      <c r="AR29" s="4">
+        <v>1</v>
       </c>
       <c r="AS29" s="3">
         <v>0</v>
       </c>
-      <c r="AT29" s="3">
-        <v>0</v>
+      <c r="AT29" s="4">
+        <v>1</v>
       </c>
       <c r="AU29" s="3">
         <v>0</v>
@@ -6214,11 +6214,11 @@
       <c r="AV29" s="3">
         <v>0</v>
       </c>
-      <c r="AW29" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX29" s="3">
-        <v>0</v>
+      <c r="AW29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>1</v>
       </c>
       <c r="AY29" s="3">
         <v>0</v>
@@ -6247,8 +6247,8 @@
       <c r="BG29" s="3">
         <v>0</v>
       </c>
-      <c r="BH29" s="4">
-        <v>1</v>
+      <c r="BH29" s="3">
+        <v>0</v>
       </c>
       <c r="BI29" s="3">
         <v>0</v>
@@ -6256,8 +6256,8 @@
       <c r="BJ29" s="3">
         <v>0</v>
       </c>
-      <c r="BK29" s="4">
-        <v>1</v>
+      <c r="BK29" s="3">
+        <v>0</v>
       </c>
       <c r="BL29" s="3">
         <v>0</v>
@@ -6273,8 +6273,8 @@
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="3">
-        <v>0</v>
+      <c r="C30" s="4">
+        <v>1</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -6285,8 +6285,8 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="4">
-        <v>1</v>
+      <c r="G30" s="3">
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -6333,11 +6333,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-      <c r="W30" s="3">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4">
-        <v>1</v>
+      <c r="W30" s="4">
+        <v>1</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
       </c>
       <c r="Y30" s="3">
         <v>0</v>
@@ -6357,8 +6357,8 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-      <c r="AE30" s="3">
-        <v>0</v>
+      <c r="AE30" s="4">
+        <v>1</v>
       </c>
       <c r="AF30" s="3">
         <v>0</v>
@@ -6366,17 +6366,17 @@
       <c r="AG30" s="3">
         <v>0</v>
       </c>
-      <c r="AH30" s="3">
-        <v>0</v>
+      <c r="AH30" s="4">
+        <v>1</v>
       </c>
       <c r="AI30" s="3">
         <v>0</v>
       </c>
-      <c r="AJ30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="4">
-        <v>1</v>
+      <c r="AJ30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>0</v>
       </c>
       <c r="AL30" s="3">
         <v>0</v>
@@ -6387,8 +6387,8 @@
       <c r="AN30" s="3">
         <v>0</v>
       </c>
-      <c r="AO30" s="3">
-        <v>0</v>
+      <c r="AO30" s="4">
+        <v>1</v>
       </c>
       <c r="AP30" s="3">
         <v>0</v>
@@ -6396,8 +6396,8 @@
       <c r="AQ30" s="3">
         <v>0</v>
       </c>
-      <c r="AR30" s="3">
-        <v>0</v>
+      <c r="AR30" s="4">
+        <v>1</v>
       </c>
       <c r="AS30" s="4">
         <v>1</v>
@@ -6405,8 +6405,8 @@
       <c r="AT30" s="3">
         <v>0</v>
       </c>
-      <c r="AU30" s="4">
-        <v>1</v>
+      <c r="AU30" s="3">
+        <v>0</v>
       </c>
       <c r="AV30" s="3">
         <v>0</v>
@@ -6414,14 +6414,14 @@
       <c r="AW30" s="3">
         <v>0</v>
       </c>
-      <c r="AX30" s="4">
-        <v>1</v>
+      <c r="AX30" s="3">
+        <v>0</v>
       </c>
       <c r="AY30" s="3">
         <v>0</v>
       </c>
-      <c r="AZ30" s="4">
-        <v>1</v>
+      <c r="AZ30" s="3">
+        <v>0</v>
       </c>
       <c r="BA30" s="3">
         <v>0</v>
@@ -6429,14 +6429,14 @@
       <c r="BB30" s="3">
         <v>0</v>
       </c>
-      <c r="BC30" s="3">
-        <v>0</v>
+      <c r="BC30" s="4">
+        <v>1</v>
       </c>
       <c r="BD30" s="3">
         <v>0</v>
       </c>
-      <c r="BE30" s="4">
-        <v>1</v>
+      <c r="BE30" s="3">
+        <v>0</v>
       </c>
       <c r="BF30" s="3">
         <v>0</v>
@@ -6444,17 +6444,17 @@
       <c r="BG30" s="3">
         <v>0</v>
       </c>
-      <c r="BH30" s="4">
-        <v>1</v>
+      <c r="BH30" s="3">
+        <v>0</v>
       </c>
       <c r="BI30" s="3">
         <v>0</v>
       </c>
-      <c r="BJ30" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK30" s="3">
-        <v>0</v>
+      <c r="BJ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="4">
+        <v>1</v>
       </c>
       <c r="BL30" s="3">
         <v>0</v>
@@ -6470,8 +6470,8 @@
       <c r="B31" s="3">
         <v>0</v>
       </c>
-      <c r="C31" s="3">
-        <v>0</v>
+      <c r="C31" s="4">
+        <v>1</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -6482,8 +6482,8 @@
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
+      <c r="G31" s="3">
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -6530,8 +6530,8 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-      <c r="W31" s="4">
-        <v>1</v>
+      <c r="W31" s="3">
+        <v>0</v>
       </c>
       <c r="X31" s="3">
         <v>0</v>
@@ -6548,8 +6548,8 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-      <c r="AC31" s="3">
-        <v>0</v>
+      <c r="AC31" s="4">
+        <v>1</v>
       </c>
       <c r="AD31" s="3">
         <v>0</v>
@@ -6557,11 +6557,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-      <c r="AF31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="3">
-        <v>0</v>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>1</v>
       </c>
       <c r="AH31" s="3">
         <v>0</v>
@@ -6581,14 +6581,14 @@
       <c r="AM31" s="3">
         <v>0</v>
       </c>
-      <c r="AN31" s="4">
-        <v>1</v>
+      <c r="AN31" s="3">
+        <v>0</v>
       </c>
       <c r="AO31" s="3">
         <v>0</v>
       </c>
-      <c r="AP31" s="3">
-        <v>0</v>
+      <c r="AP31" s="4">
+        <v>1</v>
       </c>
       <c r="AQ31" s="3">
         <v>0</v>
@@ -6596,11 +6596,11 @@
       <c r="AR31" s="3">
         <v>0</v>
       </c>
-      <c r="AS31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="3">
-        <v>0</v>
+      <c r="AS31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="4">
+        <v>1</v>
       </c>
       <c r="AU31" s="3">
         <v>0</v>
@@ -6608,11 +6608,11 @@
       <c r="AV31" s="3">
         <v>0</v>
       </c>
-      <c r="AW31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX31" s="3">
-        <v>0</v>
+      <c r="AW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>1</v>
       </c>
       <c r="AY31" s="3">
         <v>0</v>
@@ -6647,11 +6647,11 @@
       <c r="BI31" s="3">
         <v>0</v>
       </c>
-      <c r="BJ31" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK31" s="4">
-        <v>1</v>
+      <c r="BJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="3">
+        <v>0</v>
       </c>
       <c r="BL31" s="3">
         <v>0</v>
@@ -6668,19 +6668,19 @@
         <v>0</v>
       </c>
       <c r="C32" s="5">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5">
         <v>6</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <v>7</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>8</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>14</v>
-      </c>
-      <c r="G32" s="5">
-        <v>30</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -6728,127 +6728,127 @@
         <v>0</v>
       </c>
       <c r="W32" s="5">
+        <v>8</v>
+      </c>
+      <c r="X32" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>9</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>11</v>
+      </c>
+      <c r="AC32" s="5">
         <v>10</v>
       </c>
-      <c r="X32" s="5">
-        <v>8</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>9</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>3</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>11</v>
-      </c>
       <c r="AD32" s="5">
         <v>0</v>
       </c>
       <c r="AE32" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AF32" s="5">
         <v>6</v>
       </c>
       <c r="AG32" s="5">
+        <v>17</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>14</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>8</v>
+      </c>
+      <c r="AL32" s="5">
         <v>6</v>
       </c>
-      <c r="AH32" s="5">
+      <c r="AM32" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN32" s="5">
+        <v>12</v>
+      </c>
+      <c r="AO32" s="5">
+        <v>9</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>15</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="5">
+        <v>19</v>
+      </c>
+      <c r="AS32" s="5">
+        <v>18</v>
+      </c>
+      <c r="AT32" s="5">
+        <v>12</v>
+      </c>
+      <c r="AU32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="5">
+        <v>3</v>
+      </c>
+      <c r="AW32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="5">
         <v>6</v>
       </c>
-      <c r="AI32" s="5">
+      <c r="AY32" s="5">
+        <v>6</v>
+      </c>
+      <c r="AZ32" s="5">
+        <v>6</v>
+      </c>
+      <c r="BA32" s="5">
         <v>5</v>
       </c>
-      <c r="AJ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="5">
+      <c r="BB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="5">
         <v>6</v>
       </c>
-      <c r="AL32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN32" s="5">
+      <c r="BD32" s="5">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="5">
         <v>6</v>
       </c>
-      <c r="AO32" s="5">
+      <c r="BG32" s="5">
         <v>7</v>
       </c>
-      <c r="AP32" s="5">
+      <c r="BH32" s="5">
         <v>6</v>
       </c>
-      <c r="AQ32" s="5">
+      <c r="BI32" s="5">
         <v>4</v>
       </c>
-      <c r="AR32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AS32" s="5">
+      <c r="BJ32" s="5">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="5">
         <v>5</v>
-      </c>
-      <c r="AT32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="5">
-        <v>15</v>
-      </c>
-      <c r="AV32" s="5">
-        <v>6</v>
-      </c>
-      <c r="AW32" s="5">
-        <v>17</v>
-      </c>
-      <c r="AX32" s="5">
-        <v>4</v>
-      </c>
-      <c r="AY32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="5">
-        <v>14</v>
-      </c>
-      <c r="BA32" s="5">
-        <v>8</v>
-      </c>
-      <c r="BB32" s="5">
-        <v>6</v>
-      </c>
-      <c r="BC32" s="5">
-        <v>4</v>
-      </c>
-      <c r="BD32" s="5">
-        <v>12</v>
-      </c>
-      <c r="BE32" s="5">
-        <v>9</v>
-      </c>
-      <c r="BF32" s="5">
-        <v>15</v>
-      </c>
-      <c r="BG32" s="5">
-        <v>0</v>
-      </c>
-      <c r="BH32" s="5">
-        <v>19</v>
-      </c>
-      <c r="BI32" s="5">
-        <v>3</v>
-      </c>
-      <c r="BJ32" s="5">
-        <v>18</v>
-      </c>
-      <c r="BK32" s="5">
-        <v>12</v>
       </c>
       <c r="BL32" s="5">
         <v>1</v>

--- a/assets/data/MAXQDA24 Code Matrix Browser.xlsx
+++ b/assets/data/MAXQDA24 Code Matrix Browser.xlsx
@@ -24,22 +24,22 @@
     <t>Input Modalities &gt; Image</t>
   </si>
   <si>
+    <t>Input Modalities &gt; Timestamp</t>
+  </si>
+  <si>
     <t>Input Modalities &gt; Geolocation</t>
   </si>
   <si>
-    <t>Input Modalities &gt; Timestamp</t>
+    <t>Input Modalities &gt; Text</t>
   </si>
   <si>
     <t>Input Modalities &gt; Other</t>
   </si>
   <si>
-    <t>Input Modalities &gt; Text</t>
-  </si>
-  <si>
     <t>Image Representation</t>
   </si>
   <si>
-    <t>Image Representation &gt; Deep learning-based Image Features</t>
+    <t>Image Representation &gt; Deep Learning-Based Image Features</t>
   </si>
   <si>
     <t>Image Representation &gt; Traditional Image Features</t>
@@ -66,12 +66,12 @@
     <t>Summarizing Entities</t>
   </si>
   <si>
+    <t>Summarizing Entities &gt; Representative Images</t>
+  </si>
+  <si>
     <t>Summarizing Entities &gt; Marks</t>
   </si>
   <si>
-    <t>Summarizing Entities &gt; Representative Images</t>
-  </si>
-  <si>
     <t>Summarizing Entities &gt; Captions and Tags</t>
   </si>
   <si>
@@ -204,7 +204,7 @@
     <t>Set Size - Confirmed &gt; Millions or More</t>
   </si>
   <si>
-    <t>Set Size - Confirmed &gt; not specified</t>
+    <t>Set Size - Confirmed &gt; Not Specified</t>
   </si>
   <si>
     <t>SUM</t>
@@ -489,10 +489,10 @@
     <col min="1" max="1" width="51" customWidth="true"/>
     <col min="2" max="2" width="23" customWidth="true"/>
     <col min="3" max="3" width="27" customWidth="true"/>
-    <col min="4" max="4" width="33" customWidth="true"/>
-    <col min="5" max="5" width="31" customWidth="true"/>
-    <col min="6" max="6" width="27" customWidth="true"/>
-    <col min="7" max="7" width="26" customWidth="true"/>
+    <col min="4" max="4" width="31" customWidth="true"/>
+    <col min="5" max="5" width="33" customWidth="true"/>
+    <col min="6" max="6" width="26" customWidth="true"/>
+    <col min="7" max="7" width="27" customWidth="true"/>
     <col min="8" max="8" width="23" customWidth="true"/>
     <col min="9" max="9" width="51" customWidth="true"/>
     <col min="10" max="10" width="51" customWidth="true"/>
@@ -503,8 +503,8 @@
     <col min="15" max="15" width="28" customWidth="true"/>
     <col min="16" max="16" width="38" customWidth="true"/>
     <col min="17" max="17" width="23" customWidth="true"/>
-    <col min="18" max="18" width="31" customWidth="true"/>
-    <col min="19" max="19" width="47" customWidth="true"/>
+    <col min="18" max="18" width="47" customWidth="true"/>
+    <col min="19" max="19" width="31" customWidth="true"/>
     <col min="20" max="20" width="43" customWidth="true"/>
     <col min="21" max="21" width="46" customWidth="true"/>
     <col min="22" max="22" width="38" customWidth="true"/>
@@ -802,11 +802,11 @@
       <c r="Q2" s="3">
         <v>0</v>
       </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>1</v>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
       </c>
       <c r="T2" s="3">
         <v>0</v>
@@ -999,11 +999,11 @@
       <c r="Q3" s="3">
         <v>0</v>
       </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>1</v>
+      <c r="R3" s="4">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -1160,11 +1160,11 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -1211,11 +1211,11 @@
       <c r="V4" s="3">
         <v>0</v>
       </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>1</v>
+      <c r="W4" s="4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
         <v>0</v>
@@ -1357,11 +1357,11 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -1408,8 +1408,8 @@
       <c r="V5" s="3">
         <v>0</v>
       </c>
-      <c r="W5" s="3">
-        <v>0</v>
+      <c r="W5" s="4">
+        <v>1</v>
       </c>
       <c r="X5" s="3">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BM5" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1554,11 +1554,11 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1590,11 +1590,11 @@
       <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1</v>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
       </c>
       <c r="T6" s="4">
         <v>1</v>
@@ -1751,11 +1751,11 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -1787,11 +1787,11 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>1</v>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -1948,11 +1948,11 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -2145,11 +2145,11 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -2181,11 +2181,11 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1</v>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="4">
         <v>1</v>
@@ -2342,11 +2342,11 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -2575,11 +2575,11 @@
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>1</v>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
@@ -2730,17 +2730,17 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -2933,11 +2933,11 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -2969,11 +2969,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>1</v>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
       </c>
       <c r="T13" s="3">
         <v>0</v>
@@ -3166,11 +3166,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>1</v>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -3363,11 +3363,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>1</v>
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -3393,8 +3393,8 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="4">
-        <v>1</v>
+      <c r="AB15" s="3">
+        <v>0</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="BM15" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -3918,11 +3918,11 @@
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -3954,11 +3954,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>1</v>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -4151,11 +4151,11 @@
       <c r="Q19" s="3">
         <v>0</v>
       </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>1</v>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
       </c>
       <c r="T19" s="4">
         <v>1</v>
@@ -4312,11 +4312,11 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -4348,11 +4348,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1</v>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -4503,11 +4503,11 @@
       <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -4545,11 +4545,11 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>1</v>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
@@ -4700,11 +4700,11 @@
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -4742,11 +4742,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>1</v>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -4903,11 +4903,11 @@
       <c r="E23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -4939,11 +4939,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>1</v>
+      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
@@ -5100,11 +5100,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -5136,11 +5136,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <v>1</v>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -5348,8 +5348,8 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-      <c r="W25" s="3">
-        <v>0</v>
+      <c r="W25" s="4">
+        <v>1</v>
       </c>
       <c r="X25" s="4">
         <v>1</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -5494,11 +5494,11 @@
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -5530,11 +5530,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="4">
-        <v>1</v>
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
@@ -5691,11 +5691,11 @@
       <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -5727,11 +5727,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="4">
-        <v>1</v>
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
@@ -6085,11 +6085,11 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -6121,11 +6121,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="4">
-        <v>1</v>
+      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -6318,11 +6318,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-      <c r="R30" s="3">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>1</v>
+      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
       </c>
       <c r="T30" s="4">
         <v>1</v>
@@ -6515,11 +6515,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-      <c r="R31" s="3">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>1</v>
+      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
       </c>
       <c r="T31" s="3">
         <v>0</v>
@@ -6671,16 +6671,16 @@
         <v>30</v>
       </c>
       <c r="D32" s="5">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5">
         <v>6</v>
       </c>
-      <c r="E32" s="5">
-        <v>7</v>
-      </c>
       <c r="F32" s="5">
+        <v>14</v>
+      </c>
+      <c r="G32" s="5">
         <v>8</v>
-      </c>
-      <c r="G32" s="5">
-        <v>14</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -6713,10 +6713,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="5">
+        <v>28</v>
+      </c>
+      <c r="S32" s="5">
         <v>7</v>
-      </c>
-      <c r="S32" s="5">
-        <v>28</v>
       </c>
       <c r="T32" s="5">
         <v>8</v>
@@ -6728,10 +6728,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X32" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y32" s="5">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>3</v>
       </c>
       <c r="AB32" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC32" s="5">
         <v>10</v>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="BM32" s="5">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/MAXQDA24 Code Matrix Browser.xlsx
+++ b/assets/data/MAXQDA24 Code Matrix Browser.xlsx
@@ -180,7 +180,7 @@
     <t>Set Size - Claimed &gt; Millions or More</t>
   </si>
   <si>
-    <t>Set Size - Claimed &gt; not specified</t>
+    <t>Set Size - Claimed &gt; Not Specified</t>
   </si>
   <si>
     <t>Set Size - Confirmed</t>
@@ -4781,8 +4781,8 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-      <c r="AE22" s="4">
-        <v>1</v>
+      <c r="AE22" s="3">
+        <v>0</v>
       </c>
       <c r="AF22" s="3">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -5915,8 +5915,8 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3">
-        <v>0</v>
+      <c r="O28" s="4">
+        <v>1</v>
       </c>
       <c r="P28" s="4">
         <v>1</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P32" s="5">
         <v>8</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF32" s="5">
         <v>6</v>

--- a/assets/data/MAXQDA24 Code Matrix Browser.xlsx
+++ b/assets/data/MAXQDA24 Code Matrix Browser.xlsx
@@ -5342,8 +5342,8 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-      <c r="U25" s="3">
-        <v>0</v>
+      <c r="U25" s="4">
+        <v>1</v>
       </c>
       <c r="V25" s="3">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -6722,7 +6722,7 @@
         <v>8</v>
       </c>
       <c r="U32" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V32" s="5">
         <v>0</v>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="BM32" s="5">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
